--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -21,12 +21,12 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$287</definedName>
     <definedName name="historytillage">'cv_sample'!$CV$1:$CV$9</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$DE$1:$DE$5</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="profileposition">'cv_sample'!$G$1:$G$5</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$DB$1:$DB$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AE$1:$AE$3</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="868">
   <si>
     <t>alias</t>
   </si>
@@ -459,6 +459,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -558,6 +570,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -675,6 +705,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -682,6 +715,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -3162,10 +3198,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3206,10 +3242,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3272,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3256,7 +3292,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3273,7 +3309,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3290,7 +3326,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3307,7 +3343,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3324,7 +3360,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3341,7 +3377,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3358,7 +3394,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3375,7 +3411,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3392,7 +3428,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3406,7 +3442,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3420,7 +3456,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3434,7 +3470,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3448,7 +3484,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3458,8 +3494,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3469,8 +3508,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3480,8 +3522,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3491,8 +3536,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3503,7 +3551,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3514,7 +3562,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3525,7 +3573,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3536,7 +3584,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3547,7 +3595,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3558,7 +3606,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3569,7 +3617,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3580,7 +3628,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3591,7 +3639,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3602,7 +3650,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3613,7 +3661,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3624,7 +3672,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3635,7 +3683,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3646,7 +3694,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3654,7 +3702,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3662,7 +3710,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3670,7 +3718,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3678,7 +3726,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3686,7 +3734,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3694,7 +3742,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3702,7 +3750,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3710,7 +3758,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3718,7 +3766,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3726,176 +3774,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3920,27 +4008,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3963,122 +4051,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4105,660 +4193,660 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:110" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -4808,1749 +4896,1749 @@
   <sheetData>
     <row r="1" spans="7:109">
       <c r="G1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AE1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AN1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="BV1" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="CC1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="CE1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="CV1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="DA1" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="DB1" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="DE1" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2" spans="7:109">
       <c r="G2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AE2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AN2" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="BV2" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="CC2" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="CE2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="CV2" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="DA2" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="DB2" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="DE2" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="7:109">
       <c r="G3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AE3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AN3" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="BV3" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="CC3" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="CE3" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="CV3" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="DA3" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="DB3" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="DE3" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="7:109">
       <c r="G4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AN4" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="BV4" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="CC4" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="CE4" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="CV4" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="DA4" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="DB4" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="DE4" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="7:109">
       <c r="G5" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AN5" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="BV5" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="CC5" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="CE5" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="CV5" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="DA5" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="DB5" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="DE5" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6" spans="7:109">
       <c r="AN6" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="BV6" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="CC6" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="CE6" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="CV6" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="DA6" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="DB6" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="7:109">
       <c r="AN7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="BV7" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="CC7" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="CV7" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="DA7" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="DB7" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="7:109">
       <c r="AN8" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="CC8" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="CV8" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="DA8" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="7:109">
       <c r="AN9" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="CC9" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="CV9" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="DA9" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="7:109">
       <c r="AN10" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="CC10" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="DA10" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="7:109">
       <c r="AN11" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="CC11" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="DA11" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="7:109">
       <c r="AN12" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="CC12" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="DA12" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="7:109">
       <c r="AN13" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="CC13" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="DA13" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="7:109">
       <c r="AN14" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="CC14" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="DA14" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="7:109">
       <c r="AN15" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="CC15" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="DA15" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="7:109">
       <c r="AN16" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="CC16" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="DA16" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="40:105">
       <c r="AN17" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="CC17" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="DA17" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="40:105">
       <c r="AN18" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="CC18" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="DA18" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="40:105">
       <c r="AN19" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="CC19" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="DA19" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="40:105">
       <c r="AN20" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="CC20" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="DA20" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="21" spans="40:105">
       <c r="AN21" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="CC21" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="DA21" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="40:105">
       <c r="AN22" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="CC22" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="DA22" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="40:105">
       <c r="AN23" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="CC23" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="DA23" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="40:105">
       <c r="AN24" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="CC24" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="DA24" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="40:105">
       <c r="AN25" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="CC25" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="DA25" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="40:105">
       <c r="AN26" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="CC26" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="DA26" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="40:105">
       <c r="AN27" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="CC27" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="DA27" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="28" spans="40:105">
       <c r="AN28" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="CC28" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="DA28" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" spans="40:105">
       <c r="AN29" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="CC29" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="DA29" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" spans="40:105">
       <c r="AN30" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="CC30" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="DA30" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="31" spans="40:105">
       <c r="AN31" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="CC31" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" spans="40:105">
       <c r="AN32" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="CC32" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="40:40">
       <c r="AN33" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="40:40">
       <c r="AN34" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="40:40">
       <c r="AN35" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="40:40">
       <c r="AN36" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="40:40">
       <c r="AN37" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="40:40">
       <c r="AN38" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="40:40">
       <c r="AN39" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="AN40" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="40:40">
       <c r="AN41" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="40:40">
       <c r="AN42" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="40:40">
       <c r="AN43" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="40:40">
       <c r="AN44" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="40:40">
       <c r="AN45" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="40:40">
       <c r="AN46" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="40:40">
       <c r="AN47" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="40:40">
       <c r="AN48" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="40:40">
       <c r="AN49" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="40:40">
       <c r="AN50" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="40:40">
       <c r="AN51" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="40:40">
       <c r="AN52" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="40:40">
       <c r="AN53" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="40:40">
       <c r="AN54" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="40:40">
       <c r="AN55" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="40:40">
       <c r="AN56" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="40:40">
       <c r="AN57" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="40:40">
       <c r="AN58" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="40:40">
       <c r="AN60" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="40:40">
       <c r="AN61" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="40:40">
       <c r="AN63" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="40:40">
       <c r="AN64" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="40:40">
       <c r="AN65" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="40:40">
       <c r="AN66" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="40:40">
       <c r="AN67" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="40:40">
       <c r="AN68" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="40:40">
       <c r="AN69" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="40:40">
       <c r="AN70" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="40:40">
       <c r="AN71" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="40:40">
       <c r="AN72" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="40:40">
       <c r="AN73" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="40:40">
       <c r="AN74" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="40:40">
       <c r="AN75" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="40:40">
       <c r="AN76" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="40:40">
       <c r="AN77" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="40:40">
       <c r="AN78" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="40:40">
       <c r="AN79" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="40:40">
       <c r="AN80" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="40:40">
       <c r="AN81" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="40:40">
       <c r="AN82" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="40:40">
       <c r="AN83" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="40:40">
       <c r="AN84" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="40:40">
       <c r="AN85" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="40:40">
       <c r="AN86" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="40:40">
       <c r="AN88" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="40:40">
       <c r="AN89" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="40:40">
       <c r="AN90" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="40:40">
       <c r="AN91" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="40:40">
       <c r="AN92" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="40:40">
       <c r="AN93" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="40:40">
       <c r="AN94" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="40:40">
       <c r="AN95" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="40:40">
       <c r="AN96" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="40:40">
       <c r="AN97" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="40:40">
       <c r="AN98" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="40:40">
       <c r="AN99" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="40:40">
       <c r="AN100" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="40:40">
       <c r="AN101" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="40:40">
       <c r="AN102" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="40:40">
       <c r="AN103" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="40:40">
       <c r="AN104" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="40:40">
       <c r="AN105" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="40:40">
       <c r="AN106" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="40:40">
       <c r="AN107" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="40:40">
       <c r="AN108" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="40:40">
       <c r="AN109" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="40:40">
       <c r="AN110" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="40:40">
       <c r="AN111" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" spans="40:40">
       <c r="AN112" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="40:40">
       <c r="AN113" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="40:40">
       <c r="AN114" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="40:40">
       <c r="AN115" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="40:40">
       <c r="AN116" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="40:40">
       <c r="AN117" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="40:40">
       <c r="AN118" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="40:40">
       <c r="AN119" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="40:40">
       <c r="AN120" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="40:40">
       <c r="AN121" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="40:40">
       <c r="AN122" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="40:40">
       <c r="AN123" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="40:40">
       <c r="AN124" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="40:40">
       <c r="AN125" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="40:40">
       <c r="AN126" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="40:40">
       <c r="AN127" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="128" spans="40:40">
       <c r="AN128" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="40:40">
       <c r="AN129" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="40:40">
       <c r="AN130" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="40:40">
       <c r="AN131" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="40:40">
       <c r="AN132" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="40:40">
       <c r="AN133" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="40:40">
       <c r="AN134" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="40:40">
       <c r="AN135" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="40:40">
       <c r="AN136" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="40:40">
       <c r="AN137" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="40:40">
       <c r="AN138" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="40:40">
       <c r="AN139" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="40:40">
       <c r="AN140" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="40:40">
       <c r="AN141" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="142" spans="40:40">
       <c r="AN142" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="40:40">
       <c r="AN143" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="144" spans="40:40">
       <c r="AN144" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="40:40">
       <c r="AN145" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="146" spans="40:40">
       <c r="AN146" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="147" spans="40:40">
       <c r="AN147" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="40:40">
       <c r="AN148" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="149" spans="40:40">
       <c r="AN149" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="150" spans="40:40">
       <c r="AN150" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="151" spans="40:40">
       <c r="AN151" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="40:40">
       <c r="AN152" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="153" spans="40:40">
       <c r="AN153" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="40:40">
       <c r="AN154" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="155" spans="40:40">
       <c r="AN155" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="156" spans="40:40">
       <c r="AN156" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="40:40">
       <c r="AN157" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="158" spans="40:40">
       <c r="AN158" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="40:40">
       <c r="AN159" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="160" spans="40:40">
       <c r="AN160" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="40:40">
       <c r="AN161" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="162" spans="40:40">
       <c r="AN162" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="163" spans="40:40">
       <c r="AN163" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="40:40">
       <c r="AN164" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="165" spans="40:40">
       <c r="AN165" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="40:40">
       <c r="AN166" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="167" spans="40:40">
       <c r="AN167" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="168" spans="40:40">
       <c r="AN168" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="169" spans="40:40">
       <c r="AN169" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="170" spans="40:40">
       <c r="AN170" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="171" spans="40:40">
       <c r="AN171" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="172" spans="40:40">
       <c r="AN172" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="173" spans="40:40">
       <c r="AN173" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="174" spans="40:40">
       <c r="AN174" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="175" spans="40:40">
       <c r="AN175" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="176" spans="40:40">
       <c r="AN176" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="177" spans="40:40">
       <c r="AN177" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="178" spans="40:40">
       <c r="AN178" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="179" spans="40:40">
       <c r="AN179" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="180" spans="40:40">
       <c r="AN180" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="181" spans="40:40">
       <c r="AN181" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="182" spans="40:40">
       <c r="AN182" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="183" spans="40:40">
       <c r="AN183" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="184" spans="40:40">
       <c r="AN184" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="185" spans="40:40">
       <c r="AN185" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="186" spans="40:40">
       <c r="AN186" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="187" spans="40:40">
       <c r="AN187" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="188" spans="40:40">
       <c r="AN188" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="189" spans="40:40">
       <c r="AN189" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="190" spans="40:40">
       <c r="AN190" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="40:40">
       <c r="AN191" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="40:40">
       <c r="AN192" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="193" spans="40:40">
       <c r="AN193" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="194" spans="40:40">
       <c r="AN194" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="195" spans="40:40">
       <c r="AN195" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="196" spans="40:40">
       <c r="AN196" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="197" spans="40:40">
       <c r="AN197" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" spans="40:40">
       <c r="AN198" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="199" spans="40:40">
       <c r="AN199" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="200" spans="40:40">
       <c r="AN200" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="40:40">
       <c r="AN201" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="40:40">
       <c r="AN202" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="203" spans="40:40">
       <c r="AN203" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="40:40">
       <c r="AN204" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="40:40">
       <c r="AN205" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="206" spans="40:40">
       <c r="AN206" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="207" spans="40:40">
       <c r="AN207" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="208" spans="40:40">
       <c r="AN208" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="40:40">
       <c r="AN209" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="210" spans="40:40">
       <c r="AN210" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="211" spans="40:40">
       <c r="AN211" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="212" spans="40:40">
       <c r="AN212" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="213" spans="40:40">
       <c r="AN213" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="214" spans="40:40">
       <c r="AN214" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="215" spans="40:40">
       <c r="AN215" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="216" spans="40:40">
       <c r="AN216" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="217" spans="40:40">
       <c r="AN217" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="218" spans="40:40">
       <c r="AN218" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="219" spans="40:40">
       <c r="AN219" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="220" spans="40:40">
       <c r="AN220" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="221" spans="40:40">
       <c r="AN221" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="222" spans="40:40">
       <c r="AN222" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="223" spans="40:40">
       <c r="AN223" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="224" spans="40:40">
       <c r="AN224" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="225" spans="40:40">
       <c r="AN225" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="226" spans="40:40">
       <c r="AN226" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="227" spans="40:40">
       <c r="AN227" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="228" spans="40:40">
       <c r="AN228" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="229" spans="40:40">
       <c r="AN229" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="40:40">
       <c r="AN230" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="231" spans="40:40">
       <c r="AN231" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="40:40">
       <c r="AN232" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="233" spans="40:40">
       <c r="AN233" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="234" spans="40:40">
       <c r="AN234" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="40:40">
       <c r="AN235" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="236" spans="40:40">
       <c r="AN236" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="237" spans="40:40">
       <c r="AN237" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="40:40">
       <c r="AN238" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="239" spans="40:40">
       <c r="AN239" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="40:40">
       <c r="AN240" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="241" spans="40:40">
       <c r="AN241" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="242" spans="40:40">
       <c r="AN242" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" spans="40:40">
       <c r="AN243" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="244" spans="40:40">
       <c r="AN244" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="245" spans="40:40">
       <c r="AN245" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="246" spans="40:40">
       <c r="AN246" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="247" spans="40:40">
       <c r="AN247" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="40:40">
       <c r="AN248" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="40:40">
       <c r="AN249" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="250" spans="40:40">
       <c r="AN250" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="251" spans="40:40">
       <c r="AN251" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="252" spans="40:40">
       <c r="AN252" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="253" spans="40:40">
       <c r="AN253" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="254" spans="40:40">
       <c r="AN254" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="255" spans="40:40">
       <c r="AN255" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="256" spans="40:40">
       <c r="AN256" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="257" spans="40:40">
       <c r="AN257" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="258" spans="40:40">
       <c r="AN258" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="40:40">
       <c r="AN259" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="260" spans="40:40">
       <c r="AN260" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="261" spans="40:40">
       <c r="AN261" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="262" spans="40:40">
       <c r="AN262" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="263" spans="40:40">
       <c r="AN263" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="264" spans="40:40">
       <c r="AN264" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="265" spans="40:40">
       <c r="AN265" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="266" spans="40:40">
       <c r="AN266" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="267" spans="40:40">
       <c r="AN267" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="268" spans="40:40">
       <c r="AN268" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="269" spans="40:40">
       <c r="AN269" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="270" spans="40:40">
       <c r="AN270" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="271" spans="40:40">
       <c r="AN271" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="272" spans="40:40">
       <c r="AN272" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="273" spans="40:40">
       <c r="AN273" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="274" spans="40:40">
       <c r="AN274" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="275" spans="40:40">
       <c r="AN275" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="276" spans="40:40">
       <c r="AN276" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="277" spans="40:40">
       <c r="AN277" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="278" spans="40:40">
       <c r="AN278" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="279" spans="40:40">
       <c r="AN279" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="280" spans="40:40">
       <c r="AN280" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="281" spans="40:40">
       <c r="AN281" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="282" spans="40:40">
       <c r="AN282" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="283" spans="40:40">
       <c r="AN283" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="284" spans="40:40">
       <c r="AN284" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="285" spans="40:40">
       <c r="AN285" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="286" spans="40:40">
       <c r="AN286" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="287" spans="40:40">
       <c r="AN287" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -840,8 +840,7 @@
     <t>slope gradient</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Commonly called slope. the angle between ground surface and a horizontal line (in percent). this is the direction that overland water would flow. this measure is usually taken with a hand level meter or clinometer. Units: 
-                    </t>
+    <t>(Optional) Commonly called slope. the angle between ground surface and a horizontal line (in percent). this is the direction that overland water would flow. this measure is usually taken with a hand level meter or clinometer. (Units: %)</t>
   </si>
   <si>
     <t>slope aspect</t>
@@ -922,8 +921,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1070,8 +1068,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1944,15 +1941,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1964,8 +1959,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1989,8 +1983,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -2020,8 +2013,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>composite design/sieving (if any)</t>
@@ -2033,8 +2025,7 @@
     <t>sample weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Weight (g) of soil processed Units: 
-                    </t>
+    <t>(Optional) Weight (g) of soil processed (Units: g)</t>
   </si>
   <si>
     <t>storage conditions (fresh/frozen/other)</t>
@@ -2046,8 +2037,7 @@
     <t>microbial biomass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 µm. if you keep this, you would need to have correction factors used for conversion to the final units, which should be mg c (or n)/kg soil). Units: 
-                    </t>
+    <t>(Optional) The part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 µm. if you keep this, you would need to have correction factors used for conversion to the final units, which should be mg c (or n)/kg soil). (Units: g/kg)</t>
   </si>
   <si>
     <t>microbial biomass method</t>
@@ -2089,8 +2079,7 @@
     <t>extreme_unusual_properties/Al saturation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Aluminum saturation (esp. for tropical soils) Units: 
-                    </t>
+    <t>(Optional) Aluminum saturation (esp. for tropical soils) (Units: %)</t>
   </si>
   <si>
     <t>extreme_unusual_properties/Al saturation method</t>
@@ -2183,15 +2172,13 @@
     <t>mean annual and seasonal temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Mean annual and seasonal temperature (ºc) Units: 
-                    </t>
+    <t>(Optional) Mean annual and seasonal temperature (ºc) (Units: ºC)</t>
   </si>
   <si>
     <t>mean annual and seasonal precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Mean annual and seasonal precipitation (mm) Units: 
-                    </t>
+    <t>(Optional) Mean annual and seasonal precipitation (mm) (Units: mm)</t>
   </si>
   <si>
     <t>soil_taxonomic/FAO classification</t>
@@ -2347,15 +2334,13 @@
     <t>temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of the sample at time of sampling Units: 
-                    </t>
+    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>soil texture measurement</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. Units: 
-                    </t>
+    <t>(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. (Units: % sand/silt/clay)</t>
   </si>
   <si>
     <t>soil texture method</t>
@@ -2397,29 +2382,25 @@
     <t>organic matter</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic matter Units: 
-                    </t>
+    <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
     <t>total organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content Units: 
-                    </t>
+    <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
   </si>
   <si>
     <t>water content</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Water content measurement Units: 
-                    </t>
+    <t>(Optional) Water content measurement (Units: g/g)</t>
   </si>
   <si>
     <t>total nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total nitrogen content of the sample Units: 
-                    </t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
   </si>
   <si>
     <t>history/previous land use</t>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -108,7 +108,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -17,30 +17,30 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="drainageclassification">'cv_sample'!$CE$1:$CE$6</definedName>
+    <definedName name="drainageclassification">'cv_sample'!$BH$1:$BH$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$287</definedName>
-    <definedName name="historytillage">'cv_sample'!$CV$1:$CV$9</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AI$1:$AI$288</definedName>
+    <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$DE$1:$DE$5</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="profileposition">'cv_sample'!$G$1:$G$5</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$DB$1:$DB$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$AE$1:$AE$3</definedName>
-    <definedName name="soilhorizon">'cv_sample'!$BV$1:$BV$7</definedName>
-    <definedName name="soiltype">'cv_sample'!$CC$1:$CC$32</definedName>
+    <definedName name="profileposition">'cv_sample'!$BO$1:$BO$5</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$AC$1:$AC$3</definedName>
+    <definedName name="soilhorizon">'cv_sample'!$BG$1:$BG$6</definedName>
+    <definedName name="soiltype">'cv_sample'!$P$1:$P$32</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$DA$1:$DA$30</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="876">
   <si>
     <t>alias</t>
   </si>
@@ -837,6 +837,1497 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>autotroph</t>
+  </si>
+  <si>
+    <t>carboxydotroph</t>
+  </si>
+  <si>
+    <t>chemoautotroph</t>
+  </si>
+  <si>
+    <t>chemoheterotroph</t>
+  </si>
+  <si>
+    <t>chemolithoautotroph</t>
+  </si>
+  <si>
+    <t>chemolithotroph</t>
+  </si>
+  <si>
+    <t>chemoorganoheterotroph</t>
+  </si>
+  <si>
+    <t>chemoorganotroph</t>
+  </si>
+  <si>
+    <t>chemosynthetic</t>
+  </si>
+  <si>
+    <t>chemotroph</t>
+  </si>
+  <si>
+    <t>copiotroph</t>
+  </si>
+  <si>
+    <t>diazotroph</t>
+  </si>
+  <si>
+    <t>facultative autotroph</t>
+  </si>
+  <si>
+    <t>heterotroph</t>
+  </si>
+  <si>
+    <t>lithoautotroph</t>
+  </si>
+  <si>
+    <t>lithoheterotroph</t>
+  </si>
+  <si>
+    <t>lithotroph</t>
+  </si>
+  <si>
+    <t>methanotroph</t>
+  </si>
+  <si>
+    <t>methylotroph</t>
+  </si>
+  <si>
+    <t>mixotroph</t>
+  </si>
+  <si>
+    <t>obligate chemoautolithotroph</t>
+  </si>
+  <si>
+    <t>oligotroph</t>
+  </si>
+  <si>
+    <t>organoheterotroph</t>
+  </si>
+  <si>
+    <t>organotroph</t>
+  </si>
+  <si>
+    <t>photoautotroph</t>
+  </si>
+  <si>
+    <t>photoheterotroph</t>
+  </si>
+  <si>
+    <t>photolithoautotroph</t>
+  </si>
+  <si>
+    <t>photolithotroph</t>
+  </si>
+  <si>
+    <t>photosynthetic</t>
+  </si>
+  <si>
+    <t>phototroph</t>
+  </si>
+  <si>
+    <t>trophic level</t>
+  </si>
+  <si>
+    <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
+  </si>
+  <si>
+    <t>commensal</t>
+  </si>
+  <si>
+    <t>free living</t>
+  </si>
+  <si>
+    <t>mutualism</t>
+  </si>
+  <si>
+    <t>parasite</t>
+  </si>
+  <si>
+    <t>symbiont</t>
+  </si>
+  <si>
+    <t>observed biotic relationship</t>
+  </si>
+  <si>
+    <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
+  </si>
+  <si>
+    <t>known pathogenicity</t>
+  </si>
+  <si>
+    <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
+  </si>
+  <si>
+    <t>aerobe</t>
+  </si>
+  <si>
+    <t>anaerobe</t>
+  </si>
+  <si>
+    <t>facultative</t>
+  </si>
+  <si>
+    <t>microaerophilic</t>
+  </si>
+  <si>
+    <t>microanaerobe</t>
+  </si>
+  <si>
+    <t>obligate aerobe</t>
+  </si>
+  <si>
+    <t>obligate anaerobe</t>
+  </si>
+  <si>
+    <t>relationship to oxygen</t>
+  </si>
+  <si>
+    <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
+  </si>
+  <si>
+    <t>propagation</t>
+  </si>
+  <si>
+    <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
+  </si>
+  <si>
+    <t>sample collection device</t>
+  </si>
+  <si>
+    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
+  </si>
+  <si>
+    <t>sample collection method</t>
+  </si>
+  <si>
+    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
+  </si>
+  <si>
+    <t>sample storage conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
+  </si>
+  <si>
+    <t>soil_taxonomic/FAO classification</t>
+  </si>
+  <si>
+    <t>(Optional) Soil classification from the fao world reference database for soil resources</t>
+  </si>
+  <si>
+    <t>soil_taxonomic/local classification</t>
+  </si>
+  <si>
+    <t>(Optional) Soil classification based on local soil classification system</t>
+  </si>
+  <si>
+    <t>soil_taxonomic/local classification method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining the local soil classification</t>
+  </si>
+  <si>
+    <t>Acrisol</t>
+  </si>
+  <si>
+    <t>Albeluvisol</t>
+  </si>
+  <si>
+    <t>Alisol</t>
+  </si>
+  <si>
+    <t>Andosol</t>
+  </si>
+  <si>
+    <t>Anthrosol</t>
+  </si>
+  <si>
+    <t>Arenosol</t>
+  </si>
+  <si>
+    <t>Calcisol</t>
+  </si>
+  <si>
+    <t>Cambisol</t>
+  </si>
+  <si>
+    <t>Chernozem</t>
+  </si>
+  <si>
+    <t>Cryosol</t>
+  </si>
+  <si>
+    <t>Durisol</t>
+  </si>
+  <si>
+    <t>Ferralsol</t>
+  </si>
+  <si>
+    <t>Fluvisol</t>
+  </si>
+  <si>
+    <t>Gleysol</t>
+  </si>
+  <si>
+    <t>Gypsisol</t>
+  </si>
+  <si>
+    <t>Histosol</t>
+  </si>
+  <si>
+    <t>Kastanozem</t>
+  </si>
+  <si>
+    <t>Leptosol</t>
+  </si>
+  <si>
+    <t>Lixisol</t>
+  </si>
+  <si>
+    <t>Luvisol</t>
+  </si>
+  <si>
+    <t>Nitisol</t>
+  </si>
+  <si>
+    <t>Phaeozem</t>
+  </si>
+  <si>
+    <t>Planosol</t>
+  </si>
+  <si>
+    <t>Plinthosol</t>
+  </si>
+  <si>
+    <t>Podzol</t>
+  </si>
+  <si>
+    <t>Regosol</t>
+  </si>
+  <si>
+    <t>Solonchak</t>
+  </si>
+  <si>
+    <t>Solonetz</t>
+  </si>
+  <si>
+    <t>Stagnosol</t>
+  </si>
+  <si>
+    <t>Technosol</t>
+  </si>
+  <si>
+    <t>Umbrisol</t>
+  </si>
+  <si>
+    <t>Vertisol</t>
+  </si>
+  <si>
+    <t>soil type</t>
+  </si>
+  <si>
+    <t>(Optional) Description of the soil type or classification. this field accepts terms under soil (http://purl.obolibrary.org/obo/envo_00001998). multiple terms can be separated by pipes.</t>
+  </si>
+  <si>
+    <t>soil type method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining soil series name or other lower-level classification</t>
+  </si>
+  <si>
+    <t>soil texture measurement</t>
+  </si>
+  <si>
+    <t>(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. (Units: % sand/silt/clay)</t>
+  </si>
+  <si>
+    <t>soil texture method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining soil texture</t>
+  </si>
+  <si>
+    <t>microbial biomass</t>
+  </si>
+  <si>
+    <t>(Optional) The part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 µm. if you keep this, you would need to have correction factors used for conversion to the final units, which should be mg c (or n)/kg soil). (Units: g/kg)</t>
+  </si>
+  <si>
+    <t>project name</t>
+  </si>
+  <si>
+    <t>(Mandatory) Name of the project within which the sequencing was organized</t>
+  </si>
+  <si>
+    <t>ploidy</t>
+  </si>
+  <si>
+    <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
+  </si>
+  <si>
+    <t>number of replicons</t>
+  </si>
+  <si>
+    <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
+  </si>
+  <si>
+    <t>extrachromosomal elements</t>
+  </si>
+  <si>
+    <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
+  </si>
+  <si>
+    <t>estimated size</t>
+  </si>
+  <si>
+    <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
+  </si>
+  <si>
+    <t>target gene</t>
+  </si>
+  <si>
+    <t>(Optional) Targeted gene or locus name for marker gene studies</t>
+  </si>
+  <si>
+    <t>target subfragment</t>
+  </si>
+  <si>
+    <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
+  </si>
+  <si>
+    <t>multiplex identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>sequence quality check</t>
+  </si>
+  <si>
+    <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
+  </si>
+  <si>
+    <t>chimera check software</t>
+  </si>
+  <si>
+    <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
+  </si>
+  <si>
+    <t>relevant electronic resources</t>
+  </si>
+  <si>
+    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>relevant standard operating procedures</t>
+  </si>
+  <si>
+    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sieving</t>
+  </si>
+  <si>
+    <t>(Optional) Collection design of pooled samples and/or sieve size and amount of sample sieved</t>
+  </si>
+  <si>
+    <t>microbial biomass method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining microbial biomass</t>
+  </si>
+  <si>
+    <t>horizon method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining the horizon</t>
+  </si>
+  <si>
+    <t>extreme_unusual_properties/heavy metals</t>
+  </si>
+  <si>
+    <t>(Optional) Heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
+  </si>
+  <si>
+    <t>extreme_unusual_properties/heavy metals method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining heavy metals</t>
+  </si>
+  <si>
+    <t>extreme_unusual_properties/Al saturation</t>
+  </si>
+  <si>
+    <t>(Optional) Aluminum saturation (esp. for tropical soils) (Units: %)</t>
+  </si>
+  <si>
+    <t>extreme_unusual_properties/Al saturation method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining al saturation</t>
+  </si>
+  <si>
+    <t>host disease status</t>
+  </si>
+  <si>
+    <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
+  </si>
+  <si>
+    <t>host scientific name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
+  </si>
+  <si>
+    <t>link to climate information</t>
+  </si>
+  <si>
+    <t>(Optional) Link to climate resource</t>
+  </si>
+  <si>
+    <t>link to classification information</t>
+  </si>
+  <si>
+    <t>(Optional) Link to digitized soil maps or other soil classification information</t>
+  </si>
+  <si>
+    <t>links to additional analysis</t>
+  </si>
+  <si>
+    <t>(Optional) Link to additional analysis results performed on the sample</t>
+  </si>
+  <si>
+    <t>current land use</t>
+  </si>
+  <si>
+    <t>(Optional) Present state of sample site</t>
+  </si>
+  <si>
+    <t>current vegetation</t>
+  </si>
+  <si>
+    <t>(Optional) Vegetation classification from one or more standard classification systems, or agricultural crop</t>
+  </si>
+  <si>
+    <t>current vegetation method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in vegetation classification</t>
+  </si>
+  <si>
+    <t>A horizon</t>
+  </si>
+  <si>
+    <t>B horizon</t>
+  </si>
+  <si>
+    <t>E horizon</t>
+  </si>
+  <si>
+    <t>O horizon</t>
+  </si>
+  <si>
+    <t>Permafrost</t>
+  </si>
+  <si>
+    <t>R layer</t>
+  </si>
+  <si>
+    <t>soil horizon</t>
+  </si>
+  <si>
+    <t>(Optional) Specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
+  </si>
+  <si>
+    <t>excessively drained</t>
+  </si>
+  <si>
+    <t>moderately well</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>somewhat poorly</t>
+  </si>
+  <si>
+    <t>very poorly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>drainage classification</t>
+  </si>
+  <si>
+    <t>(Optional) Drainage classification from a standard system such as the usda system</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>(Optional) Ph measurement</t>
+  </si>
+  <si>
+    <t>pH method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining ph</t>
+  </si>
+  <si>
+    <t>water content</t>
+  </si>
+  <si>
+    <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
+  </si>
+  <si>
     <t>slope gradient</t>
   </si>
   <si>
@@ -870,10 +2361,181 @@
     <t>(Optional) Cross-sectional position in the hillslope where sample was collected.sample area position in relation to surrounding areas</t>
   </si>
   <si>
-    <t>project name</t>
-  </si>
-  <si>
-    <t>(Mandatory) Name of the project within which the sequencing was organized</t>
+    <t>water content method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining the water content of soil</t>
+  </si>
+  <si>
+    <t>total organic carbon method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining total organic carbon</t>
+  </si>
+  <si>
+    <t>total nitrogen content method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining the total nitrogen</t>
+  </si>
+  <si>
+    <t>organic matter</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
+  </si>
+  <si>
+    <t>organic nitrogen</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
+  </si>
+  <si>
+    <t>total organic carbon</t>
+  </si>
+  <si>
+    <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
+  </si>
+  <si>
+    <t>total nitrogen content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>salinity method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining salinity</t>
+  </si>
+  <si>
+    <t>source material identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
+  </si>
+  <si>
+    <t>history/previous land use</t>
+  </si>
+  <si>
+    <t>(Optional) Previous land use and dates</t>
+  </si>
+  <si>
+    <t>previous land use method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining previous land use and dates</t>
+  </si>
+  <si>
+    <t>history/crop rotation</t>
+  </si>
+  <si>
+    <t>(Optional) Whether or not crop is rotated, and if yes, rotation schedule</t>
+  </si>
+  <si>
+    <t>history/agrochemical additions</t>
+  </si>
+  <si>
+    <t>(Optional) Addition of fertilizers, pesticides, etc. - amount and time of applications</t>
+  </si>
+  <si>
+    <t>chisel</t>
+  </si>
+  <si>
+    <t>cutting disc</t>
+  </si>
+  <si>
+    <t>disc plough</t>
+  </si>
+  <si>
+    <t>drill</t>
+  </si>
+  <si>
+    <t>mouldboard</t>
+  </si>
+  <si>
+    <t>ridge till</t>
+  </si>
+  <si>
+    <t>strip tillage</t>
+  </si>
+  <si>
+    <t>tined</t>
+  </si>
+  <si>
+    <t>zonal tillage</t>
+  </si>
+  <si>
+    <t>history/tillage</t>
+  </si>
+  <si>
+    <t>(Optional) Note method(s) used for tilling</t>
+  </si>
+  <si>
+    <t>history/fire</t>
+  </si>
+  <si>
+    <t>(Optional) Historical and/or physical evidence of fire</t>
+  </si>
+  <si>
+    <t>history/flooding</t>
+  </si>
+  <si>
+    <t>(Optional) Historical and/or physical evidence of flooding</t>
+  </si>
+  <si>
+    <t>history/extreme events</t>
+  </si>
+  <si>
+    <t>(Optional) Unusual physical events that may have affected microbial populations</t>
+  </si>
+  <si>
+    <t>mean seasonal temperature</t>
+  </si>
+  <si>
+    <t>(Optional) Mean seasonal temperature (Units: °C)</t>
+  </si>
+  <si>
+    <t>mean seasonal precipitation</t>
+  </si>
+  <si>
+    <t>(Optional) The average of all seasonal precipitation values known, or an estimated equivalent value derived by such methods as regional indexes or isohyetal maps. (Units: mm)</t>
+  </si>
+  <si>
+    <t>mean annual precipitation</t>
+  </si>
+  <si>
+    <t>(Optional) The average of all annual precipitation values known, or an estimated equivalent value derived by such methods as regional indexes or isohyetal maps. (Units: mm)</t>
+  </si>
+  <si>
+    <t>mean annual temperature</t>
+  </si>
+  <si>
+    <t>(Optional) Mean annual temperature (Units: ºC)</t>
+  </si>
+  <si>
+    <t>host specificity or range</t>
+  </si>
+  <si>
+    <t>(Optional) The range and diversity of host species that an organism is capable of infecting, defined by ncbi taxonomy identifier.</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+  </si>
+  <si>
+    <t>negative control type</t>
+  </si>
+  <si>
+    <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
+  </si>
+  <si>
+    <t>positive control type</t>
+  </si>
+  <si>
+    <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
     <t>experimental factor</t>
@@ -882,28 +2544,34 @@
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>ploidy</t>
-  </si>
-  <si>
-    <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
-  </si>
-  <si>
-    <t>number of replicons</t>
-  </si>
-  <si>
-    <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
-  </si>
-  <si>
-    <t>extrachromosomal elements</t>
-  </si>
-  <si>
-    <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
-  </si>
-  <si>
-    <t>estimated size</t>
-  </si>
-  <si>
-    <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
+    <t>encoded traits</t>
+  </si>
+  <si>
+    <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
+  </si>
+  <si>
+    <t>subspecific genetic lineage</t>
+  </si>
+  <si>
+    <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
+  </si>
+  <si>
+    <t>taxonomic classification</t>
+  </si>
+  <si>
+    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
+  </si>
+  <si>
+    <t>isolation and growth condition</t>
+  </si>
+  <si>
+    <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
+  </si>
+  <si>
+    <t>annotation source</t>
+  </si>
+  <si>
+    <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
     <t>reference for biomaterial</t>
@@ -912,10 +2580,16 @@
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>annotation source</t>
-  </si>
-  <si>
-    <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
+    <t>sample pooling</t>
+  </si>
+  <si>
+    <t>(Optional) Physical combination of several instances of like material, e.g. rna extracted from samples or dishes of cell cultures into one big aliquot of cells. please provide a short description of the samples that were pooled.</t>
+  </si>
+  <si>
+    <t>sample material processing</t>
+  </si>
+  <si>
+    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
     <t>sample volume or weight for DNA extraction</t>
@@ -966,16 +2640,10 @@
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>target gene</t>
-  </si>
-  <si>
-    <t>(Optional) Targeted gene or locus name for marker gene studies</t>
-  </si>
-  <si>
-    <t>target subfragment</t>
-  </si>
-  <si>
-    <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
+    <t>pcr conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
     <t>pcr primers</t>
@@ -984,1666 +2652,22 @@
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
-  </si>
-  <si>
     <t>adapters</t>
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>pcr conditions</t>
-  </si>
-  <si>
-    <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
-  </si>
-  <si>
     <t>sequencing method</t>
   </si>
   <si>
     <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>sequence quality check</t>
-  </si>
-  <si>
-    <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
-  </si>
-  <si>
-    <t>chimera check software</t>
-  </si>
-  <si>
-    <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
-  </si>
-  <si>
-    <t>relevant electronic resources</t>
-  </si>
-  <si>
-    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>relevant standard operating procedures</t>
-  </si>
-  <si>
-    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>pooling of DNA extracts (if done)</t>
-  </si>
-  <si>
-    <t>(Optional) Were multiple dna extractions mixed? how many?</t>
-  </si>
-  <si>
-    <t>negative control type</t>
-  </si>
-  <si>
-    <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
-  </si>
-  <si>
-    <t>positive control type</t>
-  </si>
-  <si>
-    <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>source material identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
-  </si>
-  <si>
-    <t>sample material processing</t>
-  </si>
-  <si>
-    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
-  </si>
-  <si>
-    <t>isolation and growth condition</t>
-  </si>
-  <si>
-    <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
-  </si>
-  <si>
-    <t>propagation</t>
-  </si>
-  <si>
-    <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>composite design/sieving (if any)</t>
-  </si>
-  <si>
-    <t>(Optional) Collection design of pooled samples and/or sieve size and amount of sample sieved</t>
-  </si>
-  <si>
-    <t>sample weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Weight (g) of soil processed (Units: g)</t>
-  </si>
-  <si>
-    <t>storage conditions (fresh/frozen/other)</t>
-  </si>
-  <si>
-    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction.</t>
-  </si>
-  <si>
-    <t>microbial biomass</t>
-  </si>
-  <si>
-    <t>(Optional) The part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 µm. if you keep this, you would need to have correction factors used for conversion to the final units, which should be mg c (or n)/kg soil). (Units: g/kg)</t>
-  </si>
-  <si>
-    <t>microbial biomass method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining microbial biomass</t>
-  </si>
-  <si>
-    <t>sample collection device</t>
-  </si>
-  <si>
-    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
-  </si>
-  <si>
-    <t>sample collection method</t>
-  </si>
-  <si>
-    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
-  </si>
-  <si>
-    <t>salinity method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining salinity</t>
-  </si>
-  <si>
-    <t>extreme_unusual_properties/heavy metals</t>
-  </si>
-  <si>
-    <t>(Optional) Heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
-  </si>
-  <si>
-    <t>extreme_unusual_properties/heavy metals method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining heavy metals</t>
-  </si>
-  <si>
-    <t>extreme_unusual_properties/Al saturation</t>
-  </si>
-  <si>
-    <t>(Optional) Aluminum saturation (esp. for tropical soils) (Units: %)</t>
-  </si>
-  <si>
-    <t>extreme_unusual_properties/Al saturation method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining al saturation</t>
-  </si>
-  <si>
-    <t>host disease status</t>
-  </si>
-  <si>
-    <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
-  </si>
-  <si>
-    <t>host scientific name</t>
-  </si>
-  <si>
-    <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
-  </si>
-  <si>
-    <t>link to climate information</t>
-  </si>
-  <si>
-    <t>(Optional) Link to climate resource</t>
-  </si>
-  <si>
-    <t>link to classification information</t>
-  </si>
-  <si>
-    <t>(Optional) Link to digitized soil maps or other soil classification information</t>
-  </si>
-  <si>
-    <t>links to additional analysis</t>
-  </si>
-  <si>
-    <t>(Optional) Link to additional analysis results performed on the sample</t>
-  </si>
-  <si>
-    <t>current land use</t>
-  </si>
-  <si>
-    <t>(Optional) Present state of sample site</t>
-  </si>
-  <si>
-    <t>current vegetation</t>
-  </si>
-  <si>
-    <t>(Optional) Vegetation classification from one or more standard classification systems, or agricultural crop</t>
-  </si>
-  <si>
-    <t>current vegetation method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in vegetation classification</t>
-  </si>
-  <si>
-    <t>A horizon</t>
-  </si>
-  <si>
-    <t>B horizon</t>
-  </si>
-  <si>
-    <t>C horizon</t>
-  </si>
-  <si>
-    <t>E horizon</t>
-  </si>
-  <si>
-    <t>O horizon</t>
-  </si>
-  <si>
-    <t>Permafrost</t>
-  </si>
-  <si>
-    <t>R layer</t>
-  </si>
-  <si>
-    <t>soil horizon</t>
-  </si>
-  <si>
-    <t>(Optional) Specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
-  </si>
-  <si>
-    <t>soil horizon method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining the horizon</t>
-  </si>
-  <si>
-    <t>mean annual and seasonal temperature</t>
-  </si>
-  <si>
-    <t>(Optional) Mean annual and seasonal temperature (ºc) (Units: ºC)</t>
-  </si>
-  <si>
-    <t>mean annual and seasonal precipitation</t>
-  </si>
-  <si>
-    <t>(Optional) Mean annual and seasonal precipitation (mm) (Units: mm)</t>
-  </si>
-  <si>
-    <t>soil_taxonomic/FAO classification</t>
-  </si>
-  <si>
-    <t>(Optional) Soil classification from the fao world reference database for soil resources</t>
-  </si>
-  <si>
-    <t>soil_taxonomic/local classification</t>
-  </si>
-  <si>
-    <t>(Optional) Soil classification based on local soil classification system</t>
-  </si>
-  <si>
-    <t>soil_taxonomic/local classification method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining the local soil classification</t>
-  </si>
-  <si>
-    <t>Acrisol</t>
-  </si>
-  <si>
-    <t>Albeluvisol</t>
-  </si>
-  <si>
-    <t>Alisol</t>
-  </si>
-  <si>
-    <t>Andosol</t>
-  </si>
-  <si>
-    <t>Anthrosol</t>
-  </si>
-  <si>
-    <t>Arenosol</t>
-  </si>
-  <si>
-    <t>Calcisol</t>
-  </si>
-  <si>
-    <t>Cambisol</t>
-  </si>
-  <si>
-    <t>Chernozem</t>
-  </si>
-  <si>
-    <t>Cryosol</t>
-  </si>
-  <si>
-    <t>Durisol</t>
-  </si>
-  <si>
-    <t>Ferralsol</t>
-  </si>
-  <si>
-    <t>Fluvisol</t>
-  </si>
-  <si>
-    <t>Gleysol</t>
-  </si>
-  <si>
-    <t>Gypsisol</t>
-  </si>
-  <si>
-    <t>Histosol</t>
-  </si>
-  <si>
-    <t>Kastanozem</t>
-  </si>
-  <si>
-    <t>Leptosol</t>
-  </si>
-  <si>
-    <t>Lixisol</t>
-  </si>
-  <si>
-    <t>Luvisol</t>
-  </si>
-  <si>
-    <t>Nitisol</t>
-  </si>
-  <si>
-    <t>Phaeozem</t>
-  </si>
-  <si>
-    <t>Planosol</t>
-  </si>
-  <si>
-    <t>Plinthosol</t>
-  </si>
-  <si>
-    <t>Podzol</t>
-  </si>
-  <si>
-    <t>Regosol</t>
-  </si>
-  <si>
-    <t>Solonchak</t>
-  </si>
-  <si>
-    <t>Solonetz</t>
-  </si>
-  <si>
-    <t>Stagnosol</t>
-  </si>
-  <si>
-    <t>Technosol</t>
-  </si>
-  <si>
-    <t>Umbrisol</t>
-  </si>
-  <si>
-    <t>Vertisol</t>
-  </si>
-  <si>
-    <t>soil type</t>
-  </si>
-  <si>
-    <t>(Optional) Description of the soil type or classification. this field accepts terms under soil (http://purl.obolibrary.org/obo/envo_00001998). multiple terms can be separated by pipes.</t>
-  </si>
-  <si>
-    <t>soil type method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining soil series name or other lower-level classification</t>
-  </si>
-  <si>
-    <t>excessively drained</t>
-  </si>
-  <si>
-    <t>moderately well</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>somewhat poorly</t>
-  </si>
-  <si>
-    <t>very poorly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>drainage classification</t>
-  </si>
-  <si>
-    <t>(Optional) Drainage classification from a standard system such as the usda system</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
-  </si>
-  <si>
-    <t>soil texture measurement</t>
-  </si>
-  <si>
-    <t>(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. (Units: % sand/silt/clay)</t>
-  </si>
-  <si>
-    <t>soil texture method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining soil texture</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>(Optional) Ph measurement</t>
-  </si>
-  <si>
-    <t>pH method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining ph</t>
-  </si>
-  <si>
-    <t>water content method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining the water content of soil</t>
-  </si>
-  <si>
-    <t>total organic C method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining total organic c</t>
-  </si>
-  <si>
-    <t>total nitrogen method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining the total nitrogen</t>
-  </si>
-  <si>
-    <t>organic matter</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
-  </si>
-  <si>
-    <t>total organic carbon</t>
-  </si>
-  <si>
-    <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
-  </si>
-  <si>
-    <t>water content</t>
-  </si>
-  <si>
-    <t>(Optional) Water content measurement (Units: g/g)</t>
-  </si>
-  <si>
-    <t>total nitrogen</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>history/previous land use</t>
-  </si>
-  <si>
-    <t>(Optional) Previous land use and dates</t>
-  </si>
-  <si>
-    <t>history/previous land use method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining previous land use and dates</t>
-  </si>
-  <si>
-    <t>history/crop rotation</t>
-  </si>
-  <si>
-    <t>(Optional) Whether or not crop is rotated, and if yes, rotation schedule</t>
-  </si>
-  <si>
-    <t>history/agrochemical additions</t>
-  </si>
-  <si>
-    <t>(Optional) Addition of fertilizers, pesticides, etc. - amount and time of applications</t>
-  </si>
-  <si>
-    <t>chisel</t>
-  </si>
-  <si>
-    <t>cutting disc</t>
-  </si>
-  <si>
-    <t>disc plough</t>
-  </si>
-  <si>
-    <t>drill</t>
-  </si>
-  <si>
-    <t>mouldboard</t>
-  </si>
-  <si>
-    <t>ridge till</t>
-  </si>
-  <si>
-    <t>strip tillage</t>
-  </si>
-  <si>
-    <t>tined</t>
-  </si>
-  <si>
-    <t>zonal tillage</t>
-  </si>
-  <si>
-    <t>history/tillage</t>
-  </si>
-  <si>
-    <t>(Optional) Note method(s) used for tilling</t>
-  </si>
-  <si>
-    <t>history/fire</t>
-  </si>
-  <si>
-    <t>(Optional) Historical and/or physical evidence of fire</t>
-  </si>
-  <si>
-    <t>history/flooding</t>
-  </si>
-  <si>
-    <t>(Optional) Historical and/or physical evidence of flooding</t>
-  </si>
-  <si>
-    <t>history/extreme events</t>
-  </si>
-  <si>
-    <t>(Optional) Unusual physical events that may have affected microbial populations</t>
-  </si>
-  <si>
-    <t>subspecific genetic lineage</t>
-  </si>
-  <si>
-    <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
-  </si>
-  <si>
-    <t>autotroph</t>
-  </si>
-  <si>
-    <t>carboxydotroph</t>
-  </si>
-  <si>
-    <t>chemoautotroph</t>
-  </si>
-  <si>
-    <t>chemoheterotroph</t>
-  </si>
-  <si>
-    <t>chemolithoautotroph</t>
-  </si>
-  <si>
-    <t>chemolithotroph</t>
-  </si>
-  <si>
-    <t>chemoorganoheterotroph</t>
-  </si>
-  <si>
-    <t>chemoorganotroph</t>
-  </si>
-  <si>
-    <t>chemosynthetic</t>
-  </si>
-  <si>
-    <t>chemotroph</t>
-  </si>
-  <si>
-    <t>copiotroph</t>
-  </si>
-  <si>
-    <t>diazotroph</t>
-  </si>
-  <si>
-    <t>facultative autotroph</t>
-  </si>
-  <si>
-    <t>heterotroph</t>
-  </si>
-  <si>
-    <t>lithoautotroph</t>
-  </si>
-  <si>
-    <t>lithoheterotroph</t>
-  </si>
-  <si>
-    <t>lithotroph</t>
-  </si>
-  <si>
-    <t>methanotroph</t>
-  </si>
-  <si>
-    <t>methylotroph</t>
-  </si>
-  <si>
-    <t>mixotroph</t>
-  </si>
-  <si>
-    <t>obligate chemoautolithotroph</t>
-  </si>
-  <si>
-    <t>oligotroph</t>
-  </si>
-  <si>
-    <t>organoheterotroph</t>
-  </si>
-  <si>
-    <t>organotroph</t>
-  </si>
-  <si>
-    <t>photoautotroph</t>
-  </si>
-  <si>
-    <t>photoheterotroph</t>
-  </si>
-  <si>
-    <t>photolithoautotroph</t>
-  </si>
-  <si>
-    <t>photolithotroph</t>
-  </si>
-  <si>
-    <t>photosynthetic</t>
-  </si>
-  <si>
-    <t>phototroph</t>
-  </si>
-  <si>
-    <t>trophic level</t>
-  </si>
-  <si>
-    <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
-  </si>
-  <si>
-    <t>aerobe</t>
-  </si>
-  <si>
-    <t>anaerobe</t>
-  </si>
-  <si>
-    <t>facultative</t>
-  </si>
-  <si>
-    <t>microaerophilic</t>
-  </si>
-  <si>
-    <t>microanaerobe</t>
-  </si>
-  <si>
-    <t>obligate aerobe</t>
-  </si>
-  <si>
-    <t>obligate anaerobe</t>
-  </si>
-  <si>
-    <t>relationship to oxygen</t>
-  </si>
-  <si>
-    <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
-  </si>
-  <si>
-    <t>known pathogenicity</t>
-  </si>
-  <si>
-    <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
-  </si>
-  <si>
-    <t>encoded traits</t>
-  </si>
-  <si>
-    <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
-  </si>
-  <si>
-    <t>commensal</t>
-  </si>
-  <si>
-    <t>free living</t>
-  </si>
-  <si>
-    <t>mutualism</t>
-  </si>
-  <si>
-    <t>parasite</t>
-  </si>
-  <si>
-    <t>symbiont</t>
-  </si>
-  <si>
-    <t>observed biotic relationship</t>
-  </si>
-  <si>
-    <t>(Optional) Is it free-living or in a host and if the latter what type of relationship is observed</t>
-  </si>
-  <si>
-    <t>perturbation</t>
-  </si>
-  <si>
-    <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -4157,7 +4181,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DF2"/>
+  <dimension ref="A1:DJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4166,7 +4190,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110">
+    <row r="1" spans="1:114">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4180,316 +4204,316 @@
         <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>314</v>
+        <v>383</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>333</v>
+        <v>690</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>335</v>
+        <v>692</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>337</v>
+        <v>694</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>339</v>
+        <v>696</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>341</v>
+        <v>698</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>632</v>
+        <v>702</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>656</v>
+        <v>726</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>658</v>
+        <v>728</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>666</v>
+        <v>736</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>686</v>
+        <v>773</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>688</v>
+        <v>775</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>694</v>
+        <v>781</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>705</v>
+        <v>785</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>707</v>
+        <v>787</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>709</v>
+        <v>789</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>711</v>
+        <v>791</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>713</v>
+        <v>793</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>715</v>
+        <v>795</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>717</v>
+        <v>797</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>751</v>
+        <v>808</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>753</v>
+        <v>810</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>812</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>814</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>816</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>818</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>820</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>822</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>824</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>828</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>830</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>832</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>834</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>787</v>
+        <v>838</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>789</v>
+        <v>840</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>791</v>
+        <v>842</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>793</v>
+        <v>844</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DE1" s="1" t="s">
         <v>864</v>
@@ -4497,8 +4521,20 @@
       <c r="DF1" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="2" spans="1:110" ht="150" customHeight="1">
+      <c r="DG1" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:114" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4512,316 +4548,316 @@
         <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>334</v>
+        <v>691</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>336</v>
+        <v>693</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>338</v>
+        <v>695</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>340</v>
+        <v>697</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>342</v>
+        <v>699</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>631</v>
+        <v>701</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>655</v>
+        <v>725</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>659</v>
+        <v>729</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>663</v>
+        <v>733</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>667</v>
+        <v>737</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>685</v>
+        <v>772</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>687</v>
+        <v>774</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>693</v>
+        <v>780</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>695</v>
+        <v>782</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>706</v>
+        <v>786</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>708</v>
+        <v>788</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>710</v>
+        <v>790</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>712</v>
+        <v>792</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>714</v>
+        <v>794</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>716</v>
+        <v>796</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>718</v>
+        <v>798</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>752</v>
+        <v>809</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>813</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>815</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>817</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>819</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>821</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>823</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>825</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>827</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>829</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>831</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>833</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>835</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>837</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>788</v>
+        <v>839</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>790</v>
+        <v>841</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>792</v>
+        <v>843</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DE2" s="2" t="s">
         <v>865</v>
@@ -4829,38 +4865,50 @@
       <c r="DF2" s="2" t="s">
         <v>867</v>
       </c>
+      <c r="DG2" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>875</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+      <formula1>trophiclevel</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+      <formula1>observedbioticrelationship</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+      <formula1>relationshiptooxygen</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
+      <formula1>soiltype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+      <formula1>sequencequalitycheck</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
+      <formula1>geographiclocationcountryandorsea</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG101">
+      <formula1>soilhorizon</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
+      <formula1>drainageclassification</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO101">
       <formula1>profileposition</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
-      <formula1>sequencequalitycheck</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
-      <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV3:BV101">
-      <formula1>soilhorizon</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CC3:CC101">
-      <formula1>soiltype</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE3:CE101">
-      <formula1>drainageclassification</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CV3:CV101">
       <formula1>historytillage</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DA3:DA101">
-      <formula1>trophiclevel</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DB3:DB101">
-      <formula1>relationshiptooxygen</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DE3:DE101">
-      <formula1>observedbioticrelationship</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,1757 +4917,1759 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:DE287"/>
+  <dimension ref="E1:CC288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="7:109">
-      <c r="G1" t="s">
+    <row r="1" spans="5:81">
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>738</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>746</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>766</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2" spans="5:81">
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>739</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>747</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>767</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="5:81">
+      <c r="E3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="P3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>404</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>740</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>748</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>768</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="5:81">
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="P4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>741</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>749</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>769</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="5:81">
+      <c r="E5" t="s">
         <v>269</v>
       </c>
-      <c r="AE1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="F5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="P5" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>406</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>742</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>750</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>770</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="5:81">
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" t="s">
+        <v>311</v>
+      </c>
+      <c r="P6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>743</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>751</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="5:81">
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>408</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="5:81">
+      <c r="E8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>409</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="5:81">
+      <c r="E9" t="s">
+        <v>273</v>
+      </c>
+      <c r="P9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>410</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="5:81">
+      <c r="E10" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="5:81">
+      <c r="E11" t="s">
+        <v>275</v>
+      </c>
+      <c r="P11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="5:81">
+      <c r="E12" t="s">
+        <v>276</v>
+      </c>
+      <c r="P12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="5:81">
+      <c r="E13" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="5:81">
+      <c r="E14" t="s">
+        <v>278</v>
+      </c>
+      <c r="P14" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="5:81">
+      <c r="E15" t="s">
+        <v>279</v>
+      </c>
+      <c r="P15" t="s">
         <v>343</v>
       </c>
-      <c r="BV1" t="s">
-        <v>698</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>719</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>755</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>795</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>814</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>846</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="2" spans="7:109">
-      <c r="G2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AI15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="5:81">
+      <c r="E16" t="s">
+        <v>280</v>
+      </c>
+      <c r="P16" t="s">
         <v>344</v>
       </c>
-      <c r="BV2" t="s">
-        <v>699</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>720</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>756</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>796</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>815</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>847</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="7:109">
-      <c r="G3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AI16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="5:35">
+      <c r="E17" t="s">
+        <v>281</v>
+      </c>
+      <c r="P17" t="s">
         <v>345</v>
       </c>
-      <c r="BV3" t="s">
-        <v>700</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>721</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>757</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>797</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>816</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>848</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="4" spans="7:109">
-      <c r="G4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="AI17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="5:35">
+      <c r="E18" t="s">
+        <v>282</v>
+      </c>
+      <c r="P18" t="s">
         <v>346</v>
       </c>
-      <c r="BV4" t="s">
-        <v>701</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>722</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>758</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>798</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>817</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>849</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="5" spans="7:109">
-      <c r="G5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN5" t="s">
+      <c r="AI18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="5:35">
+      <c r="E19" t="s">
+        <v>283</v>
+      </c>
+      <c r="P19" t="s">
         <v>347</v>
       </c>
-      <c r="BV5" t="s">
-        <v>702</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>723</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>759</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>799</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>818</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>850</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="6" spans="7:109">
-      <c r="AN6" t="s">
+      <c r="AI19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="5:35">
+      <c r="E20" t="s">
+        <v>284</v>
+      </c>
+      <c r="P20" t="s">
         <v>348</v>
       </c>
-      <c r="BV6" t="s">
-        <v>703</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>724</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>760</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>800</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>819</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="7" spans="7:109">
-      <c r="AN7" t="s">
+      <c r="AI20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="5:35">
+      <c r="E21" t="s">
+        <v>285</v>
+      </c>
+      <c r="P21" t="s">
         <v>349</v>
       </c>
-      <c r="BV7" t="s">
-        <v>704</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>725</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>801</v>
-      </c>
-      <c r="DA7" t="s">
-        <v>820</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="8" spans="7:109">
-      <c r="AN8" t="s">
+      <c r="AI21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="5:35">
+      <c r="E22" t="s">
+        <v>286</v>
+      </c>
+      <c r="P22" t="s">
         <v>350</v>
       </c>
-      <c r="CC8" t="s">
-        <v>726</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>802</v>
-      </c>
-      <c r="DA8" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="9" spans="7:109">
-      <c r="AN9" t="s">
+      <c r="AI22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="5:35">
+      <c r="E23" t="s">
+        <v>287</v>
+      </c>
+      <c r="P23" t="s">
         <v>351</v>
       </c>
-      <c r="CC9" t="s">
-        <v>727</v>
-      </c>
-      <c r="CV9" t="s">
-        <v>803</v>
-      </c>
-      <c r="DA9" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="10" spans="7:109">
-      <c r="AN10" t="s">
+      <c r="AI23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="5:35">
+      <c r="E24" t="s">
+        <v>288</v>
+      </c>
+      <c r="P24" t="s">
         <v>352</v>
       </c>
-      <c r="CC10" t="s">
-        <v>728</v>
-      </c>
-      <c r="DA10" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="11" spans="7:109">
-      <c r="AN11" t="s">
+      <c r="AI24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="5:35">
+      <c r="E25" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" t="s">
         <v>353</v>
       </c>
-      <c r="CC11" t="s">
-        <v>729</v>
-      </c>
-      <c r="DA11" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="12" spans="7:109">
-      <c r="AN12" t="s">
+      <c r="AI25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="5:35">
+      <c r="E26" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" t="s">
         <v>354</v>
       </c>
-      <c r="CC12" t="s">
-        <v>730</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="13" spans="7:109">
-      <c r="AN13" t="s">
+      <c r="AI26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="5:35">
+      <c r="E27" t="s">
+        <v>291</v>
+      </c>
+      <c r="P27" t="s">
         <v>355</v>
       </c>
-      <c r="CC13" t="s">
-        <v>731</v>
-      </c>
-      <c r="DA13" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="14" spans="7:109">
-      <c r="AN14" t="s">
+      <c r="AI27" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="5:35">
+      <c r="E28" t="s">
+        <v>292</v>
+      </c>
+      <c r="P28" t="s">
         <v>356</v>
       </c>
-      <c r="CC14" t="s">
-        <v>732</v>
-      </c>
-      <c r="DA14" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="15" spans="7:109">
-      <c r="AN15" t="s">
+      <c r="AI28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="5:35">
+      <c r="E29" t="s">
+        <v>293</v>
+      </c>
+      <c r="P29" t="s">
         <v>357</v>
       </c>
-      <c r="CC15" t="s">
-        <v>733</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="16" spans="7:109">
-      <c r="AN16" t="s">
+      <c r="AI29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="5:35">
+      <c r="E30" t="s">
+        <v>294</v>
+      </c>
+      <c r="P30" t="s">
         <v>358</v>
       </c>
-      <c r="CC16" t="s">
-        <v>734</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="17" spans="40:105">
-      <c r="AN17" t="s">
+      <c r="AI30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="5:35">
+      <c r="P31" t="s">
         <v>359</v>
       </c>
-      <c r="CC17" t="s">
-        <v>735</v>
-      </c>
-      <c r="DA17" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="18" spans="40:105">
-      <c r="AN18" t="s">
+      <c r="AI31" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="5:35">
+      <c r="P32" t="s">
         <v>360</v>
       </c>
-      <c r="CC18" t="s">
-        <v>736</v>
-      </c>
-      <c r="DA18" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="19" spans="40:105">
-      <c r="AN19" t="s">
-        <v>361</v>
-      </c>
-      <c r="CC19" t="s">
-        <v>737</v>
-      </c>
-      <c r="DA19" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="20" spans="40:105">
-      <c r="AN20" t="s">
-        <v>362</v>
-      </c>
-      <c r="CC20" t="s">
-        <v>738</v>
-      </c>
-      <c r="DA20" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="21" spans="40:105">
-      <c r="AN21" t="s">
-        <v>363</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>739</v>
-      </c>
-      <c r="DA21" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="22" spans="40:105">
-      <c r="AN22" t="s">
-        <v>364</v>
-      </c>
-      <c r="CC22" t="s">
-        <v>740</v>
-      </c>
-      <c r="DA22" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="23" spans="40:105">
-      <c r="AN23" t="s">
-        <v>365</v>
-      </c>
-      <c r="CC23" t="s">
-        <v>741</v>
-      </c>
-      <c r="DA23" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="24" spans="40:105">
-      <c r="AN24" t="s">
-        <v>366</v>
-      </c>
-      <c r="CC24" t="s">
-        <v>742</v>
-      </c>
-      <c r="DA24" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="25" spans="40:105">
-      <c r="AN25" t="s">
-        <v>367</v>
-      </c>
-      <c r="CC25" t="s">
-        <v>743</v>
-      </c>
-      <c r="DA25" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="26" spans="40:105">
-      <c r="AN26" t="s">
-        <v>368</v>
-      </c>
-      <c r="CC26" t="s">
-        <v>744</v>
-      </c>
-      <c r="DA26" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="27" spans="40:105">
-      <c r="AN27" t="s">
-        <v>369</v>
-      </c>
-      <c r="CC27" t="s">
-        <v>745</v>
-      </c>
-      <c r="DA27" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="28" spans="40:105">
-      <c r="AN28" t="s">
-        <v>370</v>
-      </c>
-      <c r="CC28" t="s">
-        <v>746</v>
-      </c>
-      <c r="DA28" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="29" spans="40:105">
-      <c r="AN29" t="s">
-        <v>371</v>
-      </c>
-      <c r="CC29" t="s">
-        <v>747</v>
-      </c>
-      <c r="DA29" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="30" spans="40:105">
-      <c r="AN30" t="s">
-        <v>372</v>
-      </c>
-      <c r="CC30" t="s">
-        <v>748</v>
-      </c>
-      <c r="DA30" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="31" spans="40:105">
-      <c r="AN31" t="s">
-        <v>373</v>
-      </c>
-      <c r="CC31" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="32" spans="40:105">
-      <c r="AN32" t="s">
-        <v>374</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="33" spans="40:40">
-      <c r="AN33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="34" spans="40:40">
-      <c r="AN34" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="35" spans="40:40">
-      <c r="AN35" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="40:40">
-      <c r="AN36" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="37" spans="40:40">
-      <c r="AN37" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="40:40">
-      <c r="AN38" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="39" spans="40:40">
-      <c r="AN39" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="40" spans="40:40">
-      <c r="AN40" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="41" spans="40:40">
-      <c r="AN41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="40:40">
-      <c r="AN42" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="40:40">
-      <c r="AN43" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="40:40">
-      <c r="AN44" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="45" spans="40:40">
-      <c r="AN45" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="40:40">
-      <c r="AN46" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="47" spans="40:40">
-      <c r="AN47" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="40:40">
-      <c r="AN48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="40:40">
-      <c r="AN49" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50" spans="40:40">
-      <c r="AN50" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="40:40">
-      <c r="AN51" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="52" spans="40:40">
-      <c r="AN52" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="53" spans="40:40">
-      <c r="AN53" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="54" spans="40:40">
-      <c r="AN54" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="55" spans="40:40">
-      <c r="AN55" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="56" spans="40:40">
-      <c r="AN56" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="57" spans="40:40">
-      <c r="AN57" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="58" spans="40:40">
-      <c r="AN58" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="59" spans="40:40">
-      <c r="AN59" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="60" spans="40:40">
-      <c r="AN60" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="40:40">
-      <c r="AN61" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="62" spans="40:40">
-      <c r="AN62" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="63" spans="40:40">
-      <c r="AN63" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="64" spans="40:40">
-      <c r="AN64" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="65" spans="40:40">
-      <c r="AN65" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="66" spans="40:40">
-      <c r="AN66" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="67" spans="40:40">
-      <c r="AN67" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="68" spans="40:40">
-      <c r="AN68" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="69" spans="40:40">
-      <c r="AN69" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="70" spans="40:40">
-      <c r="AN70" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="71" spans="40:40">
-      <c r="AN71" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="72" spans="40:40">
-      <c r="AN72" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="73" spans="40:40">
-      <c r="AN73" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="74" spans="40:40">
-      <c r="AN74" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="75" spans="40:40">
-      <c r="AN75" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="76" spans="40:40">
-      <c r="AN76" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="77" spans="40:40">
-      <c r="AN77" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="78" spans="40:40">
-      <c r="AN78" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="79" spans="40:40">
-      <c r="AN79" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="80" spans="40:40">
-      <c r="AN80" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="81" spans="40:40">
-      <c r="AN81" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="82" spans="40:40">
-      <c r="AN82" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="83" spans="40:40">
-      <c r="AN83" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="84" spans="40:40">
-      <c r="AN84" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="85" spans="40:40">
-      <c r="AN85" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="86" spans="40:40">
-      <c r="AN86" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="87" spans="40:40">
-      <c r="AN87" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="88" spans="40:40">
-      <c r="AN88" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="89" spans="40:40">
-      <c r="AN89" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="90" spans="40:40">
-      <c r="AN90" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="91" spans="40:40">
-      <c r="AN91" t="s">
+      <c r="AI32" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="40:40">
-      <c r="AN92" t="s">
+    <row r="33" spans="35:35">
+      <c r="AI33" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="93" spans="40:40">
-      <c r="AN93" t="s">
+    <row r="34" spans="35:35">
+      <c r="AI34" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="94" spans="40:40">
-      <c r="AN94" t="s">
+    <row r="35" spans="35:35">
+      <c r="AI35" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="40:40">
-      <c r="AN95" t="s">
+    <row r="36" spans="35:35">
+      <c r="AI36" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="96" spans="40:40">
-      <c r="AN96" t="s">
+    <row r="37" spans="35:35">
+      <c r="AI37" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="40:40">
-      <c r="AN97" t="s">
+    <row r="38" spans="35:35">
+      <c r="AI38" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="98" spans="40:40">
-      <c r="AN98" t="s">
+    <row r="39" spans="35:35">
+      <c r="AI39" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="40:40">
-      <c r="AN99" t="s">
+    <row r="40" spans="35:35">
+      <c r="AI40" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="100" spans="40:40">
-      <c r="AN100" t="s">
+    <row r="41" spans="35:35">
+      <c r="AI41" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="101" spans="40:40">
-      <c r="AN101" t="s">
+    <row r="42" spans="35:35">
+      <c r="AI42" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="102" spans="40:40">
-      <c r="AN102" t="s">
+    <row r="43" spans="35:35">
+      <c r="AI43" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="103" spans="40:40">
-      <c r="AN103" t="s">
+    <row r="44" spans="35:35">
+      <c r="AI44" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="104" spans="40:40">
-      <c r="AN104" t="s">
+    <row r="45" spans="35:35">
+      <c r="AI45" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="40:40">
-      <c r="AN105" t="s">
+    <row r="46" spans="35:35">
+      <c r="AI46" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="106" spans="40:40">
-      <c r="AN106" t="s">
+    <row r="47" spans="35:35">
+      <c r="AI47" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="107" spans="40:40">
-      <c r="AN107" t="s">
+    <row r="48" spans="35:35">
+      <c r="AI48" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="40:40">
-      <c r="AN108" t="s">
+    <row r="49" spans="35:35">
+      <c r="AI49" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="40:40">
-      <c r="AN109" t="s">
+    <row r="50" spans="35:35">
+      <c r="AI50" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="40:40">
-      <c r="AN110" t="s">
+    <row r="51" spans="35:35">
+      <c r="AI51" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="40:40">
-      <c r="AN111" t="s">
+    <row r="52" spans="35:35">
+      <c r="AI52" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="40:40">
-      <c r="AN112" t="s">
+    <row r="53" spans="35:35">
+      <c r="AI53" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="40:40">
-      <c r="AN113" t="s">
+    <row r="54" spans="35:35">
+      <c r="AI54" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="114" spans="40:40">
-      <c r="AN114" t="s">
+    <row r="55" spans="35:35">
+      <c r="AI55" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="40:40">
-      <c r="AN115" t="s">
+    <row r="56" spans="35:35">
+      <c r="AI56" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="40:40">
-      <c r="AN116" t="s">
+    <row r="57" spans="35:35">
+      <c r="AI57" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="117" spans="40:40">
-      <c r="AN117" t="s">
+    <row r="58" spans="35:35">
+      <c r="AI58" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="40:40">
-      <c r="AN118" t="s">
+    <row r="59" spans="35:35">
+      <c r="AI59" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="40:40">
-      <c r="AN119" t="s">
+    <row r="60" spans="35:35">
+      <c r="AI60" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="120" spans="40:40">
-      <c r="AN120" t="s">
+    <row r="61" spans="35:35">
+      <c r="AI61" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="121" spans="40:40">
-      <c r="AN121" t="s">
+    <row r="62" spans="35:35">
+      <c r="AI62" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="122" spans="40:40">
-      <c r="AN122" t="s">
+    <row r="63" spans="35:35">
+      <c r="AI63" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="123" spans="40:40">
-      <c r="AN123" t="s">
+    <row r="64" spans="35:35">
+      <c r="AI64" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="124" spans="40:40">
-      <c r="AN124" t="s">
+    <row r="65" spans="35:35">
+      <c r="AI65" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="125" spans="40:40">
-      <c r="AN125" t="s">
+    <row r="66" spans="35:35">
+      <c r="AI66" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="126" spans="40:40">
-      <c r="AN126" t="s">
+    <row r="67" spans="35:35">
+      <c r="AI67" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="127" spans="40:40">
-      <c r="AN127" t="s">
+    <row r="68" spans="35:35">
+      <c r="AI68" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="128" spans="40:40">
-      <c r="AN128" t="s">
+    <row r="69" spans="35:35">
+      <c r="AI69" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="129" spans="40:40">
-      <c r="AN129" t="s">
+    <row r="70" spans="35:35">
+      <c r="AI70" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="130" spans="40:40">
-      <c r="AN130" t="s">
+    <row r="71" spans="35:35">
+      <c r="AI71" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="131" spans="40:40">
-      <c r="AN131" t="s">
+    <row r="72" spans="35:35">
+      <c r="AI72" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="132" spans="40:40">
-      <c r="AN132" t="s">
+    <row r="73" spans="35:35">
+      <c r="AI73" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="133" spans="40:40">
-      <c r="AN133" t="s">
+    <row r="74" spans="35:35">
+      <c r="AI74" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="134" spans="40:40">
-      <c r="AN134" t="s">
+    <row r="75" spans="35:35">
+      <c r="AI75" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="135" spans="40:40">
-      <c r="AN135" t="s">
+    <row r="76" spans="35:35">
+      <c r="AI76" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="136" spans="40:40">
-      <c r="AN136" t="s">
+    <row r="77" spans="35:35">
+      <c r="AI77" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="137" spans="40:40">
-      <c r="AN137" t="s">
+    <row r="78" spans="35:35">
+      <c r="AI78" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="138" spans="40:40">
-      <c r="AN138" t="s">
+    <row r="79" spans="35:35">
+      <c r="AI79" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="139" spans="40:40">
-      <c r="AN139" t="s">
+    <row r="80" spans="35:35">
+      <c r="AI80" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="140" spans="40:40">
-      <c r="AN140" t="s">
+    <row r="81" spans="35:35">
+      <c r="AI81" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="141" spans="40:40">
-      <c r="AN141" t="s">
+    <row r="82" spans="35:35">
+      <c r="AI82" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="142" spans="40:40">
-      <c r="AN142" t="s">
+    <row r="83" spans="35:35">
+      <c r="AI83" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="143" spans="40:40">
-      <c r="AN143" t="s">
+    <row r="84" spans="35:35">
+      <c r="AI84" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="144" spans="40:40">
-      <c r="AN144" t="s">
+    <row r="85" spans="35:35">
+      <c r="AI85" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="145" spans="40:40">
-      <c r="AN145" t="s">
+    <row r="86" spans="35:35">
+      <c r="AI86" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="146" spans="40:40">
-      <c r="AN146" t="s">
+    <row r="87" spans="35:35">
+      <c r="AI87" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="147" spans="40:40">
-      <c r="AN147" t="s">
+    <row r="88" spans="35:35">
+      <c r="AI88" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="148" spans="40:40">
-      <c r="AN148" t="s">
+    <row r="89" spans="35:35">
+      <c r="AI89" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="149" spans="40:40">
-      <c r="AN149" t="s">
+    <row r="90" spans="35:35">
+      <c r="AI90" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="150" spans="40:40">
-      <c r="AN150" t="s">
+    <row r="91" spans="35:35">
+      <c r="AI91" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="151" spans="40:40">
-      <c r="AN151" t="s">
+    <row r="92" spans="35:35">
+      <c r="AI92" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="152" spans="40:40">
-      <c r="AN152" t="s">
+    <row r="93" spans="35:35">
+      <c r="AI93" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="153" spans="40:40">
-      <c r="AN153" t="s">
+    <row r="94" spans="35:35">
+      <c r="AI94" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="154" spans="40:40">
-      <c r="AN154" t="s">
+    <row r="95" spans="35:35">
+      <c r="AI95" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="40:40">
-      <c r="AN155" t="s">
+    <row r="96" spans="35:35">
+      <c r="AI96" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="156" spans="40:40">
-      <c r="AN156" t="s">
+    <row r="97" spans="35:35">
+      <c r="AI97" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="157" spans="40:40">
-      <c r="AN157" t="s">
+    <row r="98" spans="35:35">
+      <c r="AI98" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="158" spans="40:40">
-      <c r="AN158" t="s">
+    <row r="99" spans="35:35">
+      <c r="AI99" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="40:40">
-      <c r="AN159" t="s">
+    <row r="100" spans="35:35">
+      <c r="AI100" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="160" spans="40:40">
-      <c r="AN160" t="s">
+    <row r="101" spans="35:35">
+      <c r="AI101" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="161" spans="40:40">
-      <c r="AN161" t="s">
+    <row r="102" spans="35:35">
+      <c r="AI102" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="40:40">
-      <c r="AN162" t="s">
+    <row r="103" spans="35:35">
+      <c r="AI103" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="163" spans="40:40">
-      <c r="AN163" t="s">
+    <row r="104" spans="35:35">
+      <c r="AI104" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="164" spans="40:40">
-      <c r="AN164" t="s">
+    <row r="105" spans="35:35">
+      <c r="AI105" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="165" spans="40:40">
-      <c r="AN165" t="s">
+    <row r="106" spans="35:35">
+      <c r="AI106" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="166" spans="40:40">
-      <c r="AN166" t="s">
+    <row r="107" spans="35:35">
+      <c r="AI107" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="167" spans="40:40">
-      <c r="AN167" t="s">
+    <row r="108" spans="35:35">
+      <c r="AI108" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="40:40">
-      <c r="AN168" t="s">
+    <row r="109" spans="35:35">
+      <c r="AI109" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="169" spans="40:40">
-      <c r="AN169" t="s">
+    <row r="110" spans="35:35">
+      <c r="AI110" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="170" spans="40:40">
-      <c r="AN170" t="s">
+    <row r="111" spans="35:35">
+      <c r="AI111" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="40:40">
-      <c r="AN171" t="s">
+    <row r="112" spans="35:35">
+      <c r="AI112" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="172" spans="40:40">
-      <c r="AN172" t="s">
+    <row r="113" spans="35:35">
+      <c r="AI113" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="173" spans="40:40">
-      <c r="AN173" t="s">
+    <row r="114" spans="35:35">
+      <c r="AI114" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="174" spans="40:40">
-      <c r="AN174" t="s">
+    <row r="115" spans="35:35">
+      <c r="AI115" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="175" spans="40:40">
-      <c r="AN175" t="s">
+    <row r="116" spans="35:35">
+      <c r="AI116" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="176" spans="40:40">
-      <c r="AN176" t="s">
+    <row r="117" spans="35:35">
+      <c r="AI117" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="177" spans="40:40">
-      <c r="AN177" t="s">
+    <row r="118" spans="35:35">
+      <c r="AI118" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="178" spans="40:40">
-      <c r="AN178" t="s">
+    <row r="119" spans="35:35">
+      <c r="AI119" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="179" spans="40:40">
-      <c r="AN179" t="s">
+    <row r="120" spans="35:35">
+      <c r="AI120" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="180" spans="40:40">
-      <c r="AN180" t="s">
+    <row r="121" spans="35:35">
+      <c r="AI121" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="181" spans="40:40">
-      <c r="AN181" t="s">
+    <row r="122" spans="35:35">
+      <c r="AI122" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="182" spans="40:40">
-      <c r="AN182" t="s">
+    <row r="123" spans="35:35">
+      <c r="AI123" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="183" spans="40:40">
-      <c r="AN183" t="s">
+    <row r="124" spans="35:35">
+      <c r="AI124" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="184" spans="40:40">
-      <c r="AN184" t="s">
+    <row r="125" spans="35:35">
+      <c r="AI125" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="185" spans="40:40">
-      <c r="AN185" t="s">
+    <row r="126" spans="35:35">
+      <c r="AI126" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="186" spans="40:40">
-      <c r="AN186" t="s">
+    <row r="127" spans="35:35">
+      <c r="AI127" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="187" spans="40:40">
-      <c r="AN187" t="s">
+    <row r="128" spans="35:35">
+      <c r="AI128" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="188" spans="40:40">
-      <c r="AN188" t="s">
+    <row r="129" spans="35:35">
+      <c r="AI129" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="40:40">
-      <c r="AN189" t="s">
+    <row r="130" spans="35:35">
+      <c r="AI130" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="190" spans="40:40">
-      <c r="AN190" t="s">
+    <row r="131" spans="35:35">
+      <c r="AI131" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="191" spans="40:40">
-      <c r="AN191" t="s">
+    <row r="132" spans="35:35">
+      <c r="AI132" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="192" spans="40:40">
-      <c r="AN192" t="s">
+    <row r="133" spans="35:35">
+      <c r="AI133" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="40:40">
-      <c r="AN193" t="s">
+    <row r="134" spans="35:35">
+      <c r="AI134" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="194" spans="40:40">
-      <c r="AN194" t="s">
+    <row r="135" spans="35:35">
+      <c r="AI135" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="195" spans="40:40">
-      <c r="AN195" t="s">
+    <row r="136" spans="35:35">
+      <c r="AI136" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="196" spans="40:40">
-      <c r="AN196" t="s">
+    <row r="137" spans="35:35">
+      <c r="AI137" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="197" spans="40:40">
-      <c r="AN197" t="s">
+    <row r="138" spans="35:35">
+      <c r="AI138" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="198" spans="40:40">
-      <c r="AN198" t="s">
+    <row r="139" spans="35:35">
+      <c r="AI139" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="199" spans="40:40">
-      <c r="AN199" t="s">
+    <row r="140" spans="35:35">
+      <c r="AI140" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="200" spans="40:40">
-      <c r="AN200" t="s">
+    <row r="141" spans="35:35">
+      <c r="AI141" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="201" spans="40:40">
-      <c r="AN201" t="s">
+    <row r="142" spans="35:35">
+      <c r="AI142" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="202" spans="40:40">
-      <c r="AN202" t="s">
+    <row r="143" spans="35:35">
+      <c r="AI143" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="203" spans="40:40">
-      <c r="AN203" t="s">
+    <row r="144" spans="35:35">
+      <c r="AI144" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="204" spans="40:40">
-      <c r="AN204" t="s">
+    <row r="145" spans="35:35">
+      <c r="AI145" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="205" spans="40:40">
-      <c r="AN205" t="s">
+    <row r="146" spans="35:35">
+      <c r="AI146" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="206" spans="40:40">
-      <c r="AN206" t="s">
+    <row r="147" spans="35:35">
+      <c r="AI147" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="207" spans="40:40">
-      <c r="AN207" t="s">
+    <row r="148" spans="35:35">
+      <c r="AI148" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="208" spans="40:40">
-      <c r="AN208" t="s">
+    <row r="149" spans="35:35">
+      <c r="AI149" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="209" spans="40:40">
-      <c r="AN209" t="s">
+    <row r="150" spans="35:35">
+      <c r="AI150" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="210" spans="40:40">
-      <c r="AN210" t="s">
+    <row r="151" spans="35:35">
+      <c r="AI151" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="211" spans="40:40">
-      <c r="AN211" t="s">
+    <row r="152" spans="35:35">
+      <c r="AI152" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="212" spans="40:40">
-      <c r="AN212" t="s">
+    <row r="153" spans="35:35">
+      <c r="AI153" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="213" spans="40:40">
-      <c r="AN213" t="s">
+    <row r="154" spans="35:35">
+      <c r="AI154" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="214" spans="40:40">
-      <c r="AN214" t="s">
+    <row r="155" spans="35:35">
+      <c r="AI155" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="215" spans="40:40">
-      <c r="AN215" t="s">
+    <row r="156" spans="35:35">
+      <c r="AI156" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="216" spans="40:40">
-      <c r="AN216" t="s">
+    <row r="157" spans="35:35">
+      <c r="AI157" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="217" spans="40:40">
-      <c r="AN217" t="s">
+    <row r="158" spans="35:35">
+      <c r="AI158" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="218" spans="40:40">
-      <c r="AN218" t="s">
+    <row r="159" spans="35:35">
+      <c r="AI159" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="219" spans="40:40">
-      <c r="AN219" t="s">
+    <row r="160" spans="35:35">
+      <c r="AI160" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="220" spans="40:40">
-      <c r="AN220" t="s">
+    <row r="161" spans="35:35">
+      <c r="AI161" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="221" spans="40:40">
-      <c r="AN221" t="s">
+    <row r="162" spans="35:35">
+      <c r="AI162" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="222" spans="40:40">
-      <c r="AN222" t="s">
+    <row r="163" spans="35:35">
+      <c r="AI163" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="223" spans="40:40">
-      <c r="AN223" t="s">
+    <row r="164" spans="35:35">
+      <c r="AI164" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="224" spans="40:40">
-      <c r="AN224" t="s">
+    <row r="165" spans="35:35">
+      <c r="AI165" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="225" spans="40:40">
-      <c r="AN225" t="s">
+    <row r="166" spans="35:35">
+      <c r="AI166" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="226" spans="40:40">
-      <c r="AN226" t="s">
+    <row r="167" spans="35:35">
+      <c r="AI167" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="227" spans="40:40">
-      <c r="AN227" t="s">
+    <row r="168" spans="35:35">
+      <c r="AI168" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="228" spans="40:40">
-      <c r="AN228" t="s">
+    <row r="169" spans="35:35">
+      <c r="AI169" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="229" spans="40:40">
-      <c r="AN229" t="s">
+    <row r="170" spans="35:35">
+      <c r="AI170" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="230" spans="40:40">
-      <c r="AN230" t="s">
+    <row r="171" spans="35:35">
+      <c r="AI171" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="231" spans="40:40">
-      <c r="AN231" t="s">
+    <row r="172" spans="35:35">
+      <c r="AI172" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="232" spans="40:40">
-      <c r="AN232" t="s">
+    <row r="173" spans="35:35">
+      <c r="AI173" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="233" spans="40:40">
-      <c r="AN233" t="s">
+    <row r="174" spans="35:35">
+      <c r="AI174" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="234" spans="40:40">
-      <c r="AN234" t="s">
+    <row r="175" spans="35:35">
+      <c r="AI175" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="235" spans="40:40">
-      <c r="AN235" t="s">
+    <row r="176" spans="35:35">
+      <c r="AI176" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="236" spans="40:40">
-      <c r="AN236" t="s">
+    <row r="177" spans="35:35">
+      <c r="AI177" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="237" spans="40:40">
-      <c r="AN237" t="s">
+    <row r="178" spans="35:35">
+      <c r="AI178" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="238" spans="40:40">
-      <c r="AN238" t="s">
+    <row r="179" spans="35:35">
+      <c r="AI179" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="239" spans="40:40">
-      <c r="AN239" t="s">
+    <row r="180" spans="35:35">
+      <c r="AI180" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="240" spans="40:40">
-      <c r="AN240" t="s">
+    <row r="181" spans="35:35">
+      <c r="AI181" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="241" spans="40:40">
-      <c r="AN241" t="s">
+    <row r="182" spans="35:35">
+      <c r="AI182" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="242" spans="40:40">
-      <c r="AN242" t="s">
+    <row r="183" spans="35:35">
+      <c r="AI183" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="243" spans="40:40">
-      <c r="AN243" t="s">
+    <row r="184" spans="35:35">
+      <c r="AI184" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="244" spans="40:40">
-      <c r="AN244" t="s">
+    <row r="185" spans="35:35">
+      <c r="AI185" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="245" spans="40:40">
-      <c r="AN245" t="s">
+    <row r="186" spans="35:35">
+      <c r="AI186" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="246" spans="40:40">
-      <c r="AN246" t="s">
+    <row r="187" spans="35:35">
+      <c r="AI187" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="247" spans="40:40">
-      <c r="AN247" t="s">
+    <row r="188" spans="35:35">
+      <c r="AI188" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="248" spans="40:40">
-      <c r="AN248" t="s">
+    <row r="189" spans="35:35">
+      <c r="AI189" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="249" spans="40:40">
-      <c r="AN249" t="s">
+    <row r="190" spans="35:35">
+      <c r="AI190" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="250" spans="40:40">
-      <c r="AN250" t="s">
+    <row r="191" spans="35:35">
+      <c r="AI191" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="251" spans="40:40">
-      <c r="AN251" t="s">
+    <row r="192" spans="35:35">
+      <c r="AI192" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="252" spans="40:40">
-      <c r="AN252" t="s">
+    <row r="193" spans="35:35">
+      <c r="AI193" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="253" spans="40:40">
-      <c r="AN253" t="s">
+    <row r="194" spans="35:35">
+      <c r="AI194" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="254" spans="40:40">
-      <c r="AN254" t="s">
+    <row r="195" spans="35:35">
+      <c r="AI195" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="255" spans="40:40">
-      <c r="AN255" t="s">
+    <row r="196" spans="35:35">
+      <c r="AI196" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="256" spans="40:40">
-      <c r="AN256" t="s">
+    <row r="197" spans="35:35">
+      <c r="AI197" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="257" spans="40:40">
-      <c r="AN257" t="s">
+    <row r="198" spans="35:35">
+      <c r="AI198" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="258" spans="40:40">
-      <c r="AN258" t="s">
+    <row r="199" spans="35:35">
+      <c r="AI199" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="40:40">
-      <c r="AN259" t="s">
+    <row r="200" spans="35:35">
+      <c r="AI200" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="260" spans="40:40">
-      <c r="AN260" t="s">
+    <row r="201" spans="35:35">
+      <c r="AI201" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="261" spans="40:40">
-      <c r="AN261" t="s">
+    <row r="202" spans="35:35">
+      <c r="AI202" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="262" spans="40:40">
-      <c r="AN262" t="s">
+    <row r="203" spans="35:35">
+      <c r="AI203" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="263" spans="40:40">
-      <c r="AN263" t="s">
+    <row r="204" spans="35:35">
+      <c r="AI204" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="264" spans="40:40">
-      <c r="AN264" t="s">
+    <row r="205" spans="35:35">
+      <c r="AI205" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="265" spans="40:40">
-      <c r="AN265" t="s">
+    <row r="206" spans="35:35">
+      <c r="AI206" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="266" spans="40:40">
-      <c r="AN266" t="s">
+    <row r="207" spans="35:35">
+      <c r="AI207" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="267" spans="40:40">
-      <c r="AN267" t="s">
+    <row r="208" spans="35:35">
+      <c r="AI208" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="268" spans="40:40">
-      <c r="AN268" t="s">
+    <row r="209" spans="35:35">
+      <c r="AI209" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="269" spans="40:40">
-      <c r="AN269" t="s">
+    <row r="210" spans="35:35">
+      <c r="AI210" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="270" spans="40:40">
-      <c r="AN270" t="s">
+    <row r="211" spans="35:35">
+      <c r="AI211" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="271" spans="40:40">
-      <c r="AN271" t="s">
+    <row r="212" spans="35:35">
+      <c r="AI212" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="272" spans="40:40">
-      <c r="AN272" t="s">
+    <row r="213" spans="35:35">
+      <c r="AI213" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="273" spans="40:40">
-      <c r="AN273" t="s">
+    <row r="214" spans="35:35">
+      <c r="AI214" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="274" spans="40:40">
-      <c r="AN274" t="s">
+    <row r="215" spans="35:35">
+      <c r="AI215" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="275" spans="40:40">
-      <c r="AN275" t="s">
+    <row r="216" spans="35:35">
+      <c r="AI216" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="276" spans="40:40">
-      <c r="AN276" t="s">
+    <row r="217" spans="35:35">
+      <c r="AI217" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="277" spans="40:40">
-      <c r="AN277" t="s">
+    <row r="218" spans="35:35">
+      <c r="AI218" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="278" spans="40:40">
-      <c r="AN278" t="s">
+    <row r="219" spans="35:35">
+      <c r="AI219" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="279" spans="40:40">
-      <c r="AN279" t="s">
+    <row r="220" spans="35:35">
+      <c r="AI220" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="280" spans="40:40">
-      <c r="AN280" t="s">
+    <row r="221" spans="35:35">
+      <c r="AI221" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="281" spans="40:40">
-      <c r="AN281" t="s">
+    <row r="222" spans="35:35">
+      <c r="AI222" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="282" spans="40:40">
-      <c r="AN282" t="s">
+    <row r="223" spans="35:35">
+      <c r="AI223" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="283" spans="40:40">
-      <c r="AN283" t="s">
+    <row r="224" spans="35:35">
+      <c r="AI224" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="284" spans="40:40">
-      <c r="AN284" t="s">
+    <row r="225" spans="35:35">
+      <c r="AI225" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="285" spans="40:40">
-      <c r="AN285" t="s">
+    <row r="226" spans="35:35">
+      <c r="AI226" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="286" spans="40:40">
-      <c r="AN286" t="s">
+    <row r="227" spans="35:35">
+      <c r="AI227" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="287" spans="40:40">
-      <c r="AN287" t="s">
+    <row r="228" spans="35:35">
+      <c r="AI228" t="s">
         <v>629</v>
+      </c>
+    </row>
+    <row r="229" spans="35:35">
+      <c r="AI229" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="230" spans="35:35">
+      <c r="AI230" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="231" spans="35:35">
+      <c r="AI231" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="232" spans="35:35">
+      <c r="AI232" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="233" spans="35:35">
+      <c r="AI233" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="234" spans="35:35">
+      <c r="AI234" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="235" spans="35:35">
+      <c r="AI235" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="236" spans="35:35">
+      <c r="AI236" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="237" spans="35:35">
+      <c r="AI237" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="238" spans="35:35">
+      <c r="AI238" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="239" spans="35:35">
+      <c r="AI239" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="240" spans="35:35">
+      <c r="AI240" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="241" spans="35:35">
+      <c r="AI241" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="242" spans="35:35">
+      <c r="AI242" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="243" spans="35:35">
+      <c r="AI243" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="244" spans="35:35">
+      <c r="AI244" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="245" spans="35:35">
+      <c r="AI245" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="246" spans="35:35">
+      <c r="AI246" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="247" spans="35:35">
+      <c r="AI247" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="248" spans="35:35">
+      <c r="AI248" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="249" spans="35:35">
+      <c r="AI249" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="250" spans="35:35">
+      <c r="AI250" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="251" spans="35:35">
+      <c r="AI251" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="252" spans="35:35">
+      <c r="AI252" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="253" spans="35:35">
+      <c r="AI253" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="254" spans="35:35">
+      <c r="AI254" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="255" spans="35:35">
+      <c r="AI255" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="256" spans="35:35">
+      <c r="AI256" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="257" spans="35:35">
+      <c r="AI257" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="258" spans="35:35">
+      <c r="AI258" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="259" spans="35:35">
+      <c r="AI259" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="260" spans="35:35">
+      <c r="AI260" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="261" spans="35:35">
+      <c r="AI261" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="262" spans="35:35">
+      <c r="AI262" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="263" spans="35:35">
+      <c r="AI263" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="264" spans="35:35">
+      <c r="AI264" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="265" spans="35:35">
+      <c r="AI265" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="266" spans="35:35">
+      <c r="AI266" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="267" spans="35:35">
+      <c r="AI267" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="268" spans="35:35">
+      <c r="AI268" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="269" spans="35:35">
+      <c r="AI269" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="270" spans="35:35">
+      <c r="AI270" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="271" spans="35:35">
+      <c r="AI271" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="272" spans="35:35">
+      <c r="AI272" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="273" spans="35:35">
+      <c r="AI273" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="274" spans="35:35">
+      <c r="AI274" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="275" spans="35:35">
+      <c r="AI275" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="276" spans="35:35">
+      <c r="AI276" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="277" spans="35:35">
+      <c r="AI277" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="278" spans="35:35">
+      <c r="AI278" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="279" spans="35:35">
+      <c r="AI279" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="280" spans="35:35">
+      <c r="AI280" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="281" spans="35:35">
+      <c r="AI281" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="282" spans="35:35">
+      <c r="AI282" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="283" spans="35:35">
+      <c r="AI283" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="284" spans="35:35">
+      <c r="AI284" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="285" spans="35:35">
+      <c r="AI285" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="286" spans="35:35">
+      <c r="AI286" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="287" spans="35:35">
+      <c r="AI287" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="288" spans="35:35">
+      <c r="AI288" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="874">
   <si>
     <t>alias</t>
   </si>
@@ -1440,12 +1440,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2656,12 +2656,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>depth</t>
@@ -4181,7 +4175,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ2"/>
+  <dimension ref="A1:DI2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4190,7 +4184,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114">
+    <row r="1" spans="1:113">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4530,11 +4524,8 @@
       <c r="DI1" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="DJ1" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="2" spans="1:114" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:113" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4873,9 +4864,6 @@
       </c>
       <c r="DI2" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="DJ2" s="2" t="s">
-        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="875">
   <si>
     <t>alias</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4192,678 +4195,678 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2" spans="1:113" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -4913,1751 +4916,1751 @@
   <sheetData>
     <row r="1" spans="5:81">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AI1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BG1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BH1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BO1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CC1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="5:81">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AI2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BG2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BH2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BO2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CC2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="5:81">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AI3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BG3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BH3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BO3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CC3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4" spans="5:81">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AI4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BG4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BH4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BO4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CC4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="5:81">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AI5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BG5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BH5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BO5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CC5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="5:81">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BG6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BH6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CC6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="5:81">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AI7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="CC7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="5:81">
       <c r="E8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="CC8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="5:81">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="CC9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="5:81">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="5:81">
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AI11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="5:81">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="5:81">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="5:81">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AI14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="5:81">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AI15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="5:81">
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P16" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AI16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="5:35">
       <c r="E17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="5:35">
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P18" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AI18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="5:35">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AI19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="5:35">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="5:35">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AI21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="5:35">
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AI22" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="5:35">
       <c r="E23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AI23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="5:35">
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AI24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="5:35">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AI25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="5:35">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="5:35">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="5:35">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AI28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="5:35">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P29" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI29" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="5:35">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="5:35">
       <c r="P31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AI31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="5:35">
       <c r="P32" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AI32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="35:35">
       <c r="AI33" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="35:35">
       <c r="AI34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="35:35">
       <c r="AI35" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="35:35">
       <c r="AI36" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="35:35">
       <c r="AI37" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="35:35">
       <c r="AI38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="35:35">
       <c r="AI39" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="35:35">
       <c r="AI40" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="35:35">
       <c r="AI41" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="35:35">
       <c r="AI42" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="35:35">
       <c r="AI43" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="35:35">
       <c r="AI44" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="35:35">
       <c r="AI45" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="35:35">
       <c r="AI46" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="35:35">
       <c r="AI47" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="35:35">
       <c r="AI48" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="35:35">
       <c r="AI49" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="35:35">
       <c r="AI50" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="35:35">
       <c r="AI51" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="35:35">
       <c r="AI52" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="35:35">
       <c r="AI53" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="35:35">
       <c r="AI54" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="35:35">
       <c r="AI55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="35:35">
       <c r="AI56" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="35:35">
       <c r="AI57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="35:35">
       <c r="AI58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="35:35">
       <c r="AI59" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="35:35">
       <c r="AI60" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="35:35">
       <c r="AI61" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="35:35">
       <c r="AI62" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="35:35">
       <c r="AI63" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="35:35">
       <c r="AI64" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="35:35">
       <c r="AI65" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="35:35">
       <c r="AI66" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="35:35">
       <c r="AI67" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="35:35">
       <c r="AI68" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="35:35">
       <c r="AI69" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="35:35">
       <c r="AI70" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="35:35">
       <c r="AI71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="35:35">
       <c r="AI72" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="35:35">
       <c r="AI73" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" spans="35:35">
       <c r="AI74" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="35:35">
       <c r="AI75" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="35:35">
       <c r="AI76" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="35:35">
       <c r="AI77" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="35:35">
       <c r="AI78" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="35:35">
       <c r="AI79" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="35:35">
       <c r="AI80" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="35:35">
       <c r="AI81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="35:35">
       <c r="AI82" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="35:35">
       <c r="AI83" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="35:35">
       <c r="AI84" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="35:35">
       <c r="AI85" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="35:35">
       <c r="AI86" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="35:35">
       <c r="AI87" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="35:35">
       <c r="AI88" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="35:35">
       <c r="AI89" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="35:35">
       <c r="AI90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="35:35">
       <c r="AI91" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="35:35">
       <c r="AI92" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="35:35">
       <c r="AI93" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="35:35">
       <c r="AI94" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="35:35">
       <c r="AI95" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="35:35">
       <c r="AI96" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="97" spans="35:35">
       <c r="AI97" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="35:35">
       <c r="AI98" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="35:35">
       <c r="AI99" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="100" spans="35:35">
       <c r="AI100" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="35:35">
       <c r="AI101" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="102" spans="35:35">
       <c r="AI102" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="35:35">
       <c r="AI103" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="35:35">
       <c r="AI104" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="35:35">
       <c r="AI105" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="106" spans="35:35">
       <c r="AI106" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="107" spans="35:35">
       <c r="AI107" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="108" spans="35:35">
       <c r="AI108" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="109" spans="35:35">
       <c r="AI109" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="35:35">
       <c r="AI110" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="111" spans="35:35">
       <c r="AI111" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112" spans="35:35">
       <c r="AI112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="113" spans="35:35">
       <c r="AI113" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="114" spans="35:35">
       <c r="AI114" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="35:35">
       <c r="AI115" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" spans="35:35">
       <c r="AI116" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="35:35">
       <c r="AI117" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="118" spans="35:35">
       <c r="AI118" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="35:35">
       <c r="AI119" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="120" spans="35:35">
       <c r="AI120" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="121" spans="35:35">
       <c r="AI121" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="122" spans="35:35">
       <c r="AI122" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="35:35">
       <c r="AI123" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="35:35">
       <c r="AI124" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="35:35">
       <c r="AI125" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="126" spans="35:35">
       <c r="AI126" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="35:35">
       <c r="AI127" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="128" spans="35:35">
       <c r="AI128" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="129" spans="35:35">
       <c r="AI129" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="130" spans="35:35">
       <c r="AI130" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="35:35">
       <c r="AI131" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="132" spans="35:35">
       <c r="AI132" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="35:35">
       <c r="AI133" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="35:35">
       <c r="AI134" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="35:35">
       <c r="AI135" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="136" spans="35:35">
       <c r="AI136" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="137" spans="35:35">
       <c r="AI137" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="35:35">
       <c r="AI138" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="139" spans="35:35">
       <c r="AI139" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="140" spans="35:35">
       <c r="AI140" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="141" spans="35:35">
       <c r="AI141" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="142" spans="35:35">
       <c r="AI142" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="143" spans="35:35">
       <c r="AI143" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="144" spans="35:35">
       <c r="AI144" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="145" spans="35:35">
       <c r="AI145" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="146" spans="35:35">
       <c r="AI146" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="35:35">
       <c r="AI147" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="148" spans="35:35">
       <c r="AI148" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149" spans="35:35">
       <c r="AI149" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="150" spans="35:35">
       <c r="AI150" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="151" spans="35:35">
       <c r="AI151" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="35:35">
       <c r="AI152" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="35:35">
       <c r="AI153" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="154" spans="35:35">
       <c r="AI154" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="155" spans="35:35">
       <c r="AI155" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="156" spans="35:35">
       <c r="AI156" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="157" spans="35:35">
       <c r="AI157" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="158" spans="35:35">
       <c r="AI158" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="159" spans="35:35">
       <c r="AI159" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="160" spans="35:35">
       <c r="AI160" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" spans="35:35">
       <c r="AI161" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="162" spans="35:35">
       <c r="AI162" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="163" spans="35:35">
       <c r="AI163" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="164" spans="35:35">
       <c r="AI164" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="165" spans="35:35">
       <c r="AI165" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="35:35">
       <c r="AI166" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="167" spans="35:35">
       <c r="AI167" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="35:35">
       <c r="AI168" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" spans="35:35">
       <c r="AI169" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="35:35">
       <c r="AI170" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="171" spans="35:35">
       <c r="AI171" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="35:35">
       <c r="AI172" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="173" spans="35:35">
       <c r="AI173" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="35:35">
       <c r="AI174" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="175" spans="35:35">
       <c r="AI175" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="176" spans="35:35">
       <c r="AI176" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177" spans="35:35">
       <c r="AI177" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178" spans="35:35">
       <c r="AI178" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="179" spans="35:35">
       <c r="AI179" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="35:35">
       <c r="AI180" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="181" spans="35:35">
       <c r="AI181" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="182" spans="35:35">
       <c r="AI182" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="183" spans="35:35">
       <c r="AI183" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="184" spans="35:35">
       <c r="AI184" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="185" spans="35:35">
       <c r="AI185" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="186" spans="35:35">
       <c r="AI186" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="187" spans="35:35">
       <c r="AI187" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" spans="35:35">
       <c r="AI188" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="189" spans="35:35">
       <c r="AI189" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="190" spans="35:35">
       <c r="AI190" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="191" spans="35:35">
       <c r="AI191" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="192" spans="35:35">
       <c r="AI192" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="193" spans="35:35">
       <c r="AI193" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="194" spans="35:35">
       <c r="AI194" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="195" spans="35:35">
       <c r="AI195" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="196" spans="35:35">
       <c r="AI196" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="197" spans="35:35">
       <c r="AI197" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="198" spans="35:35">
       <c r="AI198" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="35:35">
       <c r="AI199" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="200" spans="35:35">
       <c r="AI200" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="201" spans="35:35">
       <c r="AI201" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="202" spans="35:35">
       <c r="AI202" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="203" spans="35:35">
       <c r="AI203" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="204" spans="35:35">
       <c r="AI204" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="205" spans="35:35">
       <c r="AI205" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="206" spans="35:35">
       <c r="AI206" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="207" spans="35:35">
       <c r="AI207" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="208" spans="35:35">
       <c r="AI208" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="209" spans="35:35">
       <c r="AI209" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="210" spans="35:35">
       <c r="AI210" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="211" spans="35:35">
       <c r="AI211" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="212" spans="35:35">
       <c r="AI212" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="213" spans="35:35">
       <c r="AI213" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="214" spans="35:35">
       <c r="AI214" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="215" spans="35:35">
       <c r="AI215" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="216" spans="35:35">
       <c r="AI216" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="217" spans="35:35">
       <c r="AI217" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="218" spans="35:35">
       <c r="AI218" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="219" spans="35:35">
       <c r="AI219" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="220" spans="35:35">
       <c r="AI220" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="221" spans="35:35">
       <c r="AI221" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="222" spans="35:35">
       <c r="AI222" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="223" spans="35:35">
       <c r="AI223" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="224" spans="35:35">
       <c r="AI224" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="225" spans="35:35">
       <c r="AI225" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="226" spans="35:35">
       <c r="AI226" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="227" spans="35:35">
       <c r="AI227" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="228" spans="35:35">
       <c r="AI228" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="229" spans="35:35">
       <c r="AI229" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="230" spans="35:35">
       <c r="AI230" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="231" spans="35:35">
       <c r="AI231" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="232" spans="35:35">
       <c r="AI232" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="233" spans="35:35">
       <c r="AI233" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="234" spans="35:35">
       <c r="AI234" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="235" spans="35:35">
       <c r="AI235" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="236" spans="35:35">
       <c r="AI236" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="237" spans="35:35">
       <c r="AI237" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="238" spans="35:35">
       <c r="AI238" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="239" spans="35:35">
       <c r="AI239" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="240" spans="35:35">
       <c r="AI240" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="241" spans="35:35">
       <c r="AI241" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="242" spans="35:35">
       <c r="AI242" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="243" spans="35:35">
       <c r="AI243" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="244" spans="35:35">
       <c r="AI244" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="245" spans="35:35">
       <c r="AI245" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="246" spans="35:35">
       <c r="AI246" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="247" spans="35:35">
       <c r="AI247" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="248" spans="35:35">
       <c r="AI248" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="249" spans="35:35">
       <c r="AI249" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="250" spans="35:35">
       <c r="AI250" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="251" spans="35:35">
       <c r="AI251" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="252" spans="35:35">
       <c r="AI252" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="253" spans="35:35">
       <c r="AI253" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="254" spans="35:35">
       <c r="AI254" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="255" spans="35:35">
       <c r="AI255" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="256" spans="35:35">
       <c r="AI256" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="257" spans="35:35">
       <c r="AI257" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="258" spans="35:35">
       <c r="AI258" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="259" spans="35:35">
       <c r="AI259" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="260" spans="35:35">
       <c r="AI260" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="261" spans="35:35">
       <c r="AI261" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="262" spans="35:35">
       <c r="AI262" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="263" spans="35:35">
       <c r="AI263" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="264" spans="35:35">
       <c r="AI264" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="265" spans="35:35">
       <c r="AI265" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="266" spans="35:35">
       <c r="AI266" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="267" spans="35:35">
       <c r="AI267" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="268" spans="35:35">
       <c r="AI268" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="269" spans="35:35">
       <c r="AI269" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="270" spans="35:35">
       <c r="AI270" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="271" spans="35:35">
       <c r="AI271" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="272" spans="35:35">
       <c r="AI272" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="273" spans="35:35">
       <c r="AI273" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="274" spans="35:35">
       <c r="AI274" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="275" spans="35:35">
       <c r="AI275" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="276" spans="35:35">
       <c r="AI276" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="277" spans="35:35">
       <c r="AI277" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="278" spans="35:35">
       <c r="AI278" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="279" spans="35:35">
       <c r="AI279" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="280" spans="35:35">
       <c r="AI280" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="281" spans="35:35">
       <c r="AI281" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="282" spans="35:35">
       <c r="AI282" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="283" spans="35:35">
       <c r="AI283" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="284" spans="35:35">
       <c r="AI284" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="285" spans="35:35">
       <c r="AI285" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="286" spans="35:35">
       <c r="AI286" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="287" spans="35:35">
       <c r="AI287" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="288" spans="35:35">
       <c r="AI288" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -120,7 +120,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -138,7 +138,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BH$1:$BH$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AI$1:$AI$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$289</definedName>
     <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="876">
   <si>
     <t>alias</t>
   </si>
@@ -1251,6 +1251,96 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sieving</t>
+  </si>
+  <si>
+    <t>(Optional) Collection design of pooled samples and/or sieve size and amount of sample sieved</t>
+  </si>
+  <si>
+    <t>microbial biomass method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining microbial biomass</t>
+  </si>
+  <si>
+    <t>horizon method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining the horizon</t>
+  </si>
+  <si>
+    <t>extreme_unusual_properties/heavy metals</t>
+  </si>
+  <si>
+    <t>(Optional) Heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
+  </si>
+  <si>
+    <t>extreme_unusual_properties/heavy metals method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining heavy metals</t>
+  </si>
+  <si>
+    <t>extreme_unusual_properties/Al saturation</t>
+  </si>
+  <si>
+    <t>(Optional) Aluminum saturation (esp. for tropical soils) (Units: %)</t>
+  </si>
+  <si>
+    <t>extreme_unusual_properties/Al saturation method</t>
+  </si>
+  <si>
+    <t>(Optional) Reference or method used in determining al saturation</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -2079,6 +2169,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2119,96 +2212,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sieving</t>
-  </si>
-  <si>
-    <t>(Optional) Collection design of pooled samples and/or sieve size and amount of sample sieved</t>
-  </si>
-  <si>
-    <t>microbial biomass method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining microbial biomass</t>
-  </si>
-  <si>
-    <t>horizon method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining the horizon</t>
-  </si>
-  <si>
-    <t>extreme_unusual_properties/heavy metals</t>
-  </si>
-  <si>
-    <t>(Optional) Heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
-  </si>
-  <si>
-    <t>extreme_unusual_properties/heavy metals method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining heavy metals</t>
-  </si>
-  <si>
-    <t>extreme_unusual_properties/Al saturation</t>
-  </si>
-  <si>
-    <t>(Optional) Aluminum saturation (esp. for tropical soils) (Units: %)</t>
-  </si>
-  <si>
-    <t>extreme_unusual_properties/Al saturation method</t>
-  </si>
-  <si>
-    <t>(Optional) Reference or method used in determining al saturation</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -4291,241 +4294,241 @@
         <v>401</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>691</v>
+        <v>403</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>693</v>
+        <v>405</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>695</v>
+        <v>407</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>697</v>
+        <v>409</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>699</v>
+        <v>411</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>701</v>
+        <v>413</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>703</v>
+        <v>415</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>705</v>
+        <v>417</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>707</v>
+        <v>419</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>709</v>
+        <v>421</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>711</v>
+        <v>423</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>713</v>
+        <v>425</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>715</v>
+        <v>427</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>717</v>
+        <v>429</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>719</v>
+        <v>431</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:113" ht="150" customHeight="1">
@@ -4632,241 +4635,241 @@
         <v>402</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>692</v>
+        <v>404</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>694</v>
+        <v>406</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>696</v>
+        <v>408</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>698</v>
+        <v>410</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>700</v>
+        <v>412</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>702</v>
+        <v>414</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>704</v>
+        <v>416</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>706</v>
+        <v>418</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>708</v>
+        <v>420</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>710</v>
+        <v>422</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>712</v>
+        <v>424</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>714</v>
+        <v>426</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>716</v>
+        <v>428</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>718</v>
+        <v>430</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>720</v>
+        <v>432</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4889,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG101">
@@ -4908,7 +4911,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:CC288"/>
+  <dimension ref="E1:CC289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4930,20 +4933,20 @@
       <c r="AC1" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" t="s">
-        <v>403</v>
+      <c r="AX1" t="s">
+        <v>433</v>
       </c>
       <c r="BG1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BH1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BO1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CC1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2" spans="5:81">
@@ -4962,20 +4965,20 @@
       <c r="AC2" t="s">
         <v>389</v>
       </c>
-      <c r="AI2" t="s">
-        <v>404</v>
+      <c r="AX2" t="s">
+        <v>434</v>
       </c>
       <c r="BG2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BH2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BO2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CC2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="5:81">
@@ -4994,20 +4997,20 @@
       <c r="AC3" t="s">
         <v>390</v>
       </c>
-      <c r="AI3" t="s">
-        <v>405</v>
+      <c r="AX3" t="s">
+        <v>435</v>
       </c>
       <c r="BG3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BH3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BO3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CC3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="5:81">
@@ -5023,20 +5026,20 @@
       <c r="P4" t="s">
         <v>333</v>
       </c>
-      <c r="AI4" t="s">
-        <v>406</v>
+      <c r="AX4" t="s">
+        <v>436</v>
       </c>
       <c r="BG4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BH4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BO4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CC4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="5:81">
@@ -5052,20 +5055,20 @@
       <c r="P5" t="s">
         <v>334</v>
       </c>
-      <c r="AI5" t="s">
-        <v>407</v>
+      <c r="AX5" t="s">
+        <v>437</v>
       </c>
       <c r="BG5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BH5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BO5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CC5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="5:81">
@@ -5078,17 +5081,17 @@
       <c r="P6" t="s">
         <v>335</v>
       </c>
-      <c r="AI6" t="s">
-        <v>408</v>
+      <c r="AX6" t="s">
+        <v>438</v>
       </c>
       <c r="BG6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BH6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CC6" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="5:81">
@@ -5101,11 +5104,11 @@
       <c r="P7" t="s">
         <v>336</v>
       </c>
-      <c r="AI7" t="s">
-        <v>409</v>
+      <c r="AX7" t="s">
+        <v>439</v>
       </c>
       <c r="CC7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="5:81">
@@ -5115,11 +5118,11 @@
       <c r="P8" t="s">
         <v>337</v>
       </c>
-      <c r="AI8" t="s">
-        <v>410</v>
+      <c r="AX8" t="s">
+        <v>440</v>
       </c>
       <c r="CC8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="5:81">
@@ -5129,11 +5132,11 @@
       <c r="P9" t="s">
         <v>338</v>
       </c>
-      <c r="AI9" t="s">
-        <v>411</v>
+      <c r="AX9" t="s">
+        <v>441</v>
       </c>
       <c r="CC9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="5:81">
@@ -5143,8 +5146,8 @@
       <c r="P10" t="s">
         <v>339</v>
       </c>
-      <c r="AI10" t="s">
-        <v>412</v>
+      <c r="AX10" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="5:81">
@@ -5154,8 +5157,8 @@
       <c r="P11" t="s">
         <v>340</v>
       </c>
-      <c r="AI11" t="s">
-        <v>413</v>
+      <c r="AX11" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="5:81">
@@ -5165,8 +5168,8 @@
       <c r="P12" t="s">
         <v>341</v>
       </c>
-      <c r="AI12" t="s">
-        <v>414</v>
+      <c r="AX12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="5:81">
@@ -5176,8 +5179,8 @@
       <c r="P13" t="s">
         <v>342</v>
       </c>
-      <c r="AI13" t="s">
-        <v>415</v>
+      <c r="AX13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="5:81">
@@ -5187,8 +5190,8 @@
       <c r="P14" t="s">
         <v>343</v>
       </c>
-      <c r="AI14" t="s">
-        <v>416</v>
+      <c r="AX14" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="5:81">
@@ -5198,8 +5201,8 @@
       <c r="P15" t="s">
         <v>344</v>
       </c>
-      <c r="AI15" t="s">
-        <v>417</v>
+      <c r="AX15" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="5:81">
@@ -5209,1458 +5212,1463 @@
       <c r="P16" t="s">
         <v>345</v>
       </c>
-      <c r="AI16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="17" spans="5:35">
+      <c r="AX16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="5:50">
       <c r="E17" t="s">
         <v>282</v>
       </c>
       <c r="P17" t="s">
         <v>346</v>
       </c>
-      <c r="AI17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="18" spans="5:35">
+      <c r="AX17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="5:50">
       <c r="E18" t="s">
         <v>283</v>
       </c>
       <c r="P18" t="s">
         <v>347</v>
       </c>
-      <c r="AI18" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="5:35">
+      <c r="AX18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="5:50">
       <c r="E19" t="s">
         <v>284</v>
       </c>
       <c r="P19" t="s">
         <v>348</v>
       </c>
-      <c r="AI19" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="5:35">
+      <c r="AX19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="5:50">
       <c r="E20" t="s">
         <v>285</v>
       </c>
       <c r="P20" t="s">
         <v>349</v>
       </c>
-      <c r="AI20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="5:35">
+      <c r="AX20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="5:50">
       <c r="E21" t="s">
         <v>286</v>
       </c>
       <c r="P21" t="s">
         <v>350</v>
       </c>
-      <c r="AI21" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="5:35">
+      <c r="AX21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="5:50">
       <c r="E22" t="s">
         <v>287</v>
       </c>
       <c r="P22" t="s">
         <v>351</v>
       </c>
-      <c r="AI22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" spans="5:35">
+      <c r="AX22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="5:50">
       <c r="E23" t="s">
         <v>288</v>
       </c>
       <c r="P23" t="s">
         <v>352</v>
       </c>
-      <c r="AI23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="24" spans="5:35">
+      <c r="AX23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="5:50">
       <c r="E24" t="s">
         <v>289</v>
       </c>
       <c r="P24" t="s">
         <v>353</v>
       </c>
-      <c r="AI24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="25" spans="5:35">
+      <c r="AX24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="5:50">
       <c r="E25" t="s">
         <v>290</v>
       </c>
       <c r="P25" t="s">
         <v>354</v>
       </c>
-      <c r="AI25" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="5:35">
+      <c r="AX25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="5:50">
       <c r="E26" t="s">
         <v>291</v>
       </c>
       <c r="P26" t="s">
         <v>355</v>
       </c>
-      <c r="AI26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="27" spans="5:35">
+      <c r="AX26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="5:50">
       <c r="E27" t="s">
         <v>292</v>
       </c>
       <c r="P27" t="s">
         <v>356</v>
       </c>
-      <c r="AI27" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="5:35">
+      <c r="AX27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="5:50">
       <c r="E28" t="s">
         <v>293</v>
       </c>
       <c r="P28" t="s">
         <v>357</v>
       </c>
-      <c r="AI28" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="5:35">
+      <c r="AX28" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="5:50">
       <c r="E29" t="s">
         <v>294</v>
       </c>
       <c r="P29" t="s">
         <v>358</v>
       </c>
-      <c r="AI29" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="30" spans="5:35">
+      <c r="AX29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" spans="5:50">
       <c r="E30" t="s">
         <v>295</v>
       </c>
       <c r="P30" t="s">
         <v>359</v>
       </c>
-      <c r="AI30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="31" spans="5:35">
+      <c r="AX30" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="5:50">
       <c r="P31" t="s">
         <v>360</v>
       </c>
-      <c r="AI31" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="32" spans="5:35">
+      <c r="AX31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="5:50">
       <c r="P32" t="s">
         <v>361</v>
       </c>
-      <c r="AI32" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="33" spans="35:35">
-      <c r="AI33" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="35:35">
-      <c r="AI34" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="35" spans="35:35">
-      <c r="AI35" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="36" spans="35:35">
-      <c r="AI36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="35:35">
-      <c r="AI37" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="38" spans="35:35">
-      <c r="AI38" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="39" spans="35:35">
-      <c r="AI39" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="35:35">
-      <c r="AI40" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="41" spans="35:35">
-      <c r="AI41" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="42" spans="35:35">
-      <c r="AI42" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="43" spans="35:35">
-      <c r="AI43" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="44" spans="35:35">
-      <c r="AI44" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="45" spans="35:35">
-      <c r="AI45" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="46" spans="35:35">
-      <c r="AI46" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="47" spans="35:35">
-      <c r="AI47" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="48" spans="35:35">
-      <c r="AI48" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="35:35">
-      <c r="AI49" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="50" spans="35:35">
-      <c r="AI50" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="51" spans="35:35">
-      <c r="AI51" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="52" spans="35:35">
-      <c r="AI52" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="53" spans="35:35">
-      <c r="AI53" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="54" spans="35:35">
-      <c r="AI54" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="55" spans="35:35">
-      <c r="AI55" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="56" spans="35:35">
-      <c r="AI56" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="57" spans="35:35">
-      <c r="AI57" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="58" spans="35:35">
-      <c r="AI58" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="35:35">
-      <c r="AI59" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="60" spans="35:35">
-      <c r="AI60" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="61" spans="35:35">
-      <c r="AI61" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="35:35">
-      <c r="AI62" t="s">
+      <c r="AX32" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="35:35">
-      <c r="AI63" t="s">
+    <row r="33" spans="50:50">
+      <c r="AX33" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="35:35">
-      <c r="AI64" t="s">
+    <row r="34" spans="50:50">
+      <c r="AX34" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="35:35">
-      <c r="AI65" t="s">
+    <row r="35" spans="50:50">
+      <c r="AX35" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="66" spans="35:35">
-      <c r="AI66" t="s">
+    <row r="36" spans="50:50">
+      <c r="AX36" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="67" spans="35:35">
-      <c r="AI67" t="s">
+    <row r="37" spans="50:50">
+      <c r="AX37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="68" spans="35:35">
-      <c r="AI68" t="s">
+    <row r="38" spans="50:50">
+      <c r="AX38" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="69" spans="35:35">
-      <c r="AI69" t="s">
+    <row r="39" spans="50:50">
+      <c r="AX39" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="35:35">
-      <c r="AI70" t="s">
+    <row r="40" spans="50:50">
+      <c r="AX40" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="71" spans="35:35">
-      <c r="AI71" t="s">
+    <row r="41" spans="50:50">
+      <c r="AX41" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="35:35">
-      <c r="AI72" t="s">
+    <row r="42" spans="50:50">
+      <c r="AX42" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="73" spans="35:35">
-      <c r="AI73" t="s">
+    <row r="43" spans="50:50">
+      <c r="AX43" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="35:35">
-      <c r="AI74" t="s">
+    <row r="44" spans="50:50">
+      <c r="AX44" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="35:35">
-      <c r="AI75" t="s">
+    <row r="45" spans="50:50">
+      <c r="AX45" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="76" spans="35:35">
-      <c r="AI76" t="s">
+    <row r="46" spans="50:50">
+      <c r="AX46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="77" spans="35:35">
-      <c r="AI77" t="s">
+    <row r="47" spans="50:50">
+      <c r="AX47" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="35:35">
-      <c r="AI78" t="s">
+    <row r="48" spans="50:50">
+      <c r="AX48" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="79" spans="35:35">
-      <c r="AI79" t="s">
+    <row r="49" spans="50:50">
+      <c r="AX49" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="80" spans="35:35">
-      <c r="AI80" t="s">
+    <row r="50" spans="50:50">
+      <c r="AX50" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="81" spans="35:35">
-      <c r="AI81" t="s">
+    <row r="51" spans="50:50">
+      <c r="AX51" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="35:35">
-      <c r="AI82" t="s">
+    <row r="52" spans="50:50">
+      <c r="AX52" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="83" spans="35:35">
-      <c r="AI83" t="s">
+    <row r="53" spans="50:50">
+      <c r="AX53" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="84" spans="35:35">
-      <c r="AI84" t="s">
+    <row r="54" spans="50:50">
+      <c r="AX54" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="85" spans="35:35">
-      <c r="AI85" t="s">
+    <row r="55" spans="50:50">
+      <c r="AX55" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="86" spans="35:35">
-      <c r="AI86" t="s">
+    <row r="56" spans="50:50">
+      <c r="AX56" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="87" spans="35:35">
-      <c r="AI87" t="s">
+    <row r="57" spans="50:50">
+      <c r="AX57" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="88" spans="35:35">
-      <c r="AI88" t="s">
+    <row r="58" spans="50:50">
+      <c r="AX58" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="89" spans="35:35">
-      <c r="AI89" t="s">
+    <row r="59" spans="50:50">
+      <c r="AX59" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="35:35">
-      <c r="AI90" t="s">
+    <row r="60" spans="50:50">
+      <c r="AX60" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="91" spans="35:35">
-      <c r="AI91" t="s">
+    <row r="61" spans="50:50">
+      <c r="AX61" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="92" spans="35:35">
-      <c r="AI92" t="s">
+    <row r="62" spans="50:50">
+      <c r="AX62" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="35:35">
-      <c r="AI93" t="s">
+    <row r="63" spans="50:50">
+      <c r="AX63" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="35:35">
-      <c r="AI94" t="s">
+    <row r="64" spans="50:50">
+      <c r="AX64" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="95" spans="35:35">
-      <c r="AI95" t="s">
+    <row r="65" spans="50:50">
+      <c r="AX65" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="96" spans="35:35">
-      <c r="AI96" t="s">
+    <row r="66" spans="50:50">
+      <c r="AX66" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="97" spans="35:35">
-      <c r="AI97" t="s">
+    <row r="67" spans="50:50">
+      <c r="AX67" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="98" spans="35:35">
-      <c r="AI98" t="s">
+    <row r="68" spans="50:50">
+      <c r="AX68" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="35:35">
-      <c r="AI99" t="s">
+    <row r="69" spans="50:50">
+      <c r="AX69" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="100" spans="35:35">
-      <c r="AI100" t="s">
+    <row r="70" spans="50:50">
+      <c r="AX70" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="35:35">
-      <c r="AI101" t="s">
+    <row r="71" spans="50:50">
+      <c r="AX71" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="102" spans="35:35">
-      <c r="AI102" t="s">
+    <row r="72" spans="50:50">
+      <c r="AX72" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="103" spans="35:35">
-      <c r="AI103" t="s">
+    <row r="73" spans="50:50">
+      <c r="AX73" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="104" spans="35:35">
-      <c r="AI104" t="s">
+    <row r="74" spans="50:50">
+      <c r="AX74" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="105" spans="35:35">
-      <c r="AI105" t="s">
+    <row r="75" spans="50:50">
+      <c r="AX75" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="106" spans="35:35">
-      <c r="AI106" t="s">
+    <row r="76" spans="50:50">
+      <c r="AX76" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="107" spans="35:35">
-      <c r="AI107" t="s">
+    <row r="77" spans="50:50">
+      <c r="AX77" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="108" spans="35:35">
-      <c r="AI108" t="s">
+    <row r="78" spans="50:50">
+      <c r="AX78" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="109" spans="35:35">
-      <c r="AI109" t="s">
+    <row r="79" spans="50:50">
+      <c r="AX79" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="110" spans="35:35">
-      <c r="AI110" t="s">
+    <row r="80" spans="50:50">
+      <c r="AX80" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="111" spans="35:35">
-      <c r="AI111" t="s">
+    <row r="81" spans="50:50">
+      <c r="AX81" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="112" spans="35:35">
-      <c r="AI112" t="s">
+    <row r="82" spans="50:50">
+      <c r="AX82" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="113" spans="35:35">
-      <c r="AI113" t="s">
+    <row r="83" spans="50:50">
+      <c r="AX83" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="114" spans="35:35">
-      <c r="AI114" t="s">
+    <row r="84" spans="50:50">
+      <c r="AX84" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="115" spans="35:35">
-      <c r="AI115" t="s">
+    <row r="85" spans="50:50">
+      <c r="AX85" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="116" spans="35:35">
-      <c r="AI116" t="s">
+    <row r="86" spans="50:50">
+      <c r="AX86" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="117" spans="35:35">
-      <c r="AI117" t="s">
+    <row r="87" spans="50:50">
+      <c r="AX87" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="118" spans="35:35">
-      <c r="AI118" t="s">
+    <row r="88" spans="50:50">
+      <c r="AX88" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="119" spans="35:35">
-      <c r="AI119" t="s">
+    <row r="89" spans="50:50">
+      <c r="AX89" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="120" spans="35:35">
-      <c r="AI120" t="s">
+    <row r="90" spans="50:50">
+      <c r="AX90" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="35:35">
-      <c r="AI121" t="s">
+    <row r="91" spans="50:50">
+      <c r="AX91" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="122" spans="35:35">
-      <c r="AI122" t="s">
+    <row r="92" spans="50:50">
+      <c r="AX92" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="123" spans="35:35">
-      <c r="AI123" t="s">
+    <row r="93" spans="50:50">
+      <c r="AX93" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="35:35">
-      <c r="AI124" t="s">
+    <row r="94" spans="50:50">
+      <c r="AX94" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="125" spans="35:35">
-      <c r="AI125" t="s">
+    <row r="95" spans="50:50">
+      <c r="AX95" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="126" spans="35:35">
-      <c r="AI126" t="s">
+    <row r="96" spans="50:50">
+      <c r="AX96" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="127" spans="35:35">
-      <c r="AI127" t="s">
+    <row r="97" spans="50:50">
+      <c r="AX97" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="128" spans="35:35">
-      <c r="AI128" t="s">
+    <row r="98" spans="50:50">
+      <c r="AX98" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="129" spans="35:35">
-      <c r="AI129" t="s">
+    <row r="99" spans="50:50">
+      <c r="AX99" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="130" spans="35:35">
-      <c r="AI130" t="s">
+    <row r="100" spans="50:50">
+      <c r="AX100" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="131" spans="35:35">
-      <c r="AI131" t="s">
+    <row r="101" spans="50:50">
+      <c r="AX101" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="132" spans="35:35">
-      <c r="AI132" t="s">
+    <row r="102" spans="50:50">
+      <c r="AX102" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="133" spans="35:35">
-      <c r="AI133" t="s">
+    <row r="103" spans="50:50">
+      <c r="AX103" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="134" spans="35:35">
-      <c r="AI134" t="s">
+    <row r="104" spans="50:50">
+      <c r="AX104" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="135" spans="35:35">
-      <c r="AI135" t="s">
+    <row r="105" spans="50:50">
+      <c r="AX105" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="136" spans="35:35">
-      <c r="AI136" t="s">
+    <row r="106" spans="50:50">
+      <c r="AX106" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="137" spans="35:35">
-      <c r="AI137" t="s">
+    <row r="107" spans="50:50">
+      <c r="AX107" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="138" spans="35:35">
-      <c r="AI138" t="s">
+    <row r="108" spans="50:50">
+      <c r="AX108" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="139" spans="35:35">
-      <c r="AI139" t="s">
+    <row r="109" spans="50:50">
+      <c r="AX109" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="140" spans="35:35">
-      <c r="AI140" t="s">
+    <row r="110" spans="50:50">
+      <c r="AX110" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="141" spans="35:35">
-      <c r="AI141" t="s">
+    <row r="111" spans="50:50">
+      <c r="AX111" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="142" spans="35:35">
-      <c r="AI142" t="s">
+    <row r="112" spans="50:50">
+      <c r="AX112" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="143" spans="35:35">
-      <c r="AI143" t="s">
+    <row r="113" spans="50:50">
+      <c r="AX113" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="144" spans="35:35">
-      <c r="AI144" t="s">
+    <row r="114" spans="50:50">
+      <c r="AX114" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="35:35">
-      <c r="AI145" t="s">
+    <row r="115" spans="50:50">
+      <c r="AX115" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="146" spans="35:35">
-      <c r="AI146" t="s">
+    <row r="116" spans="50:50">
+      <c r="AX116" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="147" spans="35:35">
-      <c r="AI147" t="s">
+    <row r="117" spans="50:50">
+      <c r="AX117" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="148" spans="35:35">
-      <c r="AI148" t="s">
+    <row r="118" spans="50:50">
+      <c r="AX118" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="149" spans="35:35">
-      <c r="AI149" t="s">
+    <row r="119" spans="50:50">
+      <c r="AX119" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="150" spans="35:35">
-      <c r="AI150" t="s">
+    <row r="120" spans="50:50">
+      <c r="AX120" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="151" spans="35:35">
-      <c r="AI151" t="s">
+    <row r="121" spans="50:50">
+      <c r="AX121" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="152" spans="35:35">
-      <c r="AI152" t="s">
+    <row r="122" spans="50:50">
+      <c r="AX122" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="153" spans="35:35">
-      <c r="AI153" t="s">
+    <row r="123" spans="50:50">
+      <c r="AX123" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="154" spans="35:35">
-      <c r="AI154" t="s">
+    <row r="124" spans="50:50">
+      <c r="AX124" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="155" spans="35:35">
-      <c r="AI155" t="s">
+    <row r="125" spans="50:50">
+      <c r="AX125" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="156" spans="35:35">
-      <c r="AI156" t="s">
+    <row r="126" spans="50:50">
+      <c r="AX126" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="157" spans="35:35">
-      <c r="AI157" t="s">
+    <row r="127" spans="50:50">
+      <c r="AX127" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="158" spans="35:35">
-      <c r="AI158" t="s">
+    <row r="128" spans="50:50">
+      <c r="AX128" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="159" spans="35:35">
-      <c r="AI159" t="s">
+    <row r="129" spans="50:50">
+      <c r="AX129" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="160" spans="35:35">
-      <c r="AI160" t="s">
+    <row r="130" spans="50:50">
+      <c r="AX130" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="161" spans="35:35">
-      <c r="AI161" t="s">
+    <row r="131" spans="50:50">
+      <c r="AX131" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="162" spans="35:35">
-      <c r="AI162" t="s">
+    <row r="132" spans="50:50">
+      <c r="AX132" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="163" spans="35:35">
-      <c r="AI163" t="s">
+    <row r="133" spans="50:50">
+      <c r="AX133" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="164" spans="35:35">
-      <c r="AI164" t="s">
+    <row r="134" spans="50:50">
+      <c r="AX134" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="165" spans="35:35">
-      <c r="AI165" t="s">
+    <row r="135" spans="50:50">
+      <c r="AX135" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="166" spans="35:35">
-      <c r="AI166" t="s">
+    <row r="136" spans="50:50">
+      <c r="AX136" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="167" spans="35:35">
-      <c r="AI167" t="s">
+    <row r="137" spans="50:50">
+      <c r="AX137" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="168" spans="35:35">
-      <c r="AI168" t="s">
+    <row r="138" spans="50:50">
+      <c r="AX138" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="169" spans="35:35">
-      <c r="AI169" t="s">
+    <row r="139" spans="50:50">
+      <c r="AX139" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="170" spans="35:35">
-      <c r="AI170" t="s">
+    <row r="140" spans="50:50">
+      <c r="AX140" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="171" spans="35:35">
-      <c r="AI171" t="s">
+    <row r="141" spans="50:50">
+      <c r="AX141" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="172" spans="35:35">
-      <c r="AI172" t="s">
+    <row r="142" spans="50:50">
+      <c r="AX142" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="173" spans="35:35">
-      <c r="AI173" t="s">
+    <row r="143" spans="50:50">
+      <c r="AX143" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="174" spans="35:35">
-      <c r="AI174" t="s">
+    <row r="144" spans="50:50">
+      <c r="AX144" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="175" spans="35:35">
-      <c r="AI175" t="s">
+    <row r="145" spans="50:50">
+      <c r="AX145" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="176" spans="35:35">
-      <c r="AI176" t="s">
+    <row r="146" spans="50:50">
+      <c r="AX146" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="177" spans="35:35">
-      <c r="AI177" t="s">
+    <row r="147" spans="50:50">
+      <c r="AX147" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="178" spans="35:35">
-      <c r="AI178" t="s">
+    <row r="148" spans="50:50">
+      <c r="AX148" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="179" spans="35:35">
-      <c r="AI179" t="s">
+    <row r="149" spans="50:50">
+      <c r="AX149" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="180" spans="35:35">
-      <c r="AI180" t="s">
+    <row r="150" spans="50:50">
+      <c r="AX150" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="181" spans="35:35">
-      <c r="AI181" t="s">
+    <row r="151" spans="50:50">
+      <c r="AX151" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="182" spans="35:35">
-      <c r="AI182" t="s">
+    <row r="152" spans="50:50">
+      <c r="AX152" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="183" spans="35:35">
-      <c r="AI183" t="s">
+    <row r="153" spans="50:50">
+      <c r="AX153" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="184" spans="35:35">
-      <c r="AI184" t="s">
+    <row r="154" spans="50:50">
+      <c r="AX154" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="185" spans="35:35">
-      <c r="AI185" t="s">
+    <row r="155" spans="50:50">
+      <c r="AX155" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="186" spans="35:35">
-      <c r="AI186" t="s">
+    <row r="156" spans="50:50">
+      <c r="AX156" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="187" spans="35:35">
-      <c r="AI187" t="s">
+    <row r="157" spans="50:50">
+      <c r="AX157" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="188" spans="35:35">
-      <c r="AI188" t="s">
+    <row r="158" spans="50:50">
+      <c r="AX158" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="189" spans="35:35">
-      <c r="AI189" t="s">
+    <row r="159" spans="50:50">
+      <c r="AX159" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="190" spans="35:35">
-      <c r="AI190" t="s">
+    <row r="160" spans="50:50">
+      <c r="AX160" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="191" spans="35:35">
-      <c r="AI191" t="s">
+    <row r="161" spans="50:50">
+      <c r="AX161" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="192" spans="35:35">
-      <c r="AI192" t="s">
+    <row r="162" spans="50:50">
+      <c r="AX162" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="193" spans="35:35">
-      <c r="AI193" t="s">
+    <row r="163" spans="50:50">
+      <c r="AX163" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="35:35">
-      <c r="AI194" t="s">
+    <row r="164" spans="50:50">
+      <c r="AX164" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="195" spans="35:35">
-      <c r="AI195" t="s">
+    <row r="165" spans="50:50">
+      <c r="AX165" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="196" spans="35:35">
-      <c r="AI196" t="s">
+    <row r="166" spans="50:50">
+      <c r="AX166" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="197" spans="35:35">
-      <c r="AI197" t="s">
+    <row r="167" spans="50:50">
+      <c r="AX167" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="198" spans="35:35">
-      <c r="AI198" t="s">
+    <row r="168" spans="50:50">
+      <c r="AX168" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="199" spans="35:35">
-      <c r="AI199" t="s">
+    <row r="169" spans="50:50">
+      <c r="AX169" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="200" spans="35:35">
-      <c r="AI200" t="s">
+    <row r="170" spans="50:50">
+      <c r="AX170" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="201" spans="35:35">
-      <c r="AI201" t="s">
+    <row r="171" spans="50:50">
+      <c r="AX171" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="202" spans="35:35">
-      <c r="AI202" t="s">
+    <row r="172" spans="50:50">
+      <c r="AX172" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="203" spans="35:35">
-      <c r="AI203" t="s">
+    <row r="173" spans="50:50">
+      <c r="AX173" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="204" spans="35:35">
-      <c r="AI204" t="s">
+    <row r="174" spans="50:50">
+      <c r="AX174" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="35:35">
-      <c r="AI205" t="s">
+    <row r="175" spans="50:50">
+      <c r="AX175" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="206" spans="35:35">
-      <c r="AI206" t="s">
+    <row r="176" spans="50:50">
+      <c r="AX176" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="207" spans="35:35">
-      <c r="AI207" t="s">
+    <row r="177" spans="50:50">
+      <c r="AX177" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="208" spans="35:35">
-      <c r="AI208" t="s">
+    <row r="178" spans="50:50">
+      <c r="AX178" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="209" spans="35:35">
-      <c r="AI209" t="s">
+    <row r="179" spans="50:50">
+      <c r="AX179" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="210" spans="35:35">
-      <c r="AI210" t="s">
+    <row r="180" spans="50:50">
+      <c r="AX180" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="211" spans="35:35">
-      <c r="AI211" t="s">
+    <row r="181" spans="50:50">
+      <c r="AX181" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="212" spans="35:35">
-      <c r="AI212" t="s">
+    <row r="182" spans="50:50">
+      <c r="AX182" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="213" spans="35:35">
-      <c r="AI213" t="s">
+    <row r="183" spans="50:50">
+      <c r="AX183" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="214" spans="35:35">
-      <c r="AI214" t="s">
+    <row r="184" spans="50:50">
+      <c r="AX184" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="215" spans="35:35">
-      <c r="AI215" t="s">
+    <row r="185" spans="50:50">
+      <c r="AX185" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="216" spans="35:35">
-      <c r="AI216" t="s">
+    <row r="186" spans="50:50">
+      <c r="AX186" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="217" spans="35:35">
-      <c r="AI217" t="s">
+    <row r="187" spans="50:50">
+      <c r="AX187" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="218" spans="35:35">
-      <c r="AI218" t="s">
+    <row r="188" spans="50:50">
+      <c r="AX188" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="219" spans="35:35">
-      <c r="AI219" t="s">
+    <row r="189" spans="50:50">
+      <c r="AX189" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="220" spans="35:35">
-      <c r="AI220" t="s">
+    <row r="190" spans="50:50">
+      <c r="AX190" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="221" spans="35:35">
-      <c r="AI221" t="s">
+    <row r="191" spans="50:50">
+      <c r="AX191" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="222" spans="35:35">
-      <c r="AI222" t="s">
+    <row r="192" spans="50:50">
+      <c r="AX192" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="223" spans="35:35">
-      <c r="AI223" t="s">
+    <row r="193" spans="50:50">
+      <c r="AX193" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="224" spans="35:35">
-      <c r="AI224" t="s">
+    <row r="194" spans="50:50">
+      <c r="AX194" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="225" spans="35:35">
-      <c r="AI225" t="s">
+    <row r="195" spans="50:50">
+      <c r="AX195" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="226" spans="35:35">
-      <c r="AI226" t="s">
+    <row r="196" spans="50:50">
+      <c r="AX196" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="227" spans="35:35">
-      <c r="AI227" t="s">
+    <row r="197" spans="50:50">
+      <c r="AX197" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="228" spans="35:35">
-      <c r="AI228" t="s">
+    <row r="198" spans="50:50">
+      <c r="AX198" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="229" spans="35:35">
-      <c r="AI229" t="s">
+    <row r="199" spans="50:50">
+      <c r="AX199" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="230" spans="35:35">
-      <c r="AI230" t="s">
+    <row r="200" spans="50:50">
+      <c r="AX200" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="231" spans="35:35">
-      <c r="AI231" t="s">
+    <row r="201" spans="50:50">
+      <c r="AX201" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="232" spans="35:35">
-      <c r="AI232" t="s">
+    <row r="202" spans="50:50">
+      <c r="AX202" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="233" spans="35:35">
-      <c r="AI233" t="s">
+    <row r="203" spans="50:50">
+      <c r="AX203" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="234" spans="35:35">
-      <c r="AI234" t="s">
+    <row r="204" spans="50:50">
+      <c r="AX204" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="235" spans="35:35">
-      <c r="AI235" t="s">
+    <row r="205" spans="50:50">
+      <c r="AX205" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="236" spans="35:35">
-      <c r="AI236" t="s">
+    <row r="206" spans="50:50">
+      <c r="AX206" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="237" spans="35:35">
-      <c r="AI237" t="s">
+    <row r="207" spans="50:50">
+      <c r="AX207" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="238" spans="35:35">
-      <c r="AI238" t="s">
+    <row r="208" spans="50:50">
+      <c r="AX208" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="239" spans="35:35">
-      <c r="AI239" t="s">
+    <row r="209" spans="50:50">
+      <c r="AX209" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="240" spans="35:35">
-      <c r="AI240" t="s">
+    <row r="210" spans="50:50">
+      <c r="AX210" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="241" spans="35:35">
-      <c r="AI241" t="s">
+    <row r="211" spans="50:50">
+      <c r="AX211" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="242" spans="35:35">
-      <c r="AI242" t="s">
+    <row r="212" spans="50:50">
+      <c r="AX212" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="243" spans="35:35">
-      <c r="AI243" t="s">
+    <row r="213" spans="50:50">
+      <c r="AX213" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="244" spans="35:35">
-      <c r="AI244" t="s">
+    <row r="214" spans="50:50">
+      <c r="AX214" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="35:35">
-      <c r="AI245" t="s">
+    <row r="215" spans="50:50">
+      <c r="AX215" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="246" spans="35:35">
-      <c r="AI246" t="s">
+    <row r="216" spans="50:50">
+      <c r="AX216" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="247" spans="35:35">
-      <c r="AI247" t="s">
+    <row r="217" spans="50:50">
+      <c r="AX217" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="248" spans="35:35">
-      <c r="AI248" t="s">
+    <row r="218" spans="50:50">
+      <c r="AX218" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="249" spans="35:35">
-      <c r="AI249" t="s">
+    <row r="219" spans="50:50">
+      <c r="AX219" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="250" spans="35:35">
-      <c r="AI250" t="s">
+    <row r="220" spans="50:50">
+      <c r="AX220" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="251" spans="35:35">
-      <c r="AI251" t="s">
+    <row r="221" spans="50:50">
+      <c r="AX221" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="252" spans="35:35">
-      <c r="AI252" t="s">
+    <row r="222" spans="50:50">
+      <c r="AX222" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="253" spans="35:35">
-      <c r="AI253" t="s">
+    <row r="223" spans="50:50">
+      <c r="AX223" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="254" spans="35:35">
-      <c r="AI254" t="s">
+    <row r="224" spans="50:50">
+      <c r="AX224" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="255" spans="35:35">
-      <c r="AI255" t="s">
+    <row r="225" spans="50:50">
+      <c r="AX225" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="256" spans="35:35">
-      <c r="AI256" t="s">
+    <row r="226" spans="50:50">
+      <c r="AX226" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="257" spans="35:35">
-      <c r="AI257" t="s">
+    <row r="227" spans="50:50">
+      <c r="AX227" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="258" spans="35:35">
-      <c r="AI258" t="s">
+    <row r="228" spans="50:50">
+      <c r="AX228" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="259" spans="35:35">
-      <c r="AI259" t="s">
+    <row r="229" spans="50:50">
+      <c r="AX229" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="260" spans="35:35">
-      <c r="AI260" t="s">
+    <row r="230" spans="50:50">
+      <c r="AX230" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="261" spans="35:35">
-      <c r="AI261" t="s">
+    <row r="231" spans="50:50">
+      <c r="AX231" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="262" spans="35:35">
-      <c r="AI262" t="s">
+    <row r="232" spans="50:50">
+      <c r="AX232" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="263" spans="35:35">
-      <c r="AI263" t="s">
+    <row r="233" spans="50:50">
+      <c r="AX233" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="264" spans="35:35">
-      <c r="AI264" t="s">
+    <row r="234" spans="50:50">
+      <c r="AX234" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="265" spans="35:35">
-      <c r="AI265" t="s">
+    <row r="235" spans="50:50">
+      <c r="AX235" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="266" spans="35:35">
-      <c r="AI266" t="s">
+    <row r="236" spans="50:50">
+      <c r="AX236" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="267" spans="35:35">
-      <c r="AI267" t="s">
+    <row r="237" spans="50:50">
+      <c r="AX237" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="268" spans="35:35">
-      <c r="AI268" t="s">
+    <row r="238" spans="50:50">
+      <c r="AX238" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="269" spans="35:35">
-      <c r="AI269" t="s">
+    <row r="239" spans="50:50">
+      <c r="AX239" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="270" spans="35:35">
-      <c r="AI270" t="s">
+    <row r="240" spans="50:50">
+      <c r="AX240" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="271" spans="35:35">
-      <c r="AI271" t="s">
+    <row r="241" spans="50:50">
+      <c r="AX241" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="272" spans="35:35">
-      <c r="AI272" t="s">
+    <row r="242" spans="50:50">
+      <c r="AX242" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="273" spans="35:35">
-      <c r="AI273" t="s">
+    <row r="243" spans="50:50">
+      <c r="AX243" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="274" spans="35:35">
-      <c r="AI274" t="s">
+    <row r="244" spans="50:50">
+      <c r="AX244" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="275" spans="35:35">
-      <c r="AI275" t="s">
+    <row r="245" spans="50:50">
+      <c r="AX245" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="276" spans="35:35">
-      <c r="AI276" t="s">
+    <row r="246" spans="50:50">
+      <c r="AX246" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="277" spans="35:35">
-      <c r="AI277" t="s">
+    <row r="247" spans="50:50">
+      <c r="AX247" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="278" spans="35:35">
-      <c r="AI278" t="s">
+    <row r="248" spans="50:50">
+      <c r="AX248" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="279" spans="35:35">
-      <c r="AI279" t="s">
+    <row r="249" spans="50:50">
+      <c r="AX249" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="280" spans="35:35">
-      <c r="AI280" t="s">
+    <row r="250" spans="50:50">
+      <c r="AX250" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="281" spans="35:35">
-      <c r="AI281" t="s">
+    <row r="251" spans="50:50">
+      <c r="AX251" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="282" spans="35:35">
-      <c r="AI282" t="s">
+    <row r="252" spans="50:50">
+      <c r="AX252" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="283" spans="35:35">
-      <c r="AI283" t="s">
+    <row r="253" spans="50:50">
+      <c r="AX253" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="284" spans="35:35">
-      <c r="AI284" t="s">
+    <row r="254" spans="50:50">
+      <c r="AX254" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="285" spans="35:35">
-      <c r="AI285" t="s">
+    <row r="255" spans="50:50">
+      <c r="AX255" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="286" spans="35:35">
-      <c r="AI286" t="s">
+    <row r="256" spans="50:50">
+      <c r="AX256" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="287" spans="35:35">
-      <c r="AI287" t="s">
+    <row r="257" spans="50:50">
+      <c r="AX257" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="288" spans="35:35">
-      <c r="AI288" t="s">
+    <row r="258" spans="50:50">
+      <c r="AX258" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="259" spans="50:50">
+      <c r="AX259" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="260" spans="50:50">
+      <c r="AX260" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="261" spans="50:50">
+      <c r="AX261" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="262" spans="50:50">
+      <c r="AX262" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="263" spans="50:50">
+      <c r="AX263" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="264" spans="50:50">
+      <c r="AX264" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="265" spans="50:50">
+      <c r="AX265" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="266" spans="50:50">
+      <c r="AX266" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="267" spans="50:50">
+      <c r="AX267" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="268" spans="50:50">
+      <c r="AX268" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="269" spans="50:50">
+      <c r="AX269" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="270" spans="50:50">
+      <c r="AX270" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="271" spans="50:50">
+      <c r="AX271" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="272" spans="50:50">
+      <c r="AX272" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="273" spans="50:50">
+      <c r="AX273" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="274" spans="50:50">
+      <c r="AX274" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="275" spans="50:50">
+      <c r="AX275" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="276" spans="50:50">
+      <c r="AX276" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="277" spans="50:50">
+      <c r="AX277" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="278" spans="50:50">
+      <c r="AX278" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="279" spans="50:50">
+      <c r="AX279" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="280" spans="50:50">
+      <c r="AX280" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="281" spans="50:50">
+      <c r="AX281" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="282" spans="50:50">
+      <c r="AX282" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="283" spans="50:50">
+      <c r="AX283" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="284" spans="50:50">
+      <c r="AX284" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="285" spans="50:50">
+      <c r="AX285" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="286" spans="50:50">
+      <c r="AX286" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="287" spans="50:50">
+      <c r="AX287" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="288" spans="50:50">
+      <c r="AX288" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="289" spans="50:50">
+      <c r="AX289" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$289</definedName>
     <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="877">
   <si>
     <t>alias</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3206,7 +3209,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3250,7 +3253,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3280,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3989,6 +3992,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4013,27 +4021,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4056,122 +4064,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4198,678 +4206,678 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:113" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -4919,1756 +4927,1756 @@
   <sheetData>
     <row r="1" spans="5:81">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AX1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BG1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BH1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BO1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CC1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="5:81">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AX2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BG2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BH2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BO2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CC2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="5:81">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AX3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BG3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BH3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BO3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CC3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="5:81">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AX4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BG4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BH4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BO4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CC4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="5:81">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AX5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BG5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BH5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BO5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CC5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="5:81">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AX6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BG6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BH6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC6" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="5:81">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AX7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="CC7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="5:81">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AX8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="CC8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="5:81">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AX9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="CC9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="5:81">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AX10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="5:81">
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AX11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="5:81">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AX12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="5:81">
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AX13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="5:81">
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AX14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="5:81">
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AX15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="5:81">
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AX16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="5:50">
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AX17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="5:50">
       <c r="E18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AX18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="5:50">
       <c r="E19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AX19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="5:50">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="5:50">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P21" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AX21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="5:50">
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AX22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="5:50">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AX23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="5:50">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AX24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="5:50">
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P25" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AX25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="5:50">
       <c r="E26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AX26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="5:50">
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AX27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="5:50">
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AX28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="5:50">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AX29" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="5:50">
       <c r="E30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AX30" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="5:50">
       <c r="P31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AX31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="5:50">
       <c r="P32" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AX32" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="50:50">
       <c r="AX33" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="50:50">
       <c r="AX34" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="50:50">
       <c r="AX35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="50:50">
       <c r="AX36" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="50:50">
       <c r="AX37" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="50:50">
       <c r="AX38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="50:50">
       <c r="AX39" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="50:50">
       <c r="AX40" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="50:50">
       <c r="AX41" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="50:50">
       <c r="AX42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="50:50">
       <c r="AX43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="50:50">
       <c r="AX44" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="50:50">
       <c r="AX45" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="50:50">
       <c r="AX46" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="50:50">
       <c r="AX47" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="50:50">
       <c r="AX48" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="50:50">
       <c r="AX49" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="50:50">
       <c r="AX50" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="50:50">
       <c r="AX51" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="50:50">
       <c r="AX52" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="50:50">
       <c r="AX53" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="50:50">
       <c r="AX54" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="50:50">
       <c r="AX55" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="50:50">
       <c r="AX56" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="50:50">
       <c r="AX57" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="50:50">
       <c r="AX58" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="50:50">
       <c r="AX59" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="50:50">
       <c r="AX60" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="50:50">
       <c r="AX61" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="50:50">
       <c r="AX62" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="50:50">
       <c r="AX63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="50:50">
       <c r="AX64" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="50:50">
       <c r="AX65" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="50:50">
       <c r="AX66" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="50:50">
       <c r="AX67" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="50:50">
       <c r="AX68" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="50:50">
       <c r="AX69" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="50:50">
       <c r="AX70" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="50:50">
       <c r="AX71" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="50:50">
       <c r="AX72" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="50:50">
       <c r="AX73" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="50:50">
       <c r="AX74" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="50:50">
       <c r="AX75" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="50:50">
       <c r="AX76" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="50:50">
       <c r="AX77" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="50:50">
       <c r="AX78" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="50:50">
       <c r="AX79" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="50:50">
       <c r="AX80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="50:50">
       <c r="AX81" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="50:50">
       <c r="AX82" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="50:50">
       <c r="AX83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="50:50">
       <c r="AX84" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85" spans="50:50">
       <c r="AX85" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="50:50">
       <c r="AX86" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="50:50">
       <c r="AX87" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="50:50">
       <c r="AX88" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="50:50">
       <c r="AX89" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="50:50">
       <c r="AX90" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="50:50">
       <c r="AX91" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="50:50">
       <c r="AX92" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="50:50">
       <c r="AX93" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="94" spans="50:50">
       <c r="AX94" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95" spans="50:50">
       <c r="AX95" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="50:50">
       <c r="AX96" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="50:50">
       <c r="AX97" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="50:50">
       <c r="AX98" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="50:50">
       <c r="AX99" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="50:50">
       <c r="AX100" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101" spans="50:50">
       <c r="AX101" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="50:50">
       <c r="AX102" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" spans="50:50">
       <c r="AX103" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="50:50">
       <c r="AX104" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="105" spans="50:50">
       <c r="AX105" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106" spans="50:50">
       <c r="AX106" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" spans="50:50">
       <c r="AX107" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="108" spans="50:50">
       <c r="AX108" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" spans="50:50">
       <c r="AX109" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="110" spans="50:50">
       <c r="AX110" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="50:50">
       <c r="AX111" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="50:50">
       <c r="AX112" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="50:50">
       <c r="AX113" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="114" spans="50:50">
       <c r="AX114" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="115" spans="50:50">
       <c r="AX115" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="50:50">
       <c r="AX116" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="117" spans="50:50">
       <c r="AX117" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" spans="50:50">
       <c r="AX118" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="119" spans="50:50">
       <c r="AX119" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="120" spans="50:50">
       <c r="AX120" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="50:50">
       <c r="AX121" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="122" spans="50:50">
       <c r="AX122" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="123" spans="50:50">
       <c r="AX123" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="124" spans="50:50">
       <c r="AX124" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="125" spans="50:50">
       <c r="AX125" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="126" spans="50:50">
       <c r="AX126" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="127" spans="50:50">
       <c r="AX127" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="128" spans="50:50">
       <c r="AX128" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="129" spans="50:50">
       <c r="AX129" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="50:50">
       <c r="AX130" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="131" spans="50:50">
       <c r="AX131" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="50:50">
       <c r="AX132" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="50:50">
       <c r="AX133" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="50:50">
       <c r="AX134" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="50:50">
       <c r="AX135" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="136" spans="50:50">
       <c r="AX136" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="137" spans="50:50">
       <c r="AX137" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="50:50">
       <c r="AX138" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="50:50">
       <c r="AX139" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="140" spans="50:50">
       <c r="AX140" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="50:50">
       <c r="AX141" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="142" spans="50:50">
       <c r="AX142" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="143" spans="50:50">
       <c r="AX143" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="50:50">
       <c r="AX144" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="145" spans="50:50">
       <c r="AX145" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="146" spans="50:50">
       <c r="AX146" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="50:50">
       <c r="AX147" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="148" spans="50:50">
       <c r="AX148" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="50:50">
       <c r="AX149" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150" spans="50:50">
       <c r="AX150" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="151" spans="50:50">
       <c r="AX151" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="152" spans="50:50">
       <c r="AX152" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="153" spans="50:50">
       <c r="AX153" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="154" spans="50:50">
       <c r="AX154" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="155" spans="50:50">
       <c r="AX155" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156" spans="50:50">
       <c r="AX156" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="157" spans="50:50">
       <c r="AX157" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="158" spans="50:50">
       <c r="AX158" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="159" spans="50:50">
       <c r="AX159" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="160" spans="50:50">
       <c r="AX160" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="161" spans="50:50">
       <c r="AX161" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="162" spans="50:50">
       <c r="AX162" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="163" spans="50:50">
       <c r="AX163" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="164" spans="50:50">
       <c r="AX164" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="165" spans="50:50">
       <c r="AX165" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="166" spans="50:50">
       <c r="AX166" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="167" spans="50:50">
       <c r="AX167" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="168" spans="50:50">
       <c r="AX168" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="169" spans="50:50">
       <c r="AX169" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="170" spans="50:50">
       <c r="AX170" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="171" spans="50:50">
       <c r="AX171" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="172" spans="50:50">
       <c r="AX172" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="173" spans="50:50">
       <c r="AX173" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="174" spans="50:50">
       <c r="AX174" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="175" spans="50:50">
       <c r="AX175" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" spans="50:50">
       <c r="AX176" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="177" spans="50:50">
       <c r="AX177" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="178" spans="50:50">
       <c r="AX178" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="179" spans="50:50">
       <c r="AX179" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="180" spans="50:50">
       <c r="AX180" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="181" spans="50:50">
       <c r="AX181" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="182" spans="50:50">
       <c r="AX182" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="183" spans="50:50">
       <c r="AX183" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="184" spans="50:50">
       <c r="AX184" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="185" spans="50:50">
       <c r="AX185" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="186" spans="50:50">
       <c r="AX186" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="187" spans="50:50">
       <c r="AX187" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="188" spans="50:50">
       <c r="AX188" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="189" spans="50:50">
       <c r="AX189" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="190" spans="50:50">
       <c r="AX190" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="191" spans="50:50">
       <c r="AX191" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="192" spans="50:50">
       <c r="AX192" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="193" spans="50:50">
       <c r="AX193" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="194" spans="50:50">
       <c r="AX194" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="195" spans="50:50">
       <c r="AX195" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="196" spans="50:50">
       <c r="AX196" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="197" spans="50:50">
       <c r="AX197" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="198" spans="50:50">
       <c r="AX198" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="199" spans="50:50">
       <c r="AX199" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="200" spans="50:50">
       <c r="AX200" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="201" spans="50:50">
       <c r="AX201" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="202" spans="50:50">
       <c r="AX202" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="203" spans="50:50">
       <c r="AX203" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="204" spans="50:50">
       <c r="AX204" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="205" spans="50:50">
       <c r="AX205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="206" spans="50:50">
       <c r="AX206" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="207" spans="50:50">
       <c r="AX207" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="208" spans="50:50">
       <c r="AX208" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="209" spans="50:50">
       <c r="AX209" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="210" spans="50:50">
       <c r="AX210" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="211" spans="50:50">
       <c r="AX211" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="212" spans="50:50">
       <c r="AX212" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="50:50">
       <c r="AX213" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="214" spans="50:50">
       <c r="AX214" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="215" spans="50:50">
       <c r="AX215" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="216" spans="50:50">
       <c r="AX216" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="217" spans="50:50">
       <c r="AX217" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="218" spans="50:50">
       <c r="AX218" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="219" spans="50:50">
       <c r="AX219" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="220" spans="50:50">
       <c r="AX220" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="221" spans="50:50">
       <c r="AX221" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="222" spans="50:50">
       <c r="AX222" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="223" spans="50:50">
       <c r="AX223" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="224" spans="50:50">
       <c r="AX224" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="225" spans="50:50">
       <c r="AX225" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="226" spans="50:50">
       <c r="AX226" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="227" spans="50:50">
       <c r="AX227" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="228" spans="50:50">
       <c r="AX228" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="229" spans="50:50">
       <c r="AX229" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="230" spans="50:50">
       <c r="AX230" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="231" spans="50:50">
       <c r="AX231" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="232" spans="50:50">
       <c r="AX232" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="233" spans="50:50">
       <c r="AX233" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="234" spans="50:50">
       <c r="AX234" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="235" spans="50:50">
       <c r="AX235" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="236" spans="50:50">
       <c r="AX236" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="237" spans="50:50">
       <c r="AX237" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="238" spans="50:50">
       <c r="AX238" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="239" spans="50:50">
       <c r="AX239" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="240" spans="50:50">
       <c r="AX240" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="241" spans="50:50">
       <c r="AX241" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="242" spans="50:50">
       <c r="AX242" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="243" spans="50:50">
       <c r="AX243" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="244" spans="50:50">
       <c r="AX244" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="245" spans="50:50">
       <c r="AX245" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="246" spans="50:50">
       <c r="AX246" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="247" spans="50:50">
       <c r="AX247" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="248" spans="50:50">
       <c r="AX248" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="249" spans="50:50">
       <c r="AX249" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="250" spans="50:50">
       <c r="AX250" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="251" spans="50:50">
       <c r="AX251" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="252" spans="50:50">
       <c r="AX252" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="253" spans="50:50">
       <c r="AX253" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="254" spans="50:50">
       <c r="AX254" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="255" spans="50:50">
       <c r="AX255" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="256" spans="50:50">
       <c r="AX256" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="257" spans="50:50">
       <c r="AX257" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="258" spans="50:50">
       <c r="AX258" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="259" spans="50:50">
       <c r="AX259" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="260" spans="50:50">
       <c r="AX260" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="261" spans="50:50">
       <c r="AX261" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="262" spans="50:50">
       <c r="AX262" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="263" spans="50:50">
       <c r="AX263" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="264" spans="50:50">
       <c r="AX264" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="265" spans="50:50">
       <c r="AX265" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="266" spans="50:50">
       <c r="AX266" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="267" spans="50:50">
       <c r="AX267" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="268" spans="50:50">
       <c r="AX268" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="269" spans="50:50">
       <c r="AX269" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" spans="50:50">
       <c r="AX270" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="271" spans="50:50">
       <c r="AX271" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="272" spans="50:50">
       <c r="AX272" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="273" spans="50:50">
       <c r="AX273" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="274" spans="50:50">
       <c r="AX274" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="275" spans="50:50">
       <c r="AX275" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="276" spans="50:50">
       <c r="AX276" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="277" spans="50:50">
       <c r="AX277" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="278" spans="50:50">
       <c r="AX278" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="279" spans="50:50">
       <c r="AX279" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="280" spans="50:50">
       <c r="AX280" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="281" spans="50:50">
       <c r="AX281" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="282" spans="50:50">
       <c r="AX282" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="283" spans="50:50">
       <c r="AX283" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="284" spans="50:50">
       <c r="AX284" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="285" spans="50:50">
       <c r="AX285" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="286" spans="50:50">
       <c r="AX286" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="287" spans="50:50">
       <c r="AX287" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="288" spans="50:50">
       <c r="AX288" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="289" spans="50:50">
       <c r="AX289" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$289</definedName>
     <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="878">
   <si>
     <t>alias</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3209,7 +3212,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3253,7 +3256,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3997,6 +4000,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4021,27 +4029,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4064,122 +4072,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4206,678 +4214,678 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:113" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -4927,1756 +4935,1756 @@
   <sheetData>
     <row r="1" spans="5:81">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AX1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BG1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BH1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BO1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CC1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="5:81">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AX2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BG2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BH2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BO2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CC2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="5:81">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AC3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AX3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BG3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BH3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BO3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CC3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="5:81">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AX4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BG4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BH4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BO4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CC4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="5:81">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AX5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BG5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BH5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BO5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CC5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="5:81">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AX6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BG6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BH6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC6" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="5:81">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AX7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="CC7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="5:81">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AX8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="CC8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="5:81">
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AX9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="CC9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="5:81">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AX10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="5:81">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AX11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="5:81">
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AX12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="5:81">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AX13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="5:81">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AX14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="5:81">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AX15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="5:81">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AX16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="5:50">
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AX17" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="5:50">
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AX18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="5:50">
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX19" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="5:50">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AX20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="5:50">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AX21" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="5:50">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AX22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="5:50">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AX23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="5:50">
       <c r="E24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AX24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="5:50">
       <c r="E25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AX25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="5:50">
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P26" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AX26" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="5:50">
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AX27" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="5:50">
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AX28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="5:50">
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AX29" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="5:50">
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AX30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="5:50">
       <c r="P31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AX31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="5:50">
       <c r="P32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AX32" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="50:50">
       <c r="AX33" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="50:50">
       <c r="AX34" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="50:50">
       <c r="AX35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="50:50">
       <c r="AX36" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="50:50">
       <c r="AX37" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="50:50">
       <c r="AX38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="50:50">
       <c r="AX39" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="50:50">
       <c r="AX40" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="50:50">
       <c r="AX41" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="50:50">
       <c r="AX42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="50:50">
       <c r="AX43" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="50:50">
       <c r="AX44" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="50:50">
       <c r="AX45" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="50:50">
       <c r="AX46" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="50:50">
       <c r="AX47" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="50:50">
       <c r="AX48" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="50:50">
       <c r="AX49" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="50:50">
       <c r="AX50" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="50:50">
       <c r="AX51" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="50:50">
       <c r="AX52" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="50:50">
       <c r="AX53" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="50:50">
       <c r="AX54" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="50:50">
       <c r="AX55" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="50:50">
       <c r="AX56" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="50:50">
       <c r="AX57" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="50:50">
       <c r="AX58" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="50:50">
       <c r="AX59" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="50:50">
       <c r="AX60" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="50:50">
       <c r="AX61" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="50:50">
       <c r="AX62" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="50:50">
       <c r="AX63" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="50:50">
       <c r="AX64" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="50:50">
       <c r="AX65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="50:50">
       <c r="AX66" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="50:50">
       <c r="AX67" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="50:50">
       <c r="AX68" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="50:50">
       <c r="AX69" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="50:50">
       <c r="AX70" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="50:50">
       <c r="AX71" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="50:50">
       <c r="AX72" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="50:50">
       <c r="AX73" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="50:50">
       <c r="AX74" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="50:50">
       <c r="AX75" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="50:50">
       <c r="AX76" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77" spans="50:50">
       <c r="AX77" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="50:50">
       <c r="AX78" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="50:50">
       <c r="AX79" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="50:50">
       <c r="AX80" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="50:50">
       <c r="AX81" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="50:50">
       <c r="AX82" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="50:50">
       <c r="AX83" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="50:50">
       <c r="AX84" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="50:50">
       <c r="AX85" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="50:50">
       <c r="AX86" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="50:50">
       <c r="AX87" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="50:50">
       <c r="AX88" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="50:50">
       <c r="AX89" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="90" spans="50:50">
       <c r="AX90" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="50:50">
       <c r="AX91" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="50:50">
       <c r="AX92" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="50:50">
       <c r="AX93" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="50:50">
       <c r="AX94" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="50:50">
       <c r="AX95" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="50:50">
       <c r="AX96" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="50:50">
       <c r="AX97" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="50:50">
       <c r="AX98" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="50:50">
       <c r="AX99" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="50:50">
       <c r="AX100" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="50:50">
       <c r="AX101" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="50:50">
       <c r="AX102" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="50:50">
       <c r="AX103" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="50:50">
       <c r="AX104" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="50:50">
       <c r="AX105" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="50:50">
       <c r="AX106" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="50:50">
       <c r="AX107" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="50:50">
       <c r="AX108" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="50:50">
       <c r="AX109" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="50:50">
       <c r="AX110" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="111" spans="50:50">
       <c r="AX111" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="50:50">
       <c r="AX112" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113" spans="50:50">
       <c r="AX113" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="50:50">
       <c r="AX114" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="115" spans="50:50">
       <c r="AX115" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="116" spans="50:50">
       <c r="AX116" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="50:50">
       <c r="AX117" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="118" spans="50:50">
       <c r="AX118" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="119" spans="50:50">
       <c r="AX119" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="50:50">
       <c r="AX120" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="121" spans="50:50">
       <c r="AX121" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="122" spans="50:50">
       <c r="AX122" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="123" spans="50:50">
       <c r="AX123" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" spans="50:50">
       <c r="AX124" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125" spans="50:50">
       <c r="AX125" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="50:50">
       <c r="AX126" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="127" spans="50:50">
       <c r="AX127" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="50:50">
       <c r="AX128" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="50:50">
       <c r="AX129" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="130" spans="50:50">
       <c r="AX130" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="50:50">
       <c r="AX131" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="132" spans="50:50">
       <c r="AX132" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="133" spans="50:50">
       <c r="AX133" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="50:50">
       <c r="AX134" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="135" spans="50:50">
       <c r="AX135" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" spans="50:50">
       <c r="AX136" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="137" spans="50:50">
       <c r="AX137" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="50:50">
       <c r="AX138" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" spans="50:50">
       <c r="AX139" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="50:50">
       <c r="AX140" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="141" spans="50:50">
       <c r="AX141" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="50:50">
       <c r="AX142" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="50:50">
       <c r="AX143" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="50:50">
       <c r="AX144" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145" spans="50:50">
       <c r="AX145" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="50:50">
       <c r="AX146" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="147" spans="50:50">
       <c r="AX147" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="148" spans="50:50">
       <c r="AX148" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="149" spans="50:50">
       <c r="AX149" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="150" spans="50:50">
       <c r="AX150" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="151" spans="50:50">
       <c r="AX151" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="152" spans="50:50">
       <c r="AX152" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="153" spans="50:50">
       <c r="AX153" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="154" spans="50:50">
       <c r="AX154" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="155" spans="50:50">
       <c r="AX155" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="156" spans="50:50">
       <c r="AX156" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="157" spans="50:50">
       <c r="AX157" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="158" spans="50:50">
       <c r="AX158" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="159" spans="50:50">
       <c r="AX159" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="160" spans="50:50">
       <c r="AX160" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="161" spans="50:50">
       <c r="AX161" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="162" spans="50:50">
       <c r="AX162" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="163" spans="50:50">
       <c r="AX163" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" spans="50:50">
       <c r="AX164" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="165" spans="50:50">
       <c r="AX165" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="166" spans="50:50">
       <c r="AX166" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="167" spans="50:50">
       <c r="AX167" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="168" spans="50:50">
       <c r="AX168" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="169" spans="50:50">
       <c r="AX169" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="170" spans="50:50">
       <c r="AX170" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="50:50">
       <c r="AX171" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="172" spans="50:50">
       <c r="AX172" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="173" spans="50:50">
       <c r="AX173" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="174" spans="50:50">
       <c r="AX174" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="50:50">
       <c r="AX175" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="50:50">
       <c r="AX176" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="50:50">
       <c r="AX177" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="178" spans="50:50">
       <c r="AX178" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="179" spans="50:50">
       <c r="AX179" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="50:50">
       <c r="AX180" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="181" spans="50:50">
       <c r="AX181" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="50:50">
       <c r="AX182" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="183" spans="50:50">
       <c r="AX183" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="184" spans="50:50">
       <c r="AX184" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="185" spans="50:50">
       <c r="AX185" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="186" spans="50:50">
       <c r="AX186" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="187" spans="50:50">
       <c r="AX187" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="188" spans="50:50">
       <c r="AX188" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="189" spans="50:50">
       <c r="AX189" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="190" spans="50:50">
       <c r="AX190" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="191" spans="50:50">
       <c r="AX191" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="192" spans="50:50">
       <c r="AX192" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="193" spans="50:50">
       <c r="AX193" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="194" spans="50:50">
       <c r="AX194" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="195" spans="50:50">
       <c r="AX195" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="196" spans="50:50">
       <c r="AX196" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="197" spans="50:50">
       <c r="AX197" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="198" spans="50:50">
       <c r="AX198" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="199" spans="50:50">
       <c r="AX199" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="200" spans="50:50">
       <c r="AX200" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="201" spans="50:50">
       <c r="AX201" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="202" spans="50:50">
       <c r="AX202" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="203" spans="50:50">
       <c r="AX203" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="204" spans="50:50">
       <c r="AX204" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="205" spans="50:50">
       <c r="AX205" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="206" spans="50:50">
       <c r="AX206" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="207" spans="50:50">
       <c r="AX207" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="208" spans="50:50">
       <c r="AX208" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="209" spans="50:50">
       <c r="AX209" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="210" spans="50:50">
       <c r="AX210" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="211" spans="50:50">
       <c r="AX211" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="212" spans="50:50">
       <c r="AX212" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="213" spans="50:50">
       <c r="AX213" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="214" spans="50:50">
       <c r="AX214" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="215" spans="50:50">
       <c r="AX215" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="216" spans="50:50">
       <c r="AX216" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="217" spans="50:50">
       <c r="AX217" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="218" spans="50:50">
       <c r="AX218" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="219" spans="50:50">
       <c r="AX219" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="220" spans="50:50">
       <c r="AX220" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="221" spans="50:50">
       <c r="AX221" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="222" spans="50:50">
       <c r="AX222" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="223" spans="50:50">
       <c r="AX223" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="224" spans="50:50">
       <c r="AX224" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="225" spans="50:50">
       <c r="AX225" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="226" spans="50:50">
       <c r="AX226" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="227" spans="50:50">
       <c r="AX227" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="228" spans="50:50">
       <c r="AX228" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="229" spans="50:50">
       <c r="AX229" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="230" spans="50:50">
       <c r="AX230" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="231" spans="50:50">
       <c r="AX231" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="232" spans="50:50">
       <c r="AX232" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="233" spans="50:50">
       <c r="AX233" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="234" spans="50:50">
       <c r="AX234" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="235" spans="50:50">
       <c r="AX235" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="236" spans="50:50">
       <c r="AX236" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="237" spans="50:50">
       <c r="AX237" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="238" spans="50:50">
       <c r="AX238" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="239" spans="50:50">
       <c r="AX239" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="240" spans="50:50">
       <c r="AX240" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="241" spans="50:50">
       <c r="AX241" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="242" spans="50:50">
       <c r="AX242" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="243" spans="50:50">
       <c r="AX243" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="244" spans="50:50">
       <c r="AX244" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="245" spans="50:50">
       <c r="AX245" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="246" spans="50:50">
       <c r="AX246" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="247" spans="50:50">
       <c r="AX247" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="248" spans="50:50">
       <c r="AX248" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="249" spans="50:50">
       <c r="AX249" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="250" spans="50:50">
       <c r="AX250" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="251" spans="50:50">
       <c r="AX251" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="252" spans="50:50">
       <c r="AX252" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="253" spans="50:50">
       <c r="AX253" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="254" spans="50:50">
       <c r="AX254" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="255" spans="50:50">
       <c r="AX255" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="256" spans="50:50">
       <c r="AX256" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="257" spans="50:50">
       <c r="AX257" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="258" spans="50:50">
       <c r="AX258" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="259" spans="50:50">
       <c r="AX259" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="260" spans="50:50">
       <c r="AX260" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="261" spans="50:50">
       <c r="AX261" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="262" spans="50:50">
       <c r="AX262" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="263" spans="50:50">
       <c r="AX263" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="264" spans="50:50">
       <c r="AX264" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="265" spans="50:50">
       <c r="AX265" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="266" spans="50:50">
       <c r="AX266" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="267" spans="50:50">
       <c r="AX267" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="268" spans="50:50">
       <c r="AX268" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="269" spans="50:50">
       <c r="AX269" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="270" spans="50:50">
       <c r="AX270" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="271" spans="50:50">
       <c r="AX271" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="272" spans="50:50">
       <c r="AX272" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="273" spans="50:50">
       <c r="AX273" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="274" spans="50:50">
       <c r="AX274" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="275" spans="50:50">
       <c r="AX275" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="276" spans="50:50">
       <c r="AX276" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="277" spans="50:50">
       <c r="AX277" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="278" spans="50:50">
       <c r="AX278" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="279" spans="50:50">
       <c r="AX279" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="280" spans="50:50">
       <c r="AX280" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="281" spans="50:50">
       <c r="AX281" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="282" spans="50:50">
       <c r="AX282" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="283" spans="50:50">
       <c r="AX283" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="284" spans="50:50">
       <c r="AX284" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="285" spans="50:50">
       <c r="AX285" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="286" spans="50:50">
       <c r="AX286" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="287" spans="50:50">
       <c r="AX287" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="288" spans="50:50">
       <c r="AX288" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="289" spans="50:50">
       <c r="AX289" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$289</definedName>
     <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="879">
   <si>
     <t>alias</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3212,7 +3215,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3256,7 +3259,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3283,7 +3286,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4005,6 +4008,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4029,27 +4037,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4072,122 +4080,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4214,678 +4222,678 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:113" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -4935,1756 +4943,1756 @@
   <sheetData>
     <row r="1" spans="5:81">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AX1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BG1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BH1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BO1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CC1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="5:81">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AC2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AX2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BG2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BH2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BO2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CC2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="5:81">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AX3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BG3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BH3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BO3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CC3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="5:81">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AX4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BG4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BH4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BO4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CC4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="5:81">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AX5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BG5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BH5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BO5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CC5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" spans="5:81">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AX6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BG6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BH6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC6" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="5:81">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AX7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="CC7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8" spans="5:81">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AX8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="CC8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="5:81">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AX9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CC9" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="5:81">
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AX10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="5:81">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AX11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="5:81">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AX12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="5:81">
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AX13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="5:81">
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AX14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="5:81">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AX15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="5:81">
       <c r="E16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AX16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="5:50">
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AX17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="5:50">
       <c r="E18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="5:50">
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AX19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="5:50">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AX20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="5:50">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AX21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="5:50">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AX22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="5:50">
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AX23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="5:50">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AX24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="5:50">
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AX25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="5:50">
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AX26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="5:50">
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AX27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="5:50">
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AX28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="5:50">
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P29" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AX29" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="5:50">
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AX30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="5:50">
       <c r="P31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AX31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="5:50">
       <c r="P32" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AX32" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="50:50">
       <c r="AX33" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="50:50">
       <c r="AX34" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="50:50">
       <c r="AX35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="50:50">
       <c r="AX36" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="50:50">
       <c r="AX37" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="50:50">
       <c r="AX38" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="50:50">
       <c r="AX39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="50:50">
       <c r="AX40" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="50:50">
       <c r="AX41" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="50:50">
       <c r="AX42" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="50:50">
       <c r="AX43" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="50:50">
       <c r="AX44" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="50:50">
       <c r="AX45" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="50:50">
       <c r="AX46" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="50:50">
       <c r="AX47" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="50:50">
       <c r="AX48" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="50:50">
       <c r="AX49" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="50:50">
       <c r="AX50" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="50:50">
       <c r="AX51" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="50:50">
       <c r="AX52" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="50:50">
       <c r="AX53" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="50:50">
       <c r="AX54" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="50:50">
       <c r="AX55" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="50:50">
       <c r="AX56" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="50:50">
       <c r="AX57" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58" spans="50:50">
       <c r="AX58" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="50:50">
       <c r="AX59" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="50:50">
       <c r="AX60" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="50:50">
       <c r="AX61" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="50:50">
       <c r="AX62" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="50:50">
       <c r="AX63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="50:50">
       <c r="AX64" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="50:50">
       <c r="AX65" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="50:50">
       <c r="AX66" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="50:50">
       <c r="AX67" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="50:50">
       <c r="AX68" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="50:50">
       <c r="AX69" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="50:50">
       <c r="AX70" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="50:50">
       <c r="AX71" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="50:50">
       <c r="AX72" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="50:50">
       <c r="AX73" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="50:50">
       <c r="AX74" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" spans="50:50">
       <c r="AX75" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="50:50">
       <c r="AX76" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="50:50">
       <c r="AX77" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="50:50">
       <c r="AX78" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="50:50">
       <c r="AX79" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="50:50">
       <c r="AX80" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="50:50">
       <c r="AX81" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="50:50">
       <c r="AX82" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="50:50">
       <c r="AX83" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="50:50">
       <c r="AX84" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="50:50">
       <c r="AX85" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="50:50">
       <c r="AX86" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="50:50">
       <c r="AX87" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="50:50">
       <c r="AX88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="50:50">
       <c r="AX89" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="50:50">
       <c r="AX90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="50:50">
       <c r="AX91" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="50:50">
       <c r="AX92" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="50:50">
       <c r="AX93" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="94" spans="50:50">
       <c r="AX94" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="95" spans="50:50">
       <c r="AX95" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="50:50">
       <c r="AX96" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="50:50">
       <c r="AX97" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="98" spans="50:50">
       <c r="AX98" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="99" spans="50:50">
       <c r="AX99" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="100" spans="50:50">
       <c r="AX100" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="101" spans="50:50">
       <c r="AX101" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="50:50">
       <c r="AX102" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="103" spans="50:50">
       <c r="AX103" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="104" spans="50:50">
       <c r="AX104" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="50:50">
       <c r="AX105" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" spans="50:50">
       <c r="AX106" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="107" spans="50:50">
       <c r="AX107" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" spans="50:50">
       <c r="AX108" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" spans="50:50">
       <c r="AX109" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="110" spans="50:50">
       <c r="AX110" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="50:50">
       <c r="AX111" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="112" spans="50:50">
       <c r="AX112" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="50:50">
       <c r="AX113" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="114" spans="50:50">
       <c r="AX114" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="50:50">
       <c r="AX115" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" spans="50:50">
       <c r="AX116" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="117" spans="50:50">
       <c r="AX117" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="50:50">
       <c r="AX118" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="50:50">
       <c r="AX119" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="120" spans="50:50">
       <c r="AX120" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="121" spans="50:50">
       <c r="AX121" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="122" spans="50:50">
       <c r="AX122" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="123" spans="50:50">
       <c r="AX123" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="124" spans="50:50">
       <c r="AX124" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="125" spans="50:50">
       <c r="AX125" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" spans="50:50">
       <c r="AX126" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="50:50">
       <c r="AX127" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="128" spans="50:50">
       <c r="AX128" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="129" spans="50:50">
       <c r="AX129" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="50:50">
       <c r="AX130" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131" spans="50:50">
       <c r="AX131" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="132" spans="50:50">
       <c r="AX132" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="50:50">
       <c r="AX133" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="50:50">
       <c r="AX134" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="135" spans="50:50">
       <c r="AX135" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="50:50">
       <c r="AX136" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="50:50">
       <c r="AX137" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="138" spans="50:50">
       <c r="AX138" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="50:50">
       <c r="AX139" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" spans="50:50">
       <c r="AX140" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="141" spans="50:50">
       <c r="AX141" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="50:50">
       <c r="AX142" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="143" spans="50:50">
       <c r="AX143" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="144" spans="50:50">
       <c r="AX144" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" spans="50:50">
       <c r="AX145" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="146" spans="50:50">
       <c r="AX146" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="50:50">
       <c r="AX147" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="148" spans="50:50">
       <c r="AX148" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="149" spans="50:50">
       <c r="AX149" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="150" spans="50:50">
       <c r="AX150" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="151" spans="50:50">
       <c r="AX151" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="152" spans="50:50">
       <c r="AX152" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="153" spans="50:50">
       <c r="AX153" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="50:50">
       <c r="AX154" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="155" spans="50:50">
       <c r="AX155" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="156" spans="50:50">
       <c r="AX156" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="157" spans="50:50">
       <c r="AX157" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="158" spans="50:50">
       <c r="AX158" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="159" spans="50:50">
       <c r="AX159" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="160" spans="50:50">
       <c r="AX160" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="161" spans="50:50">
       <c r="AX161" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="162" spans="50:50">
       <c r="AX162" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="163" spans="50:50">
       <c r="AX163" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="164" spans="50:50">
       <c r="AX164" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="165" spans="50:50">
       <c r="AX165" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="166" spans="50:50">
       <c r="AX166" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="167" spans="50:50">
       <c r="AX167" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="168" spans="50:50">
       <c r="AX168" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="169" spans="50:50">
       <c r="AX169" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="170" spans="50:50">
       <c r="AX170" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="50:50">
       <c r="AX171" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="172" spans="50:50">
       <c r="AX172" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="173" spans="50:50">
       <c r="AX173" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="174" spans="50:50">
       <c r="AX174" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="175" spans="50:50">
       <c r="AX175" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="176" spans="50:50">
       <c r="AX176" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="177" spans="50:50">
       <c r="AX177" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="178" spans="50:50">
       <c r="AX178" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="179" spans="50:50">
       <c r="AX179" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="180" spans="50:50">
       <c r="AX180" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="181" spans="50:50">
       <c r="AX181" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="182" spans="50:50">
       <c r="AX182" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="183" spans="50:50">
       <c r="AX183" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="184" spans="50:50">
       <c r="AX184" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="185" spans="50:50">
       <c r="AX185" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="186" spans="50:50">
       <c r="AX186" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="187" spans="50:50">
       <c r="AX187" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="188" spans="50:50">
       <c r="AX188" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="189" spans="50:50">
       <c r="AX189" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="190" spans="50:50">
       <c r="AX190" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="191" spans="50:50">
       <c r="AX191" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="192" spans="50:50">
       <c r="AX192" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="193" spans="50:50">
       <c r="AX193" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194" spans="50:50">
       <c r="AX194" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="195" spans="50:50">
       <c r="AX195" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="196" spans="50:50">
       <c r="AX196" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="197" spans="50:50">
       <c r="AX197" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="198" spans="50:50">
       <c r="AX198" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="199" spans="50:50">
       <c r="AX199" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="200" spans="50:50">
       <c r="AX200" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="201" spans="50:50">
       <c r="AX201" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="202" spans="50:50">
       <c r="AX202" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="203" spans="50:50">
       <c r="AX203" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="204" spans="50:50">
       <c r="AX204" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="205" spans="50:50">
       <c r="AX205" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="206" spans="50:50">
       <c r="AX206" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="207" spans="50:50">
       <c r="AX207" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="208" spans="50:50">
       <c r="AX208" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="209" spans="50:50">
       <c r="AX209" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="210" spans="50:50">
       <c r="AX210" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="211" spans="50:50">
       <c r="AX211" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="212" spans="50:50">
       <c r="AX212" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="213" spans="50:50">
       <c r="AX213" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="214" spans="50:50">
       <c r="AX214" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="215" spans="50:50">
       <c r="AX215" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="216" spans="50:50">
       <c r="AX216" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="217" spans="50:50">
       <c r="AX217" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="218" spans="50:50">
       <c r="AX218" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="219" spans="50:50">
       <c r="AX219" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="220" spans="50:50">
       <c r="AX220" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="221" spans="50:50">
       <c r="AX221" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="222" spans="50:50">
       <c r="AX222" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="223" spans="50:50">
       <c r="AX223" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="224" spans="50:50">
       <c r="AX224" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="225" spans="50:50">
       <c r="AX225" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="226" spans="50:50">
       <c r="AX226" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="227" spans="50:50">
       <c r="AX227" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="228" spans="50:50">
       <c r="AX228" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="229" spans="50:50">
       <c r="AX229" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="230" spans="50:50">
       <c r="AX230" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="231" spans="50:50">
       <c r="AX231" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="232" spans="50:50">
       <c r="AX232" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="233" spans="50:50">
       <c r="AX233" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="234" spans="50:50">
       <c r="AX234" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="235" spans="50:50">
       <c r="AX235" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="236" spans="50:50">
       <c r="AX236" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="237" spans="50:50">
       <c r="AX237" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="238" spans="50:50">
       <c r="AX238" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="239" spans="50:50">
       <c r="AX239" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="240" spans="50:50">
       <c r="AX240" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="241" spans="50:50">
       <c r="AX241" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="242" spans="50:50">
       <c r="AX242" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="243" spans="50:50">
       <c r="AX243" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="244" spans="50:50">
       <c r="AX244" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="245" spans="50:50">
       <c r="AX245" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="246" spans="50:50">
       <c r="AX246" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="247" spans="50:50">
       <c r="AX247" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="248" spans="50:50">
       <c r="AX248" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="249" spans="50:50">
       <c r="AX249" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="250" spans="50:50">
       <c r="AX250" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="251" spans="50:50">
       <c r="AX251" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="252" spans="50:50">
       <c r="AX252" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="253" spans="50:50">
       <c r="AX253" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="254" spans="50:50">
       <c r="AX254" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="255" spans="50:50">
       <c r="AX255" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="256" spans="50:50">
       <c r="AX256" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="257" spans="50:50">
       <c r="AX257" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="258" spans="50:50">
       <c r="AX258" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="259" spans="50:50">
       <c r="AX259" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="260" spans="50:50">
       <c r="AX260" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="261" spans="50:50">
       <c r="AX261" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="262" spans="50:50">
       <c r="AX262" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="263" spans="50:50">
       <c r="AX263" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="264" spans="50:50">
       <c r="AX264" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="265" spans="50:50">
       <c r="AX265" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="266" spans="50:50">
       <c r="AX266" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="267" spans="50:50">
       <c r="AX267" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="268" spans="50:50">
       <c r="AX268" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="269" spans="50:50">
       <c r="AX269" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="270" spans="50:50">
       <c r="AX270" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="271" spans="50:50">
       <c r="AX271" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="272" spans="50:50">
       <c r="AX272" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="273" spans="50:50">
       <c r="AX273" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="274" spans="50:50">
       <c r="AX274" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="275" spans="50:50">
       <c r="AX275" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="276" spans="50:50">
       <c r="AX276" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="277" spans="50:50">
       <c r="AX277" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="278" spans="50:50">
       <c r="AX278" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="279" spans="50:50">
       <c r="AX279" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="280" spans="50:50">
       <c r="AX280" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="281" spans="50:50">
       <c r="AX281" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="282" spans="50:50">
       <c r="AX282" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="283" spans="50:50">
       <c r="AX283" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="284" spans="50:50">
       <c r="AX284" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="285" spans="50:50">
       <c r="AX285" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="286" spans="50:50">
       <c r="AX286" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="287" spans="50:50">
       <c r="AX287" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="288" spans="50:50">
       <c r="AX288" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="289" spans="50:50">
       <c r="AX289" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$289</definedName>
     <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="880">
   <si>
     <t>alias</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3215,7 +3218,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3259,7 +3262,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3289,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4013,6 +4016,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4037,27 +4045,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4080,122 +4088,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4222,678 +4230,678 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:113" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -4943,1756 +4951,1756 @@
   <sheetData>
     <row r="1" spans="5:81">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AC1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AX1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BG1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BH1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BO1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CC1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="5:81">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AX2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BG2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BH2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BO2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CC2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="5:81">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AX3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BG3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BH3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BO3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CC3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="5:81">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AX4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BG4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BH4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BO4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CC4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="5:81">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AX5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BG5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BH5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BO5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CC5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="5:81">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AX6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BG6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BH6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="5:81">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AX7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="CC7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" spans="5:81">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AX8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CC8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="5:81">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AX9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CC9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="5:81">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AX10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="5:81">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AX11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="5:81">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AX12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="5:81">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AX13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="5:81">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AX14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="5:81">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AX15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="5:81">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AX16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="5:50">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="5:50">
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AX18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="5:50">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AX19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="5:50">
       <c r="E20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AX20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="5:50">
       <c r="E21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AX21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="5:50">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AX22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="5:50">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AX23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="5:50">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AX24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="5:50">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AX25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="5:50">
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AX26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="5:50">
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AX27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="5:50">
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AX28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="5:50">
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AX29" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="5:50">
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AX30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="5:50">
       <c r="P31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AX31" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="5:50">
       <c r="P32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AX32" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="50:50">
       <c r="AX33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="50:50">
       <c r="AX34" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="50:50">
       <c r="AX35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="50:50">
       <c r="AX36" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="50:50">
       <c r="AX37" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="50:50">
       <c r="AX38" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="50:50">
       <c r="AX39" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="50:50">
       <c r="AX40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="50:50">
       <c r="AX41" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="50:50">
       <c r="AX42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="50:50">
       <c r="AX43" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="50:50">
       <c r="AX44" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="50:50">
       <c r="AX45" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="50:50">
       <c r="AX46" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="50:50">
       <c r="AX47" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="50:50">
       <c r="AX48" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="50:50">
       <c r="AX49" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="50:50">
       <c r="AX50" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="50:50">
       <c r="AX51" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="50:50">
       <c r="AX52" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="50:50">
       <c r="AX53" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="50:50">
       <c r="AX54" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="50:50">
       <c r="AX55" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="50:50">
       <c r="AX56" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="50:50">
       <c r="AX57" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="50:50">
       <c r="AX58" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="50:50">
       <c r="AX59" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="50:50">
       <c r="AX60" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="50:50">
       <c r="AX61" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="50:50">
       <c r="AX62" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="50:50">
       <c r="AX63" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="50:50">
       <c r="AX64" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="50:50">
       <c r="AX65" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="50:50">
       <c r="AX66" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="50:50">
       <c r="AX67" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="50:50">
       <c r="AX68" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="50:50">
       <c r="AX69" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="50:50">
       <c r="AX70" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="71" spans="50:50">
       <c r="AX71" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="50:50">
       <c r="AX72" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="73" spans="50:50">
       <c r="AX73" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74" spans="50:50">
       <c r="AX74" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75" spans="50:50">
       <c r="AX75" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="76" spans="50:50">
       <c r="AX76" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="50:50">
       <c r="AX77" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="50:50">
       <c r="AX78" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="50:50">
       <c r="AX79" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="50:50">
       <c r="AX80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="50:50">
       <c r="AX81" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="50:50">
       <c r="AX82" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" spans="50:50">
       <c r="AX83" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="84" spans="50:50">
       <c r="AX84" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="50:50">
       <c r="AX85" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="50:50">
       <c r="AX86" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="50:50">
       <c r="AX87" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="88" spans="50:50">
       <c r="AX88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="50:50">
       <c r="AX89" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="50:50">
       <c r="AX90" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="50:50">
       <c r="AX91" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="50:50">
       <c r="AX92" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" spans="50:50">
       <c r="AX93" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="94" spans="50:50">
       <c r="AX94" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="95" spans="50:50">
       <c r="AX95" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="96" spans="50:50">
       <c r="AX96" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="97" spans="50:50">
       <c r="AX97" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="98" spans="50:50">
       <c r="AX98" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="50:50">
       <c r="AX99" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="100" spans="50:50">
       <c r="AX100" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="50:50">
       <c r="AX101" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="102" spans="50:50">
       <c r="AX102" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="103" spans="50:50">
       <c r="AX103" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="104" spans="50:50">
       <c r="AX104" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="50:50">
       <c r="AX105" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="50:50">
       <c r="AX106" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107" spans="50:50">
       <c r="AX107" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="50:50">
       <c r="AX108" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="109" spans="50:50">
       <c r="AX109" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="50:50">
       <c r="AX110" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="111" spans="50:50">
       <c r="AX111" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112" spans="50:50">
       <c r="AX112" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="113" spans="50:50">
       <c r="AX113" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114" spans="50:50">
       <c r="AX114" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="50:50">
       <c r="AX115" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="116" spans="50:50">
       <c r="AX116" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="117" spans="50:50">
       <c r="AX117" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" spans="50:50">
       <c r="AX118" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="50:50">
       <c r="AX119" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="120" spans="50:50">
       <c r="AX120" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="50:50">
       <c r="AX121" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="122" spans="50:50">
       <c r="AX122" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="123" spans="50:50">
       <c r="AX123" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="124" spans="50:50">
       <c r="AX124" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="125" spans="50:50">
       <c r="AX125" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="126" spans="50:50">
       <c r="AX126" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="50:50">
       <c r="AX127" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="128" spans="50:50">
       <c r="AX128" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" spans="50:50">
       <c r="AX129" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="50:50">
       <c r="AX130" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="131" spans="50:50">
       <c r="AX131" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="50:50">
       <c r="AX132" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="50:50">
       <c r="AX133" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="50:50">
       <c r="AX134" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="135" spans="50:50">
       <c r="AX135" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="50:50">
       <c r="AX136" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="137" spans="50:50">
       <c r="AX137" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="50:50">
       <c r="AX138" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="139" spans="50:50">
       <c r="AX139" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" spans="50:50">
       <c r="AX140" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="141" spans="50:50">
       <c r="AX141" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="142" spans="50:50">
       <c r="AX142" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="143" spans="50:50">
       <c r="AX143" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="50:50">
       <c r="AX144" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="145" spans="50:50">
       <c r="AX145" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="50:50">
       <c r="AX146" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" spans="50:50">
       <c r="AX147" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="148" spans="50:50">
       <c r="AX148" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="149" spans="50:50">
       <c r="AX149" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="150" spans="50:50">
       <c r="AX150" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="50:50">
       <c r="AX151" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="152" spans="50:50">
       <c r="AX152" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="153" spans="50:50">
       <c r="AX153" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="154" spans="50:50">
       <c r="AX154" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="155" spans="50:50">
       <c r="AX155" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="156" spans="50:50">
       <c r="AX156" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="157" spans="50:50">
       <c r="AX157" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="158" spans="50:50">
       <c r="AX158" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="159" spans="50:50">
       <c r="AX159" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="160" spans="50:50">
       <c r="AX160" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="161" spans="50:50">
       <c r="AX161" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="162" spans="50:50">
       <c r="AX162" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="163" spans="50:50">
       <c r="AX163" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="164" spans="50:50">
       <c r="AX164" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="165" spans="50:50">
       <c r="AX165" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="166" spans="50:50">
       <c r="AX166" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="167" spans="50:50">
       <c r="AX167" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="168" spans="50:50">
       <c r="AX168" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="169" spans="50:50">
       <c r="AX169" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="170" spans="50:50">
       <c r="AX170" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="171" spans="50:50">
       <c r="AX171" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="172" spans="50:50">
       <c r="AX172" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="173" spans="50:50">
       <c r="AX173" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="174" spans="50:50">
       <c r="AX174" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="175" spans="50:50">
       <c r="AX175" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="176" spans="50:50">
       <c r="AX176" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="177" spans="50:50">
       <c r="AX177" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="178" spans="50:50">
       <c r="AX178" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="50:50">
       <c r="AX179" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="180" spans="50:50">
       <c r="AX180" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="181" spans="50:50">
       <c r="AX181" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="182" spans="50:50">
       <c r="AX182" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="183" spans="50:50">
       <c r="AX183" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="184" spans="50:50">
       <c r="AX184" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="185" spans="50:50">
       <c r="AX185" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="186" spans="50:50">
       <c r="AX186" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="187" spans="50:50">
       <c r="AX187" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="188" spans="50:50">
       <c r="AX188" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="189" spans="50:50">
       <c r="AX189" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="190" spans="50:50">
       <c r="AX190" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="191" spans="50:50">
       <c r="AX191" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="192" spans="50:50">
       <c r="AX192" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="193" spans="50:50">
       <c r="AX193" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="194" spans="50:50">
       <c r="AX194" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="195" spans="50:50">
       <c r="AX195" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="196" spans="50:50">
       <c r="AX196" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="197" spans="50:50">
       <c r="AX197" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="198" spans="50:50">
       <c r="AX198" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="199" spans="50:50">
       <c r="AX199" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="200" spans="50:50">
       <c r="AX200" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="201" spans="50:50">
       <c r="AX201" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="202" spans="50:50">
       <c r="AX202" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="203" spans="50:50">
       <c r="AX203" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="204" spans="50:50">
       <c r="AX204" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="205" spans="50:50">
       <c r="AX205" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="206" spans="50:50">
       <c r="AX206" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="50:50">
       <c r="AX207" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="208" spans="50:50">
       <c r="AX208" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="209" spans="50:50">
       <c r="AX209" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="210" spans="50:50">
       <c r="AX210" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="211" spans="50:50">
       <c r="AX211" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="212" spans="50:50">
       <c r="AX212" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="213" spans="50:50">
       <c r="AX213" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="214" spans="50:50">
       <c r="AX214" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="215" spans="50:50">
       <c r="AX215" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="216" spans="50:50">
       <c r="AX216" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="217" spans="50:50">
       <c r="AX217" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="218" spans="50:50">
       <c r="AX218" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="219" spans="50:50">
       <c r="AX219" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="220" spans="50:50">
       <c r="AX220" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="221" spans="50:50">
       <c r="AX221" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="222" spans="50:50">
       <c r="AX222" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="223" spans="50:50">
       <c r="AX223" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="224" spans="50:50">
       <c r="AX224" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="225" spans="50:50">
       <c r="AX225" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="226" spans="50:50">
       <c r="AX226" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="227" spans="50:50">
       <c r="AX227" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="228" spans="50:50">
       <c r="AX228" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="229" spans="50:50">
       <c r="AX229" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="230" spans="50:50">
       <c r="AX230" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="231" spans="50:50">
       <c r="AX231" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="232" spans="50:50">
       <c r="AX232" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="233" spans="50:50">
       <c r="AX233" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="234" spans="50:50">
       <c r="AX234" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="235" spans="50:50">
       <c r="AX235" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="236" spans="50:50">
       <c r="AX236" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="237" spans="50:50">
       <c r="AX237" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="238" spans="50:50">
       <c r="AX238" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="239" spans="50:50">
       <c r="AX239" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="240" spans="50:50">
       <c r="AX240" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="241" spans="50:50">
       <c r="AX241" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="242" spans="50:50">
       <c r="AX242" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="243" spans="50:50">
       <c r="AX243" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="244" spans="50:50">
       <c r="AX244" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="245" spans="50:50">
       <c r="AX245" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="246" spans="50:50">
       <c r="AX246" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="247" spans="50:50">
       <c r="AX247" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="248" spans="50:50">
       <c r="AX248" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="249" spans="50:50">
       <c r="AX249" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="250" spans="50:50">
       <c r="AX250" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="251" spans="50:50">
       <c r="AX251" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="252" spans="50:50">
       <c r="AX252" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="253" spans="50:50">
       <c r="AX253" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="254" spans="50:50">
       <c r="AX254" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="255" spans="50:50">
       <c r="AX255" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="256" spans="50:50">
       <c r="AX256" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="257" spans="50:50">
       <c r="AX257" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="258" spans="50:50">
       <c r="AX258" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="259" spans="50:50">
       <c r="AX259" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="260" spans="50:50">
       <c r="AX260" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="261" spans="50:50">
       <c r="AX261" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="262" spans="50:50">
       <c r="AX262" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="263" spans="50:50">
       <c r="AX263" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="264" spans="50:50">
       <c r="AX264" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="265" spans="50:50">
       <c r="AX265" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="266" spans="50:50">
       <c r="AX266" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="267" spans="50:50">
       <c r="AX267" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="268" spans="50:50">
       <c r="AX268" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="269" spans="50:50">
       <c r="AX269" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="270" spans="50:50">
       <c r="AX270" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="271" spans="50:50">
       <c r="AX271" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="272" spans="50:50">
       <c r="AX272" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="273" spans="50:50">
       <c r="AX273" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="274" spans="50:50">
       <c r="AX274" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="275" spans="50:50">
       <c r="AX275" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="276" spans="50:50">
       <c r="AX276" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="277" spans="50:50">
       <c r="AX277" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="278" spans="50:50">
       <c r="AX278" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="279" spans="50:50">
       <c r="AX279" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="280" spans="50:50">
       <c r="AX280" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="281" spans="50:50">
       <c r="AX281" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="282" spans="50:50">
       <c r="AX282" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="283" spans="50:50">
       <c r="AX283" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="284" spans="50:50">
       <c r="AX284" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="285" spans="50:50">
       <c r="AX285" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="286" spans="50:50">
       <c r="AX286" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="287" spans="50:50">
       <c r="AX287" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="288" spans="50:50">
       <c r="AX288" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="289" spans="50:50">
       <c r="AX289" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BH$1:$BH$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$294</definedName>
     <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="885">
   <si>
     <t>alias</t>
   </si>
@@ -942,7 +942,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -963,13 +963,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -996,7 +996,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1008,37 +1008,37 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage conditions</t>
+    <t>sample_storage_conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>soil_taxonomic/FAO classification</t>
+    <t>soil_taxonomicfao_classification</t>
   </si>
   <si>
     <t>(Optional) Soil classification from the fao world reference database for soil resources</t>
   </si>
   <si>
-    <t>soil_taxonomic/local classification</t>
+    <t>soil_taxonomiclocal_classification</t>
   </si>
   <si>
     <t>(Optional) Soil classification based on local soil classification system</t>
   </si>
   <si>
-    <t>soil_taxonomic/local classification method</t>
+    <t>soil_taxonomiclocal_classification_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the local soil classification</t>
@@ -1140,37 +1140,37 @@
     <t>Vertisol</t>
   </si>
   <si>
-    <t>soil type</t>
+    <t>soil_type</t>
   </si>
   <si>
     <t>(Optional) Description of the soil type or classification. this field accepts terms under soil (http://purl.obolibrary.org/obo/envo_00001998). multiple terms can be separated by pipes.</t>
   </si>
   <si>
-    <t>soil type method</t>
+    <t>soil_type_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining soil series name or other lower-level classification</t>
   </si>
   <si>
-    <t>soil texture measurement</t>
+    <t>soil_texture_measurement</t>
   </si>
   <si>
     <t>(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. (Units: % sand/silt/clay)</t>
   </si>
   <si>
-    <t>soil texture method</t>
+    <t>soil_texture_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining soil texture</t>
   </si>
   <si>
-    <t>microbial biomass</t>
+    <t>microbial_biomass</t>
   </si>
   <si>
     <t>(Optional) The part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 µm. if you keep this, you would need to have correction factors used for conversion to the final units, which should be mg c (or n)/kg soil). (Units: g/kg)</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1182,37 +1182,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1227,31 +1227,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1263,37 +1263,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1305,10 +1305,10 @@
     <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>sieving</t>
@@ -1317,37 +1317,37 @@
     <t>(Optional) Collection design of pooled samples and/or sieve size and amount of sample sieved</t>
   </si>
   <si>
-    <t>microbial biomass method</t>
+    <t>microbial_biomass_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining microbial biomass</t>
   </si>
   <si>
-    <t>horizon method</t>
+    <t>horizon_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the horizon</t>
   </si>
   <si>
-    <t>extreme_unusual_properties/heavy metals</t>
+    <t>extreme_unusual_propertiesheavy_metals</t>
   </si>
   <si>
     <t>(Optional) Heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
   </si>
   <si>
-    <t>extreme_unusual_properties/heavy metals method</t>
+    <t>extreme_unusual_propertiesheavy_metals_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining heavy metals</t>
   </si>
   <si>
-    <t>extreme_unusual_properties/Al saturation</t>
+    <t>extreme_unusual_propertiesal_saturation</t>
   </si>
   <si>
     <t>(Optional) Aluminum saturation (esp. for tropical soils) (Units: %)</t>
   </si>
   <si>
-    <t>extreme_unusual_properties/Al saturation method</t>
+    <t>extreme_unusual_propertiesal_saturation_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining al saturation</t>
@@ -1566,9 +1566,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1587,6 +1584,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1788,6 +1788,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1797,9 +1800,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1839,7 +1839,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1908,6 +1908,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1983,6 +1986,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -2004,6 +2010,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2049,6 +2058,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2061,6 +2073,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2070,9 +2085,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2097,6 +2109,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2157,12 +2172,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2220,55 +2235,55 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>link to climate information</t>
+    <t>link_to_climate_information</t>
   </si>
   <si>
     <t>(Optional) Link to climate resource</t>
   </si>
   <si>
-    <t>link to classification information</t>
+    <t>link_to_classification_information</t>
   </si>
   <si>
     <t>(Optional) Link to digitized soil maps or other soil classification information</t>
   </si>
   <si>
-    <t>links to additional analysis</t>
+    <t>links_to_additional_analysis</t>
   </si>
   <si>
     <t>(Optional) Link to additional analysis results performed on the sample</t>
   </si>
   <si>
-    <t>current land use</t>
+    <t>current_land_use</t>
   </si>
   <si>
     <t>(Optional) Present state of sample site</t>
   </si>
   <si>
-    <t>current vegetation</t>
+    <t>current_vegetation</t>
   </si>
   <si>
     <t>(Optional) Vegetation classification from one or more standard classification systems, or agricultural crop</t>
   </si>
   <si>
-    <t>current vegetation method</t>
+    <t>current_vegetation_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in vegetation classification</t>
@@ -2292,7 +2307,7 @@
     <t>R layer</t>
   </si>
   <si>
-    <t>soil horizon</t>
+    <t>soil_horizon</t>
   </si>
   <si>
     <t>(Optional) Specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
@@ -2316,7 +2331,7 @@
     <t>well</t>
   </si>
   <si>
-    <t>drainage classification</t>
+    <t>drainage_classification</t>
   </si>
   <si>
     <t>(Optional) Drainage classification from a standard system such as the usda system</t>
@@ -2328,31 +2343,31 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>pH</t>
+    <t>ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>pH method</t>
+    <t>ph_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining ph</t>
   </si>
   <si>
-    <t>water content</t>
+    <t>water_content</t>
   </si>
   <si>
     <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
   </si>
   <si>
-    <t>slope gradient</t>
+    <t>slope_gradient</t>
   </si>
   <si>
     <t>(Optional) Commonly called slope. the angle between ground surface and a horizontal line (in percent). this is the direction that overland water would flow. this measure is usually taken with a hand level meter or clinometer. (Units: %)</t>
   </si>
   <si>
-    <t>slope aspect</t>
+    <t>slope_aspect</t>
   </si>
   <si>
     <t>(Optional) The direction a slope faces. while looking down a slope use a compass to record the direction you are facing (direction or degrees); e.g., nw or 315°. this measure provides an indication of sun and wind exposure that will influence soil temperature and evapotranspiration.</t>
@@ -2373,85 +2388,85 @@
     <t>toeslope</t>
   </si>
   <si>
-    <t>profile position</t>
+    <t>profile_position</t>
   </si>
   <si>
     <t>(Optional) Cross-sectional position in the hillslope where sample was collected.sample area position in relation to surrounding areas</t>
   </si>
   <si>
-    <t>water content method</t>
+    <t>water_content_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the water content of soil</t>
   </si>
   <si>
-    <t>total organic carbon method</t>
+    <t>total_organic_carbon_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining total organic carbon</t>
   </si>
   <si>
-    <t>total nitrogen content method</t>
+    <t>total_nitrogen_content_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the total nitrogen</t>
   </si>
   <si>
-    <t>organic matter</t>
+    <t>organic_matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic nitrogen</t>
+    <t>organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>total organic carbon</t>
+    <t>total_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
   </si>
   <si>
-    <t>total nitrogen content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>salinity method</t>
+    <t>total_nitrogen_content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
+  </si>
+  <si>
+    <t>salinity_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining salinity</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>history/previous land use</t>
+    <t>historyprevious_land_use</t>
   </si>
   <si>
     <t>(Optional) Previous land use and dates</t>
   </si>
   <si>
-    <t>previous land use method</t>
+    <t>previous_land_use_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining previous land use and dates</t>
   </si>
   <si>
-    <t>history/crop rotation</t>
+    <t>historycrop_rotation</t>
   </si>
   <si>
     <t>(Optional) Whether or not crop is rotated, and if yes, rotation schedule</t>
   </si>
   <si>
-    <t>history/agrochemical additions</t>
+    <t>historyagrochemical_additions</t>
   </si>
   <si>
     <t>(Optional) Addition of fertilizers, pesticides, etc. - amount and time of applications</t>
@@ -2484,55 +2499,55 @@
     <t>zonal tillage</t>
   </si>
   <si>
-    <t>history/tillage</t>
+    <t>historytillage</t>
   </si>
   <si>
     <t>(Optional) Note method(s) used for tilling</t>
   </si>
   <si>
-    <t>history/fire</t>
+    <t>historyfire</t>
   </si>
   <si>
     <t>(Optional) Historical and/or physical evidence of fire</t>
   </si>
   <si>
-    <t>history/flooding</t>
+    <t>historyflooding</t>
   </si>
   <si>
     <t>(Optional) Historical and/or physical evidence of flooding</t>
   </si>
   <si>
-    <t>history/extreme events</t>
+    <t>historyextreme_events</t>
   </si>
   <si>
     <t>(Optional) Unusual physical events that may have affected microbial populations</t>
   </si>
   <si>
-    <t>mean seasonal temperature</t>
+    <t>mean_seasonal_temperature</t>
   </si>
   <si>
     <t>(Optional) Mean seasonal temperature (Units: °C)</t>
   </si>
   <si>
-    <t>mean seasonal precipitation</t>
+    <t>mean_seasonal_precipitation</t>
   </si>
   <si>
     <t>(Optional) The average of all seasonal precipitation values known, or an estimated equivalent value derived by such methods as regional indexes or isohyetal maps. (Units: mm)</t>
   </si>
   <si>
-    <t>mean annual precipitation</t>
+    <t>mean_annual_precipitation</t>
   </si>
   <si>
     <t>(Optional) The average of all annual precipitation values known, or an estimated equivalent value derived by such methods as regional indexes or isohyetal maps. (Units: mm)</t>
   </si>
   <si>
-    <t>mean annual temperature</t>
+    <t>mean_annual_temperature</t>
   </si>
   <si>
     <t>(Optional) Mean annual temperature (Units: ºC)</t>
   </si>
   <si>
-    <t>host specificity or range</t>
+    <t>host_specificity_or_range</t>
   </si>
   <si>
     <t>(Optional) The range and diversity of host species that an organism is capable of infecting, defined by ncbi taxonomy identifier.</t>
@@ -2544,127 +2559,127 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample pooling</t>
+    <t>sample_pooling</t>
   </si>
   <si>
     <t>(Optional) Physical combination of several instances of like material, e.g. rna extracted from samples or dishes of cell cultures into one big aliquot of cells. please provide a short description of the samples that were pooled.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2679,7 +2694,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -4371,196 +4386,196 @@
         <v>435</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:113" ht="150" customHeight="1">
@@ -4712,196 +4727,196 @@
         <v>436</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -4943,7 +4958,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:CC289"/>
+  <dimension ref="E1:CC294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4969,16 +4984,16 @@
         <v>437</v>
       </c>
       <c r="BG1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BH1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BO1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CC1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="5:81">
@@ -5001,16 +5016,16 @@
         <v>438</v>
       </c>
       <c r="BG2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BH2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BO2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CC2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="5:81">
@@ -5033,16 +5048,16 @@
         <v>439</v>
       </c>
       <c r="BG3" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BH3" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BO3" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CC3" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="5:81">
@@ -5062,16 +5077,16 @@
         <v>440</v>
       </c>
       <c r="BG4" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BH4" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BO4" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CC4" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="5:81">
@@ -5091,16 +5106,16 @@
         <v>441</v>
       </c>
       <c r="BG5" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BH5" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BO5" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CC5" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6" spans="5:81">
@@ -5117,13 +5132,13 @@
         <v>442</v>
       </c>
       <c r="BG6" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BH6" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CC6" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="5:81">
@@ -5140,7 +5155,7 @@
         <v>443</v>
       </c>
       <c r="CC7" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="5:81">
@@ -5154,7 +5169,7 @@
         <v>444</v>
       </c>
       <c r="CC8" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="5:81">
@@ -5168,7 +5183,7 @@
         <v>445</v>
       </c>
       <c r="CC9" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="5:81">
@@ -6701,6 +6716,31 @@
     <row r="289" spans="50:50">
       <c r="AX289" t="s">
         <v>725</v>
+      </c>
+    </row>
+    <row r="290" spans="50:50">
+      <c r="AX290" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="291" spans="50:50">
+      <c r="AX291" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="292" spans="50:50">
+      <c r="AX292" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="293" spans="50:50">
+      <c r="AX293" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="294" spans="50:50">
+      <c r="AX294" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BH$1:$BH$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$289</definedName>
     <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="880">
   <si>
     <t>alias</t>
   </si>
@@ -942,7 +942,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -963,13 +963,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -996,7 +996,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1008,37 +1008,37 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_conditions</t>
+    <t>sample storage conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>soil_taxonomicfao_classification</t>
+    <t>soil_taxonomic/FAO classification</t>
   </si>
   <si>
     <t>(Optional) Soil classification from the fao world reference database for soil resources</t>
   </si>
   <si>
-    <t>soil_taxonomiclocal_classification</t>
+    <t>soil_taxonomic/local classification</t>
   </si>
   <si>
     <t>(Optional) Soil classification based on local soil classification system</t>
   </si>
   <si>
-    <t>soil_taxonomiclocal_classification_method</t>
+    <t>soil_taxonomic/local classification method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the local soil classification</t>
@@ -1140,37 +1140,37 @@
     <t>Vertisol</t>
   </si>
   <si>
-    <t>soil_type</t>
+    <t>soil type</t>
   </si>
   <si>
     <t>(Optional) Description of the soil type or classification. this field accepts terms under soil (http://purl.obolibrary.org/obo/envo_00001998). multiple terms can be separated by pipes.</t>
   </si>
   <si>
-    <t>soil_type_method</t>
+    <t>soil type method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining soil series name or other lower-level classification</t>
   </si>
   <si>
-    <t>soil_texture_measurement</t>
+    <t>soil texture measurement</t>
   </si>
   <si>
     <t>(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. (Units: % sand/silt/clay)</t>
   </si>
   <si>
-    <t>soil_texture_method</t>
+    <t>soil texture method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining soil texture</t>
   </si>
   <si>
-    <t>microbial_biomass</t>
+    <t>microbial biomass</t>
   </si>
   <si>
     <t>(Optional) The part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 µm. if you keep this, you would need to have correction factors used for conversion to the final units, which should be mg c (or n)/kg soil). (Units: g/kg)</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1182,37 +1182,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1227,31 +1227,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1263,37 +1263,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1305,10 +1305,10 @@
     <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>sieving</t>
@@ -1317,37 +1317,37 @@
     <t>(Optional) Collection design of pooled samples and/or sieve size and amount of sample sieved</t>
   </si>
   <si>
-    <t>microbial_biomass_method</t>
+    <t>microbial biomass method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining microbial biomass</t>
   </si>
   <si>
-    <t>horizon_method</t>
+    <t>horizon method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the horizon</t>
   </si>
   <si>
-    <t>extreme_unusual_propertiesheavy_metals</t>
+    <t>extreme_unusual_properties/heavy metals</t>
   </si>
   <si>
     <t>(Optional) Heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
   </si>
   <si>
-    <t>extreme_unusual_propertiesheavy_metals_method</t>
+    <t>extreme_unusual_properties/heavy metals method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining heavy metals</t>
   </si>
   <si>
-    <t>extreme_unusual_propertiesal_saturation</t>
+    <t>extreme_unusual_properties/Al saturation</t>
   </si>
   <si>
     <t>(Optional) Aluminum saturation (esp. for tropical soils) (Units: %)</t>
   </si>
   <si>
-    <t>extreme_unusual_propertiesal_saturation_method</t>
+    <t>extreme_unusual_properties/Al saturation method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining al saturation</t>
@@ -1566,6 +1566,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1584,9 +1587,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1788,9 +1788,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1800,6 +1797,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1839,7 +1839,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1908,9 +1908,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1986,9 +1983,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -2010,9 +2004,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2058,9 +2049,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2073,9 +2061,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2085,6 +2070,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2109,9 +2097,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2172,12 +2157,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2235,55 +2220,55 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>link_to_climate_information</t>
+    <t>link to climate information</t>
   </si>
   <si>
     <t>(Optional) Link to climate resource</t>
   </si>
   <si>
-    <t>link_to_classification_information</t>
+    <t>link to classification information</t>
   </si>
   <si>
     <t>(Optional) Link to digitized soil maps or other soil classification information</t>
   </si>
   <si>
-    <t>links_to_additional_analysis</t>
+    <t>links to additional analysis</t>
   </si>
   <si>
     <t>(Optional) Link to additional analysis results performed on the sample</t>
   </si>
   <si>
-    <t>current_land_use</t>
+    <t>current land use</t>
   </si>
   <si>
     <t>(Optional) Present state of sample site</t>
   </si>
   <si>
-    <t>current_vegetation</t>
+    <t>current vegetation</t>
   </si>
   <si>
     <t>(Optional) Vegetation classification from one or more standard classification systems, or agricultural crop</t>
   </si>
   <si>
-    <t>current_vegetation_method</t>
+    <t>current vegetation method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in vegetation classification</t>
@@ -2307,7 +2292,7 @@
     <t>R layer</t>
   </si>
   <si>
-    <t>soil_horizon</t>
+    <t>soil horizon</t>
   </si>
   <si>
     <t>(Optional) Specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
@@ -2331,7 +2316,7 @@
     <t>well</t>
   </si>
   <si>
-    <t>drainage_classification</t>
+    <t>drainage classification</t>
   </si>
   <si>
     <t>(Optional) Drainage classification from a standard system such as the usda system</t>
@@ -2343,31 +2328,31 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>ph</t>
+    <t>pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>ph_method</t>
+    <t>pH method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining ph</t>
   </si>
   <si>
-    <t>water_content</t>
+    <t>water content</t>
   </si>
   <si>
     <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
   </si>
   <si>
-    <t>slope_gradient</t>
+    <t>slope gradient</t>
   </si>
   <si>
     <t>(Optional) Commonly called slope. the angle between ground surface and a horizontal line (in percent). this is the direction that overland water would flow. this measure is usually taken with a hand level meter or clinometer. (Units: %)</t>
   </si>
   <si>
-    <t>slope_aspect</t>
+    <t>slope aspect</t>
   </si>
   <si>
     <t>(Optional) The direction a slope faces. while looking down a slope use a compass to record the direction you are facing (direction or degrees); e.g., nw or 315°. this measure provides an indication of sun and wind exposure that will influence soil temperature and evapotranspiration.</t>
@@ -2388,85 +2373,85 @@
     <t>toeslope</t>
   </si>
   <si>
-    <t>profile_position</t>
+    <t>profile position</t>
   </si>
   <si>
     <t>(Optional) Cross-sectional position in the hillslope where sample was collected.sample area position in relation to surrounding areas</t>
   </si>
   <si>
-    <t>water_content_method</t>
+    <t>water content method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the water content of soil</t>
   </si>
   <si>
-    <t>total_organic_carbon_method</t>
+    <t>total organic carbon method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining total organic carbon</t>
   </si>
   <si>
-    <t>total_nitrogen_content_method</t>
+    <t>total nitrogen content method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the total nitrogen</t>
   </si>
   <si>
-    <t>organic_matter</t>
+    <t>organic matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic_nitrogen</t>
+    <t>organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>total_organic_carbon</t>
+    <t>total organic carbon</t>
   </si>
   <si>
     <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
   </si>
   <si>
-    <t>total_nitrogen_content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
-  </si>
-  <si>
-    <t>salinity_method</t>
+    <t>total nitrogen content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>salinity method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining salinity</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>historyprevious_land_use</t>
+    <t>history/previous land use</t>
   </si>
   <si>
     <t>(Optional) Previous land use and dates</t>
   </si>
   <si>
-    <t>previous_land_use_method</t>
+    <t>previous land use method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining previous land use and dates</t>
   </si>
   <si>
-    <t>historycrop_rotation</t>
+    <t>history/crop rotation</t>
   </si>
   <si>
     <t>(Optional) Whether or not crop is rotated, and if yes, rotation schedule</t>
   </si>
   <si>
-    <t>historyagrochemical_additions</t>
+    <t>history/agrochemical additions</t>
   </si>
   <si>
     <t>(Optional) Addition of fertilizers, pesticides, etc. - amount and time of applications</t>
@@ -2499,55 +2484,55 @@
     <t>zonal tillage</t>
   </si>
   <si>
-    <t>historytillage</t>
+    <t>history/tillage</t>
   </si>
   <si>
     <t>(Optional) Note method(s) used for tilling</t>
   </si>
   <si>
-    <t>historyfire</t>
+    <t>history/fire</t>
   </si>
   <si>
     <t>(Optional) Historical and/or physical evidence of fire</t>
   </si>
   <si>
-    <t>historyflooding</t>
+    <t>history/flooding</t>
   </si>
   <si>
     <t>(Optional) Historical and/or physical evidence of flooding</t>
   </si>
   <si>
-    <t>historyextreme_events</t>
+    <t>history/extreme events</t>
   </si>
   <si>
     <t>(Optional) Unusual physical events that may have affected microbial populations</t>
   </si>
   <si>
-    <t>mean_seasonal_temperature</t>
+    <t>mean seasonal temperature</t>
   </si>
   <si>
     <t>(Optional) Mean seasonal temperature (Units: °C)</t>
   </si>
   <si>
-    <t>mean_seasonal_precipitation</t>
+    <t>mean seasonal precipitation</t>
   </si>
   <si>
     <t>(Optional) The average of all seasonal precipitation values known, or an estimated equivalent value derived by such methods as regional indexes or isohyetal maps. (Units: mm)</t>
   </si>
   <si>
-    <t>mean_annual_precipitation</t>
+    <t>mean annual precipitation</t>
   </si>
   <si>
     <t>(Optional) The average of all annual precipitation values known, or an estimated equivalent value derived by such methods as regional indexes or isohyetal maps. (Units: mm)</t>
   </si>
   <si>
-    <t>mean_annual_temperature</t>
+    <t>mean annual temperature</t>
   </si>
   <si>
     <t>(Optional) Mean annual temperature (Units: ºC)</t>
   </si>
   <si>
-    <t>host_specificity_or_range</t>
+    <t>host specificity or range</t>
   </si>
   <si>
     <t>(Optional) The range and diversity of host species that an organism is capable of infecting, defined by ncbi taxonomy identifier.</t>
@@ -2559,127 +2544,127 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_pooling</t>
+    <t>sample pooling</t>
   </si>
   <si>
     <t>(Optional) Physical combination of several instances of like material, e.g. rna extracted from samples or dishes of cell cultures into one big aliquot of cells. please provide a short description of the samples that were pooled.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2694,7 +2679,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -4386,196 +4371,196 @@
         <v>435</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:113" ht="150" customHeight="1">
@@ -4727,196 +4712,196 @@
         <v>436</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +4943,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:CC294"/>
+  <dimension ref="E1:CC289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4984,16 +4969,16 @@
         <v>437</v>
       </c>
       <c r="BG1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BH1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="BO1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CC1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="5:81">
@@ -5016,16 +5001,16 @@
         <v>438</v>
       </c>
       <c r="BG2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BH2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="BO2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CC2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="5:81">
@@ -5048,16 +5033,16 @@
         <v>439</v>
       </c>
       <c r="BG3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BH3" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BO3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CC3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="5:81">
@@ -5077,16 +5062,16 @@
         <v>440</v>
       </c>
       <c r="BG4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BH4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BO4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CC4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="5:81">
@@ -5106,16 +5091,16 @@
         <v>441</v>
       </c>
       <c r="BG5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BH5" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BO5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CC5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="5:81">
@@ -5132,13 +5117,13 @@
         <v>442</v>
       </c>
       <c r="BG6" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BH6" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="CC6" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="5:81">
@@ -5155,7 +5140,7 @@
         <v>443</v>
       </c>
       <c r="CC7" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" spans="5:81">
@@ -5169,7 +5154,7 @@
         <v>444</v>
       </c>
       <c r="CC8" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="5:81">
@@ -5183,7 +5168,7 @@
         <v>445</v>
       </c>
       <c r="CC9" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="5:81">
@@ -6716,31 +6701,6 @@
     <row r="289" spans="50:50">
       <c r="AX289" t="s">
         <v>725</v>
-      </c>
-    </row>
-    <row r="290" spans="50:50">
-      <c r="AX290" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="291" spans="50:50">
-      <c r="AX291" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="292" spans="50:50">
-      <c r="AX292" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="293" spans="50:50">
-      <c r="AX293" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="294" spans="50:50">
-      <c r="AX294" t="s">
-        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -17,30 +17,30 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="drainageclassification">'cv_sample'!$BH$1:$BH$6</definedName>
+    <definedName name="drainageclassification">'cv_sample'!$BJ$1:$BJ$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AX$1:$AX$289</definedName>
-    <definedName name="historytillage">'cv_sample'!$CC$1:$CC$9</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
+    <definedName name="historytillage">'cv_sample'!$CE$1:$CE$9</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$H$1:$H$5</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="profileposition">'cv_sample'!$BO$1:$BO$5</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$AC$1:$AC$3</definedName>
-    <definedName name="soilhorizon">'cv_sample'!$BG$1:$BG$6</definedName>
-    <definedName name="soiltype">'cv_sample'!$P$1:$P$32</definedName>
+    <definedName name="profileposition">'cv_sample'!$BQ$1:$BQ$5</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$J$1:$J$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$AE$1:$AE$3</definedName>
+    <definedName name="soilhorizon">'cv_sample'!$BI$1:$BI$6</definedName>
+    <definedName name="soiltype">'cv_sample'!$R$1:$R$32</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$G$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="884">
   <si>
     <t>alias</t>
   </si>
@@ -844,6 +844,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4213,7 +4225,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DI2"/>
+  <dimension ref="A1:DK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4222,7 +4234,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113">
+    <row r="1" spans="1:115">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4236,19 +4248,19 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>322</v>
@@ -4269,10 +4281,10 @@
         <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>370</v>
@@ -4308,10 +4320,10 @@
         <v>390</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>399</v>
@@ -4371,10 +4383,10 @@
         <v>435</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>726</v>
+        <v>437</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>728</v>
+        <v>439</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>730</v>
@@ -4398,13 +4410,13 @@
         <v>742</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>762</v>
@@ -4422,10 +4434,10 @@
         <v>770</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>781</v>
@@ -4464,10 +4476,10 @@
         <v>803</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>818</v>
@@ -4562,8 +4574,14 @@
       <c r="DI1" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="2" spans="1:113" ht="150" customHeight="1">
+      <c r="DJ1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:115" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4577,19 +4595,19 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>323</v>
@@ -4610,10 +4628,10 @@
         <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>371</v>
@@ -4649,10 +4667,10 @@
         <v>391</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>400</v>
@@ -4712,10 +4730,10 @@
         <v>436</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>727</v>
+        <v>438</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>729</v>
+        <v>440</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>731</v>
@@ -4739,13 +4757,13 @@
         <v>743</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>763</v>
@@ -4763,10 +4781,10 @@
         <v>771</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="BQ2" s="2" t="s">
         <v>782</v>
@@ -4805,10 +4823,10 @@
         <v>804</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>819</v>
@@ -4903,37 +4921,43 @@
       <c r="DI2" s="2" t="s">
         <v>879</v>
       </c>
+      <c r="DJ2" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>883</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
       <formula1>soiltype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI3:BI101">
       <formula1>soilhorizon</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ3:BJ101">
       <formula1>drainageclassification</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ3:BQ101">
       <formula1>profileposition</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CC3:CC101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE3:CE101">
       <formula1>historytillage</formula1>
     </dataValidation>
   </dataValidations>
@@ -4943,1764 +4967,1764 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:CC289"/>
+  <dimension ref="G1:CE289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:81">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:83">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>441</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>748</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>756</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>776</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="7:83">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>749</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>757</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>777</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="3" spans="7:83">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="R3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>443</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>750</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>758</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>778</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="4" spans="7:83">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="R4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>444</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>751</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>759</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>779</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="5" spans="7:83">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="R5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>445</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>752</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>760</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>780</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="6" spans="7:83">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="R6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>446</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>753</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>761</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="7" spans="7:83">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>321</v>
+      </c>
+      <c r="R7" t="s">
+        <v>344</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>447</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="8" spans="7:83">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="R8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>448</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="9" spans="7:83">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="R9" t="s">
+        <v>346</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>449</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="10" spans="7:83">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R10" t="s">
+        <v>347</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="7:83">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="R11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="7:83">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="R12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="7:83">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="R13" t="s">
+        <v>350</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="7:83">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="R14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="7:83">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="R15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="7:83">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="R16" t="s">
+        <v>353</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="7:52">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="R17" t="s">
+        <v>354</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="7:52">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="R18" t="s">
+        <v>355</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="7:52">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="R19" t="s">
+        <v>356</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="7:52">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="R20" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="7:52">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="R21" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="7:52">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="R22" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="7:52">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="R23" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="7:52">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="R24" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="7:52">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="R25" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="7:52">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="R26" t="s">
+        <v>363</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="7:52">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="R27" t="s">
+        <v>364</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="7:52">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="R28" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="7:52">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>392</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>437</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>744</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>752</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>772</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="2" spans="5:81">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="R29" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="7:52">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="P2" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>438</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>745</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>753</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>773</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="3" spans="5:81">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="P3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>394</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>439</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>746</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>754</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>774</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="4" spans="5:81">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="P4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>440</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>747</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>755</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>775</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="5" spans="5:81">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="P5" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>441</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>748</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>756</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>776</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="6" spans="5:81">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>316</v>
-      </c>
-      <c r="P6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>442</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>749</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>757</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="7" spans="5:81">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P7" t="s">
-        <v>340</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>443</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="8" spans="5:81">
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P8" t="s">
-        <v>341</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>444</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="9" spans="5:81">
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="P9" t="s">
-        <v>342</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>445</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="10" spans="5:81">
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="P10" t="s">
-        <v>343</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" spans="5:81">
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P11" t="s">
-        <v>344</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="5:81">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="P12" t="s">
-        <v>345</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="5:81">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="P13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="5:81">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="P14" t="s">
-        <v>347</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="5:81">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="P15" t="s">
-        <v>348</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="5:81">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="P16" t="s">
-        <v>349</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="5:50">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="P17" t="s">
-        <v>350</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="18" spans="5:50">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-      <c r="P18" t="s">
-        <v>351</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="19" spans="5:50">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="P19" t="s">
-        <v>352</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="5:50">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="P20" t="s">
-        <v>353</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="5:50">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-      <c r="P21" t="s">
-        <v>354</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="22" spans="5:50">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-      <c r="P22" t="s">
-        <v>355</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="5:50">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="P23" t="s">
-        <v>356</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="24" spans="5:50">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="P24" t="s">
-        <v>357</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="5:50">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="P25" t="s">
-        <v>358</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="26" spans="5:50">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="P26" t="s">
-        <v>359</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="27" spans="5:50">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="P27" t="s">
-        <v>360</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="28" spans="5:50">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="P28" t="s">
-        <v>361</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="29" spans="5:50">
-      <c r="E29" t="s">
-        <v>298</v>
-      </c>
-      <c r="P29" t="s">
-        <v>362</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="30" spans="5:50">
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="P30" t="s">
-        <v>363</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="31" spans="5:50">
-      <c r="P31" t="s">
-        <v>364</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="32" spans="5:50">
-      <c r="P32" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="50:50">
-      <c r="AX33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="50:50">
-      <c r="AX34" t="s">
+      <c r="R30" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ30" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="50:50">
-      <c r="AX35" t="s">
+    <row r="31" spans="7:52">
+      <c r="R31" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ31" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="50:50">
-      <c r="AX36" t="s">
+    <row r="32" spans="7:52">
+      <c r="R32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ32" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="37" spans="50:50">
-      <c r="AX37" t="s">
+    <row r="33" spans="52:52">
+      <c r="AZ33" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="50:50">
-      <c r="AX38" t="s">
+    <row r="34" spans="52:52">
+      <c r="AZ34" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="39" spans="50:50">
-      <c r="AX39" t="s">
+    <row r="35" spans="52:52">
+      <c r="AZ35" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="50:50">
-      <c r="AX40" t="s">
+    <row r="36" spans="52:52">
+      <c r="AZ36" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="41" spans="50:50">
-      <c r="AX41" t="s">
+    <row r="37" spans="52:52">
+      <c r="AZ37" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="42" spans="50:50">
-      <c r="AX42" t="s">
+    <row r="38" spans="52:52">
+      <c r="AZ38" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="50:50">
-      <c r="AX43" t="s">
+    <row r="39" spans="52:52">
+      <c r="AZ39" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="44" spans="50:50">
-      <c r="AX44" t="s">
+    <row r="40" spans="52:52">
+      <c r="AZ40" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="45" spans="50:50">
-      <c r="AX45" t="s">
+    <row r="41" spans="52:52">
+      <c r="AZ41" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="50:50">
-      <c r="AX46" t="s">
+    <row r="42" spans="52:52">
+      <c r="AZ42" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="47" spans="50:50">
-      <c r="AX47" t="s">
+    <row r="43" spans="52:52">
+      <c r="AZ43" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="50:50">
-      <c r="AX48" t="s">
+    <row r="44" spans="52:52">
+      <c r="AZ44" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="49" spans="50:50">
-      <c r="AX49" t="s">
+    <row r="45" spans="52:52">
+      <c r="AZ45" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="50" spans="50:50">
-      <c r="AX50" t="s">
+    <row r="46" spans="52:52">
+      <c r="AZ46" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="50:50">
-      <c r="AX51" t="s">
+    <row r="47" spans="52:52">
+      <c r="AZ47" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="50:50">
-      <c r="AX52" t="s">
+    <row r="48" spans="52:52">
+      <c r="AZ48" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="53" spans="50:50">
-      <c r="AX53" t="s">
+    <row r="49" spans="52:52">
+      <c r="AZ49" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="50:50">
-      <c r="AX54" t="s">
+    <row r="50" spans="52:52">
+      <c r="AZ50" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="55" spans="50:50">
-      <c r="AX55" t="s">
+    <row r="51" spans="52:52">
+      <c r="AZ51" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="50:50">
-      <c r="AX56" t="s">
+    <row r="52" spans="52:52">
+      <c r="AZ52" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="57" spans="50:50">
-      <c r="AX57" t="s">
+    <row r="53" spans="52:52">
+      <c r="AZ53" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="58" spans="50:50">
-      <c r="AX58" t="s">
+    <row r="54" spans="52:52">
+      <c r="AZ54" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="59" spans="50:50">
-      <c r="AX59" t="s">
+    <row r="55" spans="52:52">
+      <c r="AZ55" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="50:50">
-      <c r="AX60" t="s">
+    <row r="56" spans="52:52">
+      <c r="AZ56" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="50:50">
-      <c r="AX61" t="s">
+    <row r="57" spans="52:52">
+      <c r="AZ57" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="50:50">
-      <c r="AX62" t="s">
+    <row r="58" spans="52:52">
+      <c r="AZ58" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="50:50">
-      <c r="AX63" t="s">
+    <row r="59" spans="52:52">
+      <c r="AZ59" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="50:50">
-      <c r="AX64" t="s">
+    <row r="60" spans="52:52">
+      <c r="AZ60" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="50:50">
-      <c r="AX65" t="s">
+    <row r="61" spans="52:52">
+      <c r="AZ61" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="50:50">
-      <c r="AX66" t="s">
+    <row r="62" spans="52:52">
+      <c r="AZ62" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="67" spans="50:50">
-      <c r="AX67" t="s">
+    <row r="63" spans="52:52">
+      <c r="AZ63" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="68" spans="50:50">
-      <c r="AX68" t="s">
+    <row r="64" spans="52:52">
+      <c r="AZ64" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="50:50">
-      <c r="AX69" t="s">
+    <row r="65" spans="52:52">
+      <c r="AZ65" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="70" spans="50:50">
-      <c r="AX70" t="s">
+    <row r="66" spans="52:52">
+      <c r="AZ66" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="71" spans="50:50">
-      <c r="AX71" t="s">
+    <row r="67" spans="52:52">
+      <c r="AZ67" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="50:50">
-      <c r="AX72" t="s">
+    <row r="68" spans="52:52">
+      <c r="AZ68" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="73" spans="50:50">
-      <c r="AX73" t="s">
+    <row r="69" spans="52:52">
+      <c r="AZ69" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="74" spans="50:50">
-      <c r="AX74" t="s">
+    <row r="70" spans="52:52">
+      <c r="AZ70" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="75" spans="50:50">
-      <c r="AX75" t="s">
+    <row r="71" spans="52:52">
+      <c r="AZ71" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="76" spans="50:50">
-      <c r="AX76" t="s">
+    <row r="72" spans="52:52">
+      <c r="AZ72" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="50:50">
-      <c r="AX77" t="s">
+    <row r="73" spans="52:52">
+      <c r="AZ73" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="78" spans="50:50">
-      <c r="AX78" t="s">
+    <row r="74" spans="52:52">
+      <c r="AZ74" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="79" spans="50:50">
-      <c r="AX79" t="s">
+    <row r="75" spans="52:52">
+      <c r="AZ75" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="80" spans="50:50">
-      <c r="AX80" t="s">
+    <row r="76" spans="52:52">
+      <c r="AZ76" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="81" spans="50:50">
-      <c r="AX81" t="s">
+    <row r="77" spans="52:52">
+      <c r="AZ77" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="82" spans="50:50">
-      <c r="AX82" t="s">
+    <row r="78" spans="52:52">
+      <c r="AZ78" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="83" spans="50:50">
-      <c r="AX83" t="s">
+    <row r="79" spans="52:52">
+      <c r="AZ79" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="84" spans="50:50">
-      <c r="AX84" t="s">
+    <row r="80" spans="52:52">
+      <c r="AZ80" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="50:50">
-      <c r="AX85" t="s">
+    <row r="81" spans="52:52">
+      <c r="AZ81" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="86" spans="50:50">
-      <c r="AX86" t="s">
+    <row r="82" spans="52:52">
+      <c r="AZ82" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="87" spans="50:50">
-      <c r="AX87" t="s">
+    <row r="83" spans="52:52">
+      <c r="AZ83" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="50:50">
-      <c r="AX88" t="s">
+    <row r="84" spans="52:52">
+      <c r="AZ84" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="89" spans="50:50">
-      <c r="AX89" t="s">
+    <row r="85" spans="52:52">
+      <c r="AZ85" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="90" spans="50:50">
-      <c r="AX90" t="s">
+    <row r="86" spans="52:52">
+      <c r="AZ86" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="91" spans="50:50">
-      <c r="AX91" t="s">
+    <row r="87" spans="52:52">
+      <c r="AZ87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="50:50">
-      <c r="AX92" t="s">
+    <row r="88" spans="52:52">
+      <c r="AZ88" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="93" spans="50:50">
-      <c r="AX93" t="s">
+    <row r="89" spans="52:52">
+      <c r="AZ89" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="94" spans="50:50">
-      <c r="AX94" t="s">
+    <row r="90" spans="52:52">
+      <c r="AZ90" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="95" spans="50:50">
-      <c r="AX95" t="s">
+    <row r="91" spans="52:52">
+      <c r="AZ91" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="96" spans="50:50">
-      <c r="AX96" t="s">
+    <row r="92" spans="52:52">
+      <c r="AZ92" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="97" spans="50:50">
-      <c r="AX97" t="s">
+    <row r="93" spans="52:52">
+      <c r="AZ93" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="98" spans="50:50">
-      <c r="AX98" t="s">
+    <row r="94" spans="52:52">
+      <c r="AZ94" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="99" spans="50:50">
-      <c r="AX99" t="s">
+    <row r="95" spans="52:52">
+      <c r="AZ95" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="100" spans="50:50">
-      <c r="AX100" t="s">
+    <row r="96" spans="52:52">
+      <c r="AZ96" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="101" spans="50:50">
-      <c r="AX101" t="s">
+    <row r="97" spans="52:52">
+      <c r="AZ97" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="50:50">
-      <c r="AX102" t="s">
+    <row r="98" spans="52:52">
+      <c r="AZ98" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="103" spans="50:50">
-      <c r="AX103" t="s">
+    <row r="99" spans="52:52">
+      <c r="AZ99" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="104" spans="50:50">
-      <c r="AX104" t="s">
+    <row r="100" spans="52:52">
+      <c r="AZ100" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="105" spans="50:50">
-      <c r="AX105" t="s">
+    <row r="101" spans="52:52">
+      <c r="AZ101" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="106" spans="50:50">
-      <c r="AX106" t="s">
+    <row r="102" spans="52:52">
+      <c r="AZ102" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="107" spans="50:50">
-      <c r="AX107" t="s">
+    <row r="103" spans="52:52">
+      <c r="AZ103" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="108" spans="50:50">
-      <c r="AX108" t="s">
+    <row r="104" spans="52:52">
+      <c r="AZ104" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="109" spans="50:50">
-      <c r="AX109" t="s">
+    <row r="105" spans="52:52">
+      <c r="AZ105" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="110" spans="50:50">
-      <c r="AX110" t="s">
+    <row r="106" spans="52:52">
+      <c r="AZ106" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="111" spans="50:50">
-      <c r="AX111" t="s">
+    <row r="107" spans="52:52">
+      <c r="AZ107" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="112" spans="50:50">
-      <c r="AX112" t="s">
+    <row r="108" spans="52:52">
+      <c r="AZ108" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="113" spans="50:50">
-      <c r="AX113" t="s">
+    <row r="109" spans="52:52">
+      <c r="AZ109" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="114" spans="50:50">
-      <c r="AX114" t="s">
+    <row r="110" spans="52:52">
+      <c r="AZ110" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="50:50">
-      <c r="AX115" t="s">
+    <row r="111" spans="52:52">
+      <c r="AZ111" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="116" spans="50:50">
-      <c r="AX116" t="s">
+    <row r="112" spans="52:52">
+      <c r="AZ112" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="117" spans="50:50">
-      <c r="AX117" t="s">
+    <row r="113" spans="52:52">
+      <c r="AZ113" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="118" spans="50:50">
-      <c r="AX118" t="s">
+    <row r="114" spans="52:52">
+      <c r="AZ114" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="50:50">
-      <c r="AX119" t="s">
+    <row r="115" spans="52:52">
+      <c r="AZ115" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="120" spans="50:50">
-      <c r="AX120" t="s">
+    <row r="116" spans="52:52">
+      <c r="AZ116" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="50:50">
-      <c r="AX121" t="s">
+    <row r="117" spans="52:52">
+      <c r="AZ117" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="122" spans="50:50">
-      <c r="AX122" t="s">
+    <row r="118" spans="52:52">
+      <c r="AZ118" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="123" spans="50:50">
-      <c r="AX123" t="s">
+    <row r="119" spans="52:52">
+      <c r="AZ119" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="124" spans="50:50">
-      <c r="AX124" t="s">
+    <row r="120" spans="52:52">
+      <c r="AZ120" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="125" spans="50:50">
-      <c r="AX125" t="s">
+    <row r="121" spans="52:52">
+      <c r="AZ121" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="126" spans="50:50">
-      <c r="AX126" t="s">
+    <row r="122" spans="52:52">
+      <c r="AZ122" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="127" spans="50:50">
-      <c r="AX127" t="s">
+    <row r="123" spans="52:52">
+      <c r="AZ123" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="128" spans="50:50">
-      <c r="AX128" t="s">
+    <row r="124" spans="52:52">
+      <c r="AZ124" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="129" spans="50:50">
-      <c r="AX129" t="s">
+    <row r="125" spans="52:52">
+      <c r="AZ125" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="130" spans="50:50">
-      <c r="AX130" t="s">
+    <row r="126" spans="52:52">
+      <c r="AZ126" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="131" spans="50:50">
-      <c r="AX131" t="s">
+    <row r="127" spans="52:52">
+      <c r="AZ127" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="132" spans="50:50">
-      <c r="AX132" t="s">
+    <row r="128" spans="52:52">
+      <c r="AZ128" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="133" spans="50:50">
-      <c r="AX133" t="s">
+    <row r="129" spans="52:52">
+      <c r="AZ129" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="134" spans="50:50">
-      <c r="AX134" t="s">
+    <row r="130" spans="52:52">
+      <c r="AZ130" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="135" spans="50:50">
-      <c r="AX135" t="s">
+    <row r="131" spans="52:52">
+      <c r="AZ131" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="136" spans="50:50">
-      <c r="AX136" t="s">
+    <row r="132" spans="52:52">
+      <c r="AZ132" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="137" spans="50:50">
-      <c r="AX137" t="s">
+    <row r="133" spans="52:52">
+      <c r="AZ133" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="138" spans="50:50">
-      <c r="AX138" t="s">
+    <row r="134" spans="52:52">
+      <c r="AZ134" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="139" spans="50:50">
-      <c r="AX139" t="s">
+    <row r="135" spans="52:52">
+      <c r="AZ135" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="140" spans="50:50">
-      <c r="AX140" t="s">
+    <row r="136" spans="52:52">
+      <c r="AZ136" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="141" spans="50:50">
-      <c r="AX141" t="s">
+    <row r="137" spans="52:52">
+      <c r="AZ137" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="142" spans="50:50">
-      <c r="AX142" t="s">
+    <row r="138" spans="52:52">
+      <c r="AZ138" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="143" spans="50:50">
-      <c r="AX143" t="s">
+    <row r="139" spans="52:52">
+      <c r="AZ139" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="144" spans="50:50">
-      <c r="AX144" t="s">
+    <row r="140" spans="52:52">
+      <c r="AZ140" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="145" spans="50:50">
-      <c r="AX145" t="s">
+    <row r="141" spans="52:52">
+      <c r="AZ141" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="50:50">
-      <c r="AX146" t="s">
+    <row r="142" spans="52:52">
+      <c r="AZ142" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="147" spans="50:50">
-      <c r="AX147" t="s">
+    <row r="143" spans="52:52">
+      <c r="AZ143" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="148" spans="50:50">
-      <c r="AX148" t="s">
+    <row r="144" spans="52:52">
+      <c r="AZ144" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="149" spans="50:50">
-      <c r="AX149" t="s">
+    <row r="145" spans="52:52">
+      <c r="AZ145" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="150" spans="50:50">
-      <c r="AX150" t="s">
+    <row r="146" spans="52:52">
+      <c r="AZ146" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="151" spans="50:50">
-      <c r="AX151" t="s">
+    <row r="147" spans="52:52">
+      <c r="AZ147" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="152" spans="50:50">
-      <c r="AX152" t="s">
+    <row r="148" spans="52:52">
+      <c r="AZ148" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="153" spans="50:50">
-      <c r="AX153" t="s">
+    <row r="149" spans="52:52">
+      <c r="AZ149" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="154" spans="50:50">
-      <c r="AX154" t="s">
+    <row r="150" spans="52:52">
+      <c r="AZ150" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="155" spans="50:50">
-      <c r="AX155" t="s">
+    <row r="151" spans="52:52">
+      <c r="AZ151" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="156" spans="50:50">
-      <c r="AX156" t="s">
+    <row r="152" spans="52:52">
+      <c r="AZ152" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="157" spans="50:50">
-      <c r="AX157" t="s">
+    <row r="153" spans="52:52">
+      <c r="AZ153" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="158" spans="50:50">
-      <c r="AX158" t="s">
+    <row r="154" spans="52:52">
+      <c r="AZ154" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="159" spans="50:50">
-      <c r="AX159" t="s">
+    <row r="155" spans="52:52">
+      <c r="AZ155" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="160" spans="50:50">
-      <c r="AX160" t="s">
+    <row r="156" spans="52:52">
+      <c r="AZ156" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="161" spans="50:50">
-      <c r="AX161" t="s">
+    <row r="157" spans="52:52">
+      <c r="AZ157" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="162" spans="50:50">
-      <c r="AX162" t="s">
+    <row r="158" spans="52:52">
+      <c r="AZ158" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="163" spans="50:50">
-      <c r="AX163" t="s">
+    <row r="159" spans="52:52">
+      <c r="AZ159" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="164" spans="50:50">
-      <c r="AX164" t="s">
+    <row r="160" spans="52:52">
+      <c r="AZ160" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="165" spans="50:50">
-      <c r="AX165" t="s">
+    <row r="161" spans="52:52">
+      <c r="AZ161" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="166" spans="50:50">
-      <c r="AX166" t="s">
+    <row r="162" spans="52:52">
+      <c r="AZ162" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="167" spans="50:50">
-      <c r="AX167" t="s">
+    <row r="163" spans="52:52">
+      <c r="AZ163" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="168" spans="50:50">
-      <c r="AX168" t="s">
+    <row r="164" spans="52:52">
+      <c r="AZ164" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="169" spans="50:50">
-      <c r="AX169" t="s">
+    <row r="165" spans="52:52">
+      <c r="AZ165" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="170" spans="50:50">
-      <c r="AX170" t="s">
+    <row r="166" spans="52:52">
+      <c r="AZ166" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="171" spans="50:50">
-      <c r="AX171" t="s">
+    <row r="167" spans="52:52">
+      <c r="AZ167" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="172" spans="50:50">
-      <c r="AX172" t="s">
+    <row r="168" spans="52:52">
+      <c r="AZ168" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="173" spans="50:50">
-      <c r="AX173" t="s">
+    <row r="169" spans="52:52">
+      <c r="AZ169" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="174" spans="50:50">
-      <c r="AX174" t="s">
+    <row r="170" spans="52:52">
+      <c r="AZ170" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="175" spans="50:50">
-      <c r="AX175" t="s">
+    <row r="171" spans="52:52">
+      <c r="AZ171" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="176" spans="50:50">
-      <c r="AX176" t="s">
+    <row r="172" spans="52:52">
+      <c r="AZ172" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="177" spans="50:50">
-      <c r="AX177" t="s">
+    <row r="173" spans="52:52">
+      <c r="AZ173" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="178" spans="50:50">
-      <c r="AX178" t="s">
+    <row r="174" spans="52:52">
+      <c r="AZ174" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="50:50">
-      <c r="AX179" t="s">
+    <row r="175" spans="52:52">
+      <c r="AZ175" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="180" spans="50:50">
-      <c r="AX180" t="s">
+    <row r="176" spans="52:52">
+      <c r="AZ176" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="181" spans="50:50">
-      <c r="AX181" t="s">
+    <row r="177" spans="52:52">
+      <c r="AZ177" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="182" spans="50:50">
-      <c r="AX182" t="s">
+    <row r="178" spans="52:52">
+      <c r="AZ178" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="183" spans="50:50">
-      <c r="AX183" t="s">
+    <row r="179" spans="52:52">
+      <c r="AZ179" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="184" spans="50:50">
-      <c r="AX184" t="s">
+    <row r="180" spans="52:52">
+      <c r="AZ180" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="185" spans="50:50">
-      <c r="AX185" t="s">
+    <row r="181" spans="52:52">
+      <c r="AZ181" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="186" spans="50:50">
-      <c r="AX186" t="s">
+    <row r="182" spans="52:52">
+      <c r="AZ182" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="187" spans="50:50">
-      <c r="AX187" t="s">
+    <row r="183" spans="52:52">
+      <c r="AZ183" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="188" spans="50:50">
-      <c r="AX188" t="s">
+    <row r="184" spans="52:52">
+      <c r="AZ184" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="189" spans="50:50">
-      <c r="AX189" t="s">
+    <row r="185" spans="52:52">
+      <c r="AZ185" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="190" spans="50:50">
-      <c r="AX190" t="s">
+    <row r="186" spans="52:52">
+      <c r="AZ186" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="191" spans="50:50">
-      <c r="AX191" t="s">
+    <row r="187" spans="52:52">
+      <c r="AZ187" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="192" spans="50:50">
-      <c r="AX192" t="s">
+    <row r="188" spans="52:52">
+      <c r="AZ188" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="193" spans="50:50">
-      <c r="AX193" t="s">
+    <row r="189" spans="52:52">
+      <c r="AZ189" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="194" spans="50:50">
-      <c r="AX194" t="s">
+    <row r="190" spans="52:52">
+      <c r="AZ190" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="195" spans="50:50">
-      <c r="AX195" t="s">
+    <row r="191" spans="52:52">
+      <c r="AZ191" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="196" spans="50:50">
-      <c r="AX196" t="s">
+    <row r="192" spans="52:52">
+      <c r="AZ192" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="197" spans="50:50">
-      <c r="AX197" t="s">
+    <row r="193" spans="52:52">
+      <c r="AZ193" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="198" spans="50:50">
-      <c r="AX198" t="s">
+    <row r="194" spans="52:52">
+      <c r="AZ194" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="199" spans="50:50">
-      <c r="AX199" t="s">
+    <row r="195" spans="52:52">
+      <c r="AZ195" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="200" spans="50:50">
-      <c r="AX200" t="s">
+    <row r="196" spans="52:52">
+      <c r="AZ196" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="201" spans="50:50">
-      <c r="AX201" t="s">
+    <row r="197" spans="52:52">
+      <c r="AZ197" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="202" spans="50:50">
-      <c r="AX202" t="s">
+    <row r="198" spans="52:52">
+      <c r="AZ198" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="203" spans="50:50">
-      <c r="AX203" t="s">
+    <row r="199" spans="52:52">
+      <c r="AZ199" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="204" spans="50:50">
-      <c r="AX204" t="s">
+    <row r="200" spans="52:52">
+      <c r="AZ200" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="205" spans="50:50">
-      <c r="AX205" t="s">
+    <row r="201" spans="52:52">
+      <c r="AZ201" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="206" spans="50:50">
-      <c r="AX206" t="s">
+    <row r="202" spans="52:52">
+      <c r="AZ202" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="207" spans="50:50">
-      <c r="AX207" t="s">
+    <row r="203" spans="52:52">
+      <c r="AZ203" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="208" spans="50:50">
-      <c r="AX208" t="s">
+    <row r="204" spans="52:52">
+      <c r="AZ204" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="209" spans="50:50">
-      <c r="AX209" t="s">
+    <row r="205" spans="52:52">
+      <c r="AZ205" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="210" spans="50:50">
-      <c r="AX210" t="s">
+    <row r="206" spans="52:52">
+      <c r="AZ206" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="211" spans="50:50">
-      <c r="AX211" t="s">
+    <row r="207" spans="52:52">
+      <c r="AZ207" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="212" spans="50:50">
-      <c r="AX212" t="s">
+    <row r="208" spans="52:52">
+      <c r="AZ208" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="213" spans="50:50">
-      <c r="AX213" t="s">
+    <row r="209" spans="52:52">
+      <c r="AZ209" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="214" spans="50:50">
-      <c r="AX214" t="s">
+    <row r="210" spans="52:52">
+      <c r="AZ210" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="215" spans="50:50">
-      <c r="AX215" t="s">
+    <row r="211" spans="52:52">
+      <c r="AZ211" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="216" spans="50:50">
-      <c r="AX216" t="s">
+    <row r="212" spans="52:52">
+      <c r="AZ212" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="217" spans="50:50">
-      <c r="AX217" t="s">
+    <row r="213" spans="52:52">
+      <c r="AZ213" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="218" spans="50:50">
-      <c r="AX218" t="s">
+    <row r="214" spans="52:52">
+      <c r="AZ214" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="219" spans="50:50">
-      <c r="AX219" t="s">
+    <row r="215" spans="52:52">
+      <c r="AZ215" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="220" spans="50:50">
-      <c r="AX220" t="s">
+    <row r="216" spans="52:52">
+      <c r="AZ216" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="221" spans="50:50">
-      <c r="AX221" t="s">
+    <row r="217" spans="52:52">
+      <c r="AZ217" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="222" spans="50:50">
-      <c r="AX222" t="s">
+    <row r="218" spans="52:52">
+      <c r="AZ218" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="223" spans="50:50">
-      <c r="AX223" t="s">
+    <row r="219" spans="52:52">
+      <c r="AZ219" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="224" spans="50:50">
-      <c r="AX224" t="s">
+    <row r="220" spans="52:52">
+      <c r="AZ220" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="225" spans="50:50">
-      <c r="AX225" t="s">
+    <row r="221" spans="52:52">
+      <c r="AZ221" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="226" spans="50:50">
-      <c r="AX226" t="s">
+    <row r="222" spans="52:52">
+      <c r="AZ222" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="227" spans="50:50">
-      <c r="AX227" t="s">
+    <row r="223" spans="52:52">
+      <c r="AZ223" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="228" spans="50:50">
-      <c r="AX228" t="s">
+    <row r="224" spans="52:52">
+      <c r="AZ224" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="229" spans="50:50">
-      <c r="AX229" t="s">
+    <row r="225" spans="52:52">
+      <c r="AZ225" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="230" spans="50:50">
-      <c r="AX230" t="s">
+    <row r="226" spans="52:52">
+      <c r="AZ226" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="231" spans="50:50">
-      <c r="AX231" t="s">
+    <row r="227" spans="52:52">
+      <c r="AZ227" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="232" spans="50:50">
-      <c r="AX232" t="s">
+    <row r="228" spans="52:52">
+      <c r="AZ228" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="233" spans="50:50">
-      <c r="AX233" t="s">
+    <row r="229" spans="52:52">
+      <c r="AZ229" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="234" spans="50:50">
-      <c r="AX234" t="s">
+    <row r="230" spans="52:52">
+      <c r="AZ230" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="235" spans="50:50">
-      <c r="AX235" t="s">
+    <row r="231" spans="52:52">
+      <c r="AZ231" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="236" spans="50:50">
-      <c r="AX236" t="s">
+    <row r="232" spans="52:52">
+      <c r="AZ232" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="237" spans="50:50">
-      <c r="AX237" t="s">
+    <row r="233" spans="52:52">
+      <c r="AZ233" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="238" spans="50:50">
-      <c r="AX238" t="s">
+    <row r="234" spans="52:52">
+      <c r="AZ234" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="239" spans="50:50">
-      <c r="AX239" t="s">
+    <row r="235" spans="52:52">
+      <c r="AZ235" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="240" spans="50:50">
-      <c r="AX240" t="s">
+    <row r="236" spans="52:52">
+      <c r="AZ236" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="241" spans="50:50">
-      <c r="AX241" t="s">
+    <row r="237" spans="52:52">
+      <c r="AZ237" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="242" spans="50:50">
-      <c r="AX242" t="s">
+    <row r="238" spans="52:52">
+      <c r="AZ238" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="243" spans="50:50">
-      <c r="AX243" t="s">
+    <row r="239" spans="52:52">
+      <c r="AZ239" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="244" spans="50:50">
-      <c r="AX244" t="s">
+    <row r="240" spans="52:52">
+      <c r="AZ240" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="245" spans="50:50">
-      <c r="AX245" t="s">
+    <row r="241" spans="52:52">
+      <c r="AZ241" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="246" spans="50:50">
-      <c r="AX246" t="s">
+    <row r="242" spans="52:52">
+      <c r="AZ242" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="247" spans="50:50">
-      <c r="AX247" t="s">
+    <row r="243" spans="52:52">
+      <c r="AZ243" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="50:50">
-      <c r="AX248" t="s">
+    <row r="244" spans="52:52">
+      <c r="AZ244" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="249" spans="50:50">
-      <c r="AX249" t="s">
+    <row r="245" spans="52:52">
+      <c r="AZ245" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="250" spans="50:50">
-      <c r="AX250" t="s">
+    <row r="246" spans="52:52">
+      <c r="AZ246" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="251" spans="50:50">
-      <c r="AX251" t="s">
+    <row r="247" spans="52:52">
+      <c r="AZ247" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="252" spans="50:50">
-      <c r="AX252" t="s">
+    <row r="248" spans="52:52">
+      <c r="AZ248" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="253" spans="50:50">
-      <c r="AX253" t="s">
+    <row r="249" spans="52:52">
+      <c r="AZ249" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="254" spans="50:50">
-      <c r="AX254" t="s">
+    <row r="250" spans="52:52">
+      <c r="AZ250" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="255" spans="50:50">
-      <c r="AX255" t="s">
+    <row r="251" spans="52:52">
+      <c r="AZ251" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="50:50">
-      <c r="AX256" t="s">
+    <row r="252" spans="52:52">
+      <c r="AZ252" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="257" spans="50:50">
-      <c r="AX257" t="s">
+    <row r="253" spans="52:52">
+      <c r="AZ253" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="258" spans="50:50">
-      <c r="AX258" t="s">
+    <row r="254" spans="52:52">
+      <c r="AZ254" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="259" spans="50:50">
-      <c r="AX259" t="s">
+    <row r="255" spans="52:52">
+      <c r="AZ255" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="260" spans="50:50">
-      <c r="AX260" t="s">
+    <row r="256" spans="52:52">
+      <c r="AZ256" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="261" spans="50:50">
-      <c r="AX261" t="s">
+    <row r="257" spans="52:52">
+      <c r="AZ257" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="262" spans="50:50">
-      <c r="AX262" t="s">
+    <row r="258" spans="52:52">
+      <c r="AZ258" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="263" spans="50:50">
-      <c r="AX263" t="s">
+    <row r="259" spans="52:52">
+      <c r="AZ259" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="264" spans="50:50">
-      <c r="AX264" t="s">
+    <row r="260" spans="52:52">
+      <c r="AZ260" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="265" spans="50:50">
-      <c r="AX265" t="s">
+    <row r="261" spans="52:52">
+      <c r="AZ261" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="266" spans="50:50">
-      <c r="AX266" t="s">
+    <row r="262" spans="52:52">
+      <c r="AZ262" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="267" spans="50:50">
-      <c r="AX267" t="s">
+    <row r="263" spans="52:52">
+      <c r="AZ263" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="268" spans="50:50">
-      <c r="AX268" t="s">
+    <row r="264" spans="52:52">
+      <c r="AZ264" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="269" spans="50:50">
-      <c r="AX269" t="s">
+    <row r="265" spans="52:52">
+      <c r="AZ265" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="270" spans="50:50">
-      <c r="AX270" t="s">
+    <row r="266" spans="52:52">
+      <c r="AZ266" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="271" spans="50:50">
-      <c r="AX271" t="s">
+    <row r="267" spans="52:52">
+      <c r="AZ267" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="272" spans="50:50">
-      <c r="AX272" t="s">
+    <row r="268" spans="52:52">
+      <c r="AZ268" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="273" spans="50:50">
-      <c r="AX273" t="s">
+    <row r="269" spans="52:52">
+      <c r="AZ269" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="274" spans="50:50">
-      <c r="AX274" t="s">
+    <row r="270" spans="52:52">
+      <c r="AZ270" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="275" spans="50:50">
-      <c r="AX275" t="s">
+    <row r="271" spans="52:52">
+      <c r="AZ271" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="276" spans="50:50">
-      <c r="AX276" t="s">
+    <row r="272" spans="52:52">
+      <c r="AZ272" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="277" spans="50:50">
-      <c r="AX277" t="s">
+    <row r="273" spans="52:52">
+      <c r="AZ273" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="278" spans="50:50">
-      <c r="AX278" t="s">
+    <row r="274" spans="52:52">
+      <c r="AZ274" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="279" spans="50:50">
-      <c r="AX279" t="s">
+    <row r="275" spans="52:52">
+      <c r="AZ275" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="280" spans="50:50">
-      <c r="AX280" t="s">
+    <row r="276" spans="52:52">
+      <c r="AZ276" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="281" spans="50:50">
-      <c r="AX281" t="s">
+    <row r="277" spans="52:52">
+      <c r="AZ277" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="282" spans="50:50">
-      <c r="AX282" t="s">
+    <row r="278" spans="52:52">
+      <c r="AZ278" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="283" spans="50:50">
-      <c r="AX283" t="s">
+    <row r="279" spans="52:52">
+      <c r="AZ279" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="284" spans="50:50">
-      <c r="AX284" t="s">
+    <row r="280" spans="52:52">
+      <c r="AZ280" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="285" spans="50:50">
-      <c r="AX285" t="s">
+    <row r="281" spans="52:52">
+      <c r="AZ281" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="286" spans="50:50">
-      <c r="AX286" t="s">
+    <row r="282" spans="52:52">
+      <c r="AZ282" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="287" spans="50:50">
-      <c r="AX287" t="s">
+    <row r="283" spans="52:52">
+      <c r="AZ283" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="288" spans="50:50">
-      <c r="AX288" t="s">
+    <row r="284" spans="52:52">
+      <c r="AZ284" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="289" spans="50:50">
-      <c r="AX289" t="s">
+    <row r="285" spans="52:52">
+      <c r="AZ285" t="s">
         <v>725</v>
+      </c>
+    </row>
+    <row r="286" spans="52:52">
+      <c r="AZ286" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="287" spans="52:52">
+      <c r="AZ287" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="288" spans="52:52">
+      <c r="AZ288" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="289" spans="52:52">
+      <c r="AZ289" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BJ$1:$BJ$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$294</definedName>
     <definedName name="historytillage">'cv_sample'!$CE$1:$CE$9</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="889">
   <si>
     <t>alias</t>
   </si>
@@ -1320,7 +1320,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>sieving</t>
@@ -1578,9 +1578,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1599,6 +1596,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1800,6 +1800,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1809,9 +1812,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1851,7 +1851,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1920,6 +1920,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1995,6 +1998,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -2016,6 +2022,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2061,6 +2070,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2073,6 +2085,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2082,9 +2097,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2109,6 +2121,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2169,12 +2184,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2355,7 +2370,7 @@
     <t>water content</t>
   </si>
   <si>
-    <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
+    <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: %, cm3/cm3, g/g)</t>
   </si>
   <si>
     <t>slope gradient</t>
@@ -2430,7 +2445,7 @@
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L, µg/L)</t>
   </si>
   <si>
     <t>salinity method</t>
@@ -2625,7 +2640,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2691,7 +2706,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -4389,196 +4404,196 @@
         <v>439</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:115" ht="150" customHeight="1">
@@ -4736,196 +4751,196 @@
         <v>440</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -4967,7 +4982,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:CE289"/>
+  <dimension ref="G1:CE294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4993,16 +5008,16 @@
         <v>441</v>
       </c>
       <c r="BI1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BJ1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BQ1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CE1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="7:83">
@@ -5025,16 +5040,16 @@
         <v>442</v>
       </c>
       <c r="BI2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BJ2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BQ2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CE2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="7:83">
@@ -5057,16 +5072,16 @@
         <v>443</v>
       </c>
       <c r="BI3" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BJ3" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BQ3" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CE3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="7:83">
@@ -5086,16 +5101,16 @@
         <v>444</v>
       </c>
       <c r="BI4" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BJ4" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BQ4" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CE4" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="7:83">
@@ -5115,16 +5130,16 @@
         <v>445</v>
       </c>
       <c r="BI5" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BJ5" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BQ5" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CE5" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="6" spans="7:83">
@@ -5141,13 +5156,13 @@
         <v>446</v>
       </c>
       <c r="BI6" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BJ6" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CE6" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="7:83">
@@ -5164,7 +5179,7 @@
         <v>447</v>
       </c>
       <c r="CE7" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" spans="7:83">
@@ -5178,7 +5193,7 @@
         <v>448</v>
       </c>
       <c r="CE8" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="7:83">
@@ -5192,7 +5207,7 @@
         <v>449</v>
       </c>
       <c r="CE9" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="7:83">
@@ -6725,6 +6740,31 @@
     <row r="289" spans="52:52">
       <c r="AZ289" t="s">
         <v>729</v>
+      </c>
+    </row>
+    <row r="290" spans="52:52">
+      <c r="AZ290" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="291" spans="52:52">
+      <c r="AZ291" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="292" spans="52:52">
+      <c r="AZ292" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="293" spans="52:52">
+      <c r="AZ293" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="294" spans="52:52">
+      <c r="AZ294" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000022/metadata_template_ERC000022.xlsx
+++ b/templates/ERC000022/metadata_template_ERC000022.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BJ$1:$BJ$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$294</definedName>
     <definedName name="historytillage">'cv_sample'!$CE$1:$CE$9</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="889">
   <si>
     <t>alias</t>
   </si>
@@ -1320,7 +1320,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>sieving</t>
@@ -1578,9 +1578,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1599,6 +1596,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1800,6 +1800,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1809,9 +1812,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1851,7 +1851,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1920,6 +1920,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1995,6 +1998,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -2016,6 +2022,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2061,6 +2070,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2073,6 +2085,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2082,9 +2097,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2109,6 +2121,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2169,12 +2184,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2430,7 +2445,7 @@
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>salinity method</t>
@@ -2625,7 +2640,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2691,7 +2706,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -4389,196 +4404,196 @@
         <v>439</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:115" ht="150" customHeight="1">
@@ -4736,196 +4751,196 @@
         <v>440</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -4967,7 +4982,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:CE289"/>
+  <dimension ref="G1:CE294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4993,16 +5008,16 @@
         <v>441</v>
       </c>
       <c r="BI1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BJ1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BQ1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CE1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="7:83">
@@ -5025,16 +5040,16 @@
         <v>442</v>
       </c>
       <c r="BI2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BJ2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BQ2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CE2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="7:83">
@@ -5057,16 +5072,16 @@
         <v>443</v>
       </c>
       <c r="BI3" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BJ3" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BQ3" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CE3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="7:83">
@@ -5086,16 +5101,16 @@
         <v>444</v>
       </c>
       <c r="BI4" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BJ4" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BQ4" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CE4" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="7:83">
@@ -5115,16 +5130,16 @@
         <v>445</v>
       </c>
       <c r="BI5" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BJ5" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BQ5" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CE5" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="6" spans="7:83">
@@ -5141,13 +5156,13 @@
         <v>446</v>
       </c>
       <c r="BI6" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BJ6" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CE6" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="7:83">
@@ -5164,7 +5179,7 @@
         <v>447</v>
       </c>
       <c r="CE7" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" spans="7:83">
@@ -5178,7 +5193,7 @@
         <v>448</v>
       </c>
       <c r="CE8" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="7:83">
@@ -5192,7 +5207,7 @@
         <v>449</v>
       </c>
       <c r="CE9" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="7:83">
@@ -6725,6 +6740,31 @@
     <row r="289" spans="52:52">
       <c r="AZ289" t="s">
         <v>729</v>
+      </c>
+    </row>
+    <row r="290" spans="52:52">
+      <c r="AZ290" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="291" spans="52:52">
+      <c r="AZ291" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="292" spans="52:52">
+      <c r="AZ292" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="293" spans="52:52">
+      <c r="AZ293" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="294" spans="52:52">
+      <c r="AZ294" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
